--- a/Actividades/Femp03011/Flujo_de_fondos.xlsx
+++ b/Actividades/Femp03011/Flujo_de_fondos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\ProyectoFinal2019-\Actividades\Femp03011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01201039-CA7D-43DB-A0D9-A4082F754A9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C0FDD0-8050-4729-8409-12E0743D8350}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="182">
   <si>
     <t xml:space="preserve">Ventas: </t>
   </si>
@@ -647,15 +647,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$UYU]_-;\-* #,##0.00\ [$UYU]_-;_-* &quot;-&quot;??\ [$UYU]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-340A]\ * #,##0.00_-;\-[$$-340A]\ * #,##0.00_-;_-[$$-340A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="0.000%"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;US$&quot;"/>
-    <numFmt numFmtId="174" formatCode="_-[$$-1004]* #,##0.00_-;\-[$$-1004]* #,##0.00_-;_-[$$-1004]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_-[$$-45C]* #,##0.00_-;\-[$$-45C]* #,##0.00_-;_-[$$-45C]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-[$$-2C0A]\ * #,##0_-;\-[$$-2C0A]\ * #,##0_-;_-[$$-2C0A]\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-340A]\ * #,##0.00_-;\-[$$-340A]\ * #,##0.00_-;_-[$$-340A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_ [$$-340A]* #,##0.00_ ;_ [$$-340A]* \-#,##0.00_ ;_ [$$-340A]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;US$&quot;"/>
+    <numFmt numFmtId="171" formatCode="_-[$$-1004]* #,##0.00_-;\-[$$-1004]* #,##0.00_-;_-[$$-1004]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-[$$-45C]* #,##0.00_-;\-[$$-45C]* #,##0.00_-;_-[$$-45C]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-[$$-2C0A]\ * #,##0_-;\-[$$-2C0A]\ * #,##0_-;_-[$$-2C0A]\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -684,12 +684,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -802,6 +796,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -835,7 +836,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="104">
     <border>
       <left/>
       <right/>
@@ -1370,19 +1371,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1765,7 +1753,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1781,7 +1769,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1790,8 +1778,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1800,22 +1790,99 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1829,109 +1896,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="mediumDashed">
         <color indexed="64"/>
       </right>
@@ -1963,6 +1927,228 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1971,7 +2157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
@@ -1980,646 +2166,462 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2665,15 +2667,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>470437</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>118799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2654407</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>2181224</xdr:rowOff>
+      <xdr:colOff>2896861</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>310861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2702,8 +2704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23849982" y="0"/>
-          <a:ext cx="2183970" cy="2181224"/>
+          <a:off x="23760545" y="118799"/>
+          <a:ext cx="2515861" cy="2512698"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3180,7 +3182,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,48 +3199,51 @@
     <col min="10" max="10" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="182.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-    </row>
-    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="204"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="220"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="204"/>
+    </row>
+    <row r="3" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="224"/>
+      <c r="C3" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="63"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="204"/>
     </row>
     <row r="4" spans="1:10" ht="47.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="226"/>
+      <c r="B4" s="227"/>
       <c r="C4" s="7"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
@@ -3248,436 +3253,457 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="228"/>
+      <c r="B5" s="229"/>
+      <c r="C5" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="201"/>
+      <c r="E5" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="17" t="s">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="148"/>
+      <c r="C6" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21">
+      <c r="D6" s="199"/>
+      <c r="E6" s="202">
         <f>'Tablas Calculadas '!I8</f>
         <v>10510938.334933335</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="202">
         <f>'Tablas Calculadas '!I9</f>
         <v>3057963.2529333332</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="202">
         <f>'Tablas Calculadas '!I10</f>
         <v>4532030.391466666</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="202">
         <f>'Tablas Calculadas '!I11</f>
         <v>5526691.8570666667</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="206">
         <f>'Tablas Calculadas '!I12</f>
         <v>0</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="146"/>
+      <c r="C7" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="25">
+      <c r="D7" s="130"/>
+      <c r="E7" s="9">
         <f>'Tablas Calculadas '!C61*-1</f>
         <v>-8924588.8000000007</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="9">
         <f>'Tablas Calculadas '!C62*-1</f>
         <v>-5226902.4000000004</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="9">
         <f>'Tablas Calculadas '!C63*-1</f>
         <v>-5612812.7999999998</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="9">
         <f>'Tablas Calculadas '!C64*-1</f>
         <v>-6606643.1999999993</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="207">
         <f>'Tablas Calculadas '!C65*-1</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="145" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="146"/>
+      <c r="C8" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="25">
+      <c r="D8" s="130"/>
+      <c r="E8" s="9">
         <f>'Tablas Calculadas '!B61*-1</f>
         <v>-584877.11999999988</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="9">
         <f>'Tablas Calculadas '!B62*-1</f>
         <v>-673880.16</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="9">
         <f>'Tablas Calculadas '!B63*-1</f>
         <v>-712024.32000000007</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="9">
         <f>'Tablas Calculadas '!B64*-1</f>
         <v>-813742.07999999996</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="208">
         <f>'Tablas Calculadas '!B65*-1</f>
         <v>0</v>
       </c>
+      <c r="J8" s="204"/>
     </row>
     <row r="9" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29" t="s">
+      <c r="B9" s="127"/>
+      <c r="C9" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31">
+      <c r="D9" s="132"/>
+      <c r="E9" s="10">
         <f>SUM(Constantes!E58:E86)*Constantes!B27*-1</f>
         <v>-64680.691999999995</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="10">
         <f>SUM(Constantes!E58:E86)*Constantes!B28*-1</f>
         <v>-74523.405999999988</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="10">
         <f>SUM(Constantes!E58:E86)*Constantes!B29*-1</f>
         <v>-78741.712</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="10">
         <f>SUM(Constantes!E58:E86)*Constantes!B30*-1</f>
         <v>-89990.527999999991</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="209">
         <f>SUM(Constantes!E58:E86)*Constantes!B31*-1</f>
         <v>0</v>
       </c>
+      <c r="J9" s="204"/>
     </row>
     <row r="10" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="147" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="148"/>
+      <c r="C10" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="56">
+      <c r="D10" s="134"/>
+      <c r="E10" s="15">
         <f>SUM(E6:E9)</f>
         <v>936791.7229333343</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="15">
         <f t="shared" ref="F10:I10" si="0">SUM(F6:F9)</f>
         <v>-2917342.7130666673</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="15">
         <f t="shared" si="0"/>
         <v>-1871548.4405333339</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="15">
         <f t="shared" si="0"/>
         <v>-1983683.9509333326</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="210">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="127"/>
+      <c r="C11" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="57">
+      <c r="D11" s="136"/>
+      <c r="E11" s="16">
         <f>IF(E10&gt;0,E10/4,0)</f>
         <v>234197.93073333357</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="16">
         <f t="shared" ref="F11:I11" si="1">IF(F10&gt;0,F10/4,0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="211">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="148"/>
+      <c r="C12" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39">
+      <c r="D12" s="138"/>
+      <c r="E12" s="11">
         <f>E10-E11</f>
         <v>702593.79220000072</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="11">
         <f t="shared" ref="F12:I12" si="2">F10-F11</f>
         <v>-2917342.7130666673</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="11">
         <f t="shared" si="2"/>
         <v>-1871548.4405333339</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="11">
         <f t="shared" si="2"/>
         <v>-1983683.9509333326</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="212">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="J12" s="204"/>
     </row>
     <row r="13" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="146"/>
+      <c r="C13" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42">
+      <c r="D13" s="140"/>
+      <c r="E13" s="12">
         <f>E9*-1</f>
         <v>64680.691999999995</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="12">
         <f t="shared" ref="F13:I13" si="3">F9*-1</f>
         <v>74523.405999999988</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="12">
         <f t="shared" si="3"/>
         <v>78741.712</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="12">
         <f t="shared" si="3"/>
         <v>89990.527999999991</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="213">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J13" s="204"/>
     </row>
     <row r="14" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="44">
+      <c r="B14" s="127"/>
+      <c r="C14" s="141">
         <f>SUM(Constantes!B58:'Constantes'!B86)*Constantes!B26*-1</f>
         <v>-372571.19999999995</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46" t="s">
+      <c r="D14" s="142"/>
+      <c r="E14" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="214" t="s">
         <v>165</v>
       </c>
+      <c r="J14" s="204"/>
     </row>
     <row r="15" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49">
+      <c r="B15" s="128"/>
+      <c r="C15" s="143">
         <f>C14</f>
         <v>-372571.19999999995</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51">
+      <c r="D15" s="144"/>
+      <c r="E15" s="14">
         <f>E12+E13</f>
         <v>767274.48420000076</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="14">
         <f t="shared" ref="F15:I15" si="4">F12+F13</f>
         <v>-2842819.3070666674</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="14">
         <f t="shared" si="4"/>
         <v>-1792806.7285333339</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="14">
         <f t="shared" si="4"/>
         <v>-1893693.4229333326</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="215">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A16" s="69" t="s">
+      <c r="J15" s="204"/>
+    </row>
+    <row r="16" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="58">
+      <c r="B16" s="189"/>
+      <c r="C16" s="191">
         <v>1</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="53">
+      <c r="D16" s="192"/>
+      <c r="E16" s="194">
         <v>1.08</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="194">
         <v>1.1664000000000001</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="194">
         <v>1.2597</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="194">
         <v>1.3605</v>
       </c>
-      <c r="I16" s="70">
+      <c r="I16" s="216">
         <v>1.4693000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="71" t="s">
+      <c r="J16" s="204"/>
+    </row>
+    <row r="17" spans="1:10" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="190" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73">
+      <c r="B17" s="196"/>
+      <c r="C17" s="193">
         <f>C15/C16</f>
         <v>-372571.19999999995</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="74">
+      <c r="D17" s="196"/>
+      <c r="E17" s="197">
         <f>E15/E16</f>
         <v>710439.33722222294</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="197">
         <f t="shared" ref="F17:I17" si="5">F15/F16</f>
         <v>-2437259.3510516691</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="197">
         <f t="shared" si="5"/>
         <v>-1423201.3404249693</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="195">
         <f t="shared" si="5"/>
         <v>-1391909.9029278446</v>
       </c>
-      <c r="I17" s="75">
+      <c r="I17" s="188">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="204"/>
+    </row>
+    <row r="18" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C16:D16"/>
@@ -3693,18 +3719,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E6:I14 E16:I17">
@@ -3734,7 +3748,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F78" sqref="A1:J78"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,1613 +3767,1613 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="149" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="156" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="87">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26">
         <f>B7*'Tablas Calculadas '!E20+C7*'Tablas Calculadas '!E21+F7*'Tablas Calculadas '!E39+G7*'Tablas Calculadas '!E40+'Tablas Calculadas '!E41*H7+D7*'Tablas Calculadas '!E27+E7*'Tablas Calculadas '!E33</f>
         <v>0</v>
       </c>
-      <c r="J7" s="88"/>
+      <c r="J7" s="157"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="28">
         <v>1</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="29">
         <v>4</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="29">
         <v>2</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29">
         <v>1</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93">
+      <c r="H8" s="30"/>
+      <c r="I8" s="31">
         <f>B8*'Tablas Calculadas '!E20+C8*'Tablas Calculadas '!E22+F8*'Tablas Calculadas '!E42+G8*'Tablas Calculadas '!E43+'Tablas Calculadas '!E44*H8+D8*'Tablas Calculadas '!E28+E8*'Tablas Calculadas '!E34</f>
         <v>10510938.334933335</v>
       </c>
-      <c r="J8" s="88"/>
+      <c r="J8" s="157"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29">
         <v>5</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="29">
         <v>2</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="29">
         <v>1</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31">
         <f>B9*'Tablas Calculadas '!E20+C9*'Tablas Calculadas '!E23+F9*'Tablas Calculadas '!E45+G9*'Tablas Calculadas '!E46+H9*'Tablas Calculadas '!E47+D9*'Tablas Calculadas '!E29+E9*'Tablas Calculadas '!E35</f>
         <v>3057963.2529333332</v>
       </c>
-      <c r="J9" s="88"/>
+      <c r="J9" s="157"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29">
         <v>4</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="29">
         <v>2</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="87">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="26">
         <f>B10*'Tablas Calculadas '!E20+C10*'Tablas Calculadas '!E24+F10*'Tablas Calculadas '!E48+'Tablas Calculadas '!E49*G10+H10*'Tablas Calculadas '!E50+D10*'Tablas Calculadas '!E30+E10*'Tablas Calculadas '!E36</f>
         <v>4532030.391466666</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="157"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34">
         <v>2</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="34">
         <v>3</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="34">
         <v>2</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36">
         <f>B11*'Tablas Calculadas '!E20+C11*'Tablas Calculadas '!E25+F11*'Tablas Calculadas '!E51+'Tablas Calculadas '!E52*G11+H11*'Tablas Calculadas '!E53+D11*'Tablas Calculadas '!E31+E11*'Tablas Calculadas '!E37</f>
         <v>5526691.8570666667</v>
       </c>
-      <c r="J11" s="88"/>
+      <c r="J11" s="157"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="88"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="157"/>
     </row>
     <row r="13" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="105">
+      <c r="B13" s="43">
         <f>SUM(B7:B11)*'Tablas Calculadas '!E20</f>
         <v>3505796.0000000009</v>
       </c>
-      <c r="C13" s="105">
+      <c r="C13" s="43">
         <f>C7*'Tablas Calculadas '!E21+C8*'Tablas Calculadas '!E22+C9*'Tablas Calculadas '!E23+C10*'Tablas Calculadas '!E24+C11*'Tablas Calculadas '!E25</f>
         <v>1891548.15</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="43">
         <f>D7*'Tablas Calculadas '!E27+D8*'Tablas Calculadas '!E28+D9*'Tablas Calculadas '!E29+D10*'Tablas Calculadas '!E30+D11*'Tablas Calculadas '!E31</f>
         <v>5094503.2256000005</v>
       </c>
-      <c r="E13" s="106">
+      <c r="E13" s="44">
         <f>E7*'Tablas Calculadas '!E33+E8*'Tablas Calculadas '!E34+E9*'Tablas Calculadas '!E35+E10*'Tablas Calculadas '!E36+E11*'Tablas Calculadas '!E37</f>
         <v>7498801.036799999</v>
       </c>
-      <c r="F13" s="106">
+      <c r="F13" s="44">
         <f>F7*'Tablas Calculadas '!E39+F8*'Tablas Calculadas '!E42+F9*'Tablas Calculadas '!E45+F10*'Tablas Calculadas '!E48+F11*'Tablas Calculadas '!E51</f>
         <v>0</v>
       </c>
-      <c r="G13" s="106">
+      <c r="G13" s="44">
         <f>G7*'Tablas Calculadas '!E40+G8*'Tablas Calculadas '!E43+G9*'Tablas Calculadas '!E46+G10*'Tablas Calculadas '!E49+G11*'Tablas Calculadas '!E52</f>
         <v>5636975.4239999996</v>
       </c>
-      <c r="H13" s="106">
+      <c r="H13" s="44">
         <f>H7*'Tablas Calculadas '!E41+H8*'Tablas Calculadas '!E44+H9*'Tablas Calculadas '!E47+H10*'Tablas Calculadas '!E50+H11*'Tablas Calculadas '!E53</f>
         <v>0</v>
       </c>
-      <c r="I13" s="107">
+      <c r="I13" s="45">
         <f>SUM(I7:I11)</f>
         <v>23627623.836400002</v>
       </c>
-      <c r="J13" s="88"/>
+      <c r="J13" s="157"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110" t="s">
+      <c r="B18" s="152"/>
+      <c r="C18" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="114" t="s">
+      <c r="E19" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="116">
+      <c r="B20" s="49">
         <f>(Constantes!C19*(1+((Constantes!D19/100)*0))+ Constantes!C20*(1+((Constantes!D20/100)*0)) + Constantes!C21*(1+((Constantes!D21/100)*0)))*Constantes!B26*7</f>
         <v>281960</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="49">
         <f>(('Tablas Calculadas '!C61-C43)/12)*7</f>
         <v>2522676.8000000007</v>
       </c>
-      <c r="D20" s="117">
+      <c r="D20" s="50">
         <v>25</v>
       </c>
-      <c r="E20" s="118">
+      <c r="E20" s="51">
         <f t="shared" ref="E20:E50" si="0">SUM(B20:C20)*(1+(D20/100))</f>
         <v>3505796.0000000009</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="120">
+      <c r="B21" s="53">
         <f>('Tablas Calculadas '!B60/(12*30))*(Constantes!$C$10+2)</f>
         <v>13426.666666666668</v>
       </c>
-      <c r="C21" s="121">
+      <c r="C21" s="54">
         <f>(Constantes!$B$10*Constantes!$B$36*Constantes!B26*Constantes!$C$10)+(Constantes!$B$10*(Constantes!$B$35*(1+Constantes!$E$3))*Constantes!B26*Constantes!$D$10)</f>
         <v>61440</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="25">
         <v>25</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="55">
         <f t="shared" si="0"/>
         <v>93583.333333333343</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="120">
+      <c r="B22" s="53">
         <f>('Tablas Calculadas '!B61/(12*30))*(Constantes!$C$10+2)</f>
         <v>16246.586666666662</v>
       </c>
-      <c r="C22" s="121">
+      <c r="C22" s="54">
         <f>(Constantes!$B$10*Constantes!$B$36*Constantes!B27*Constantes!$C$10)+(Constantes!$B$10*(Constantes!$B$35*(1+Constantes!$E$3))*Constantes!B27*Constantes!$D$10)</f>
         <v>70656</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="25">
         <v>25</v>
       </c>
-      <c r="E22" s="124">
+      <c r="E22" s="57">
         <f t="shared" si="0"/>
         <v>108628.23333333334</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="120">
+      <c r="B23" s="53">
         <f>('Tablas Calculadas '!B62/(12*30))*(Constantes!$C$10+2)</f>
         <v>18718.893333333333</v>
       </c>
-      <c r="C23" s="121">
+      <c r="C23" s="54">
         <f>(Constantes!$B$10*Constantes!$B$36*Constantes!B28*Constantes!$C$10)+(Constantes!$B$10*(Constantes!$B$35*(1+Constantes!$E$3))*Constantes!B28*Constantes!$D$10)</f>
         <v>81408</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="25">
         <v>25</v>
       </c>
-      <c r="E23" s="124">
+      <c r="E23" s="57">
         <f t="shared" si="0"/>
         <v>125158.61666666667</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="120">
+      <c r="B24" s="53">
         <f>('Tablas Calculadas '!B63/(12*30))*(Constantes!$C$10+2)</f>
         <v>19778.453333333335</v>
       </c>
-      <c r="C24" s="121">
+      <c r="C24" s="54">
         <f>(Constantes!$B$10*Constantes!$B$36*Constantes!B29*Constantes!$C$10)+(Constantes!$B$10*(Constantes!$B$35*(1+Constantes!$E$3))*Constantes!B29*Constantes!$D$10)</f>
         <v>86016</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="25">
         <v>25</v>
       </c>
-      <c r="E24" s="124">
+      <c r="E24" s="57">
         <f t="shared" si="0"/>
         <v>132243.06666666668</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="125">
+      <c r="B25" s="58">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$10+2)</f>
         <v>22603.946666666667</v>
       </c>
-      <c r="C25" s="126">
+      <c r="C25" s="59">
         <f>(Constantes!$B$10*Constantes!$B$36*Constantes!B30*Constantes!$C$10)+(Constantes!$B$10*(Constantes!$B$35*(1+Constantes!$E$3))*Constantes!B30*Constantes!$D$10)</f>
         <v>98304</v>
       </c>
-      <c r="D25" s="102">
+      <c r="D25" s="40">
         <v>25</v>
       </c>
-      <c r="E25" s="127">
+      <c r="E25" s="60">
         <f t="shared" si="0"/>
         <v>151134.93333333335</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="120">
+      <c r="B27" s="53">
         <f>('Tablas Calculadas '!B60/(12*30))*(Constantes!$C$11+2)</f>
         <v>29538.666666666668</v>
       </c>
-      <c r="C27" s="121">
+      <c r="C27" s="54">
         <f>(Constantes!$B$11*Constantes!$B$36*Constantes!B26*Constantes!$C$11)+(Constantes!$B$11*(Constantes!$B$36*(1+Constantes!$E$3))*Constantes!B26*Constantes!$D$11)</f>
         <v>307200</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="25">
         <v>20</v>
       </c>
-      <c r="E27" s="122">
+      <c r="E27" s="55">
         <f t="shared" si="0"/>
         <v>404086.4</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="132" t="s">
+      <c r="A28" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="120">
+      <c r="B28" s="53">
         <f>('Tablas Calculadas '!B61/(12*30))*(Constantes!$C$11+2)</f>
         <v>35742.490666666657</v>
       </c>
-      <c r="C28" s="121">
+      <c r="C28" s="54">
         <f>(Constantes!$B$11*Constantes!$B$36*Constantes!B27*Constantes!$C$11)+(Constantes!$B$11*(Constantes!$B$36*(1+Constantes!$E$3))*Constantes!B27*Constantes!$D$11)</f>
         <v>353280</v>
       </c>
-      <c r="D28" s="86">
+      <c r="D28" s="25">
         <v>20</v>
       </c>
-      <c r="E28" s="124">
+      <c r="E28" s="57">
         <f t="shared" si="0"/>
         <v>466826.98879999999</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="120">
+      <c r="B29" s="53">
         <f>('Tablas Calculadas '!B62/(12*30))*(Constantes!$C$11+2)</f>
         <v>41181.565333333339</v>
       </c>
-      <c r="C29" s="121">
+      <c r="C29" s="54">
         <f>(Constantes!$B$11*Constantes!$B$36*Constantes!B28*Constantes!$C$11)+(Constantes!$B$11*(Constantes!$B$36*(1+Constantes!$E$3))*Constantes!B28*Constantes!$D$11)</f>
         <v>407040</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="25">
         <v>20</v>
       </c>
-      <c r="E29" s="124">
+      <c r="E29" s="57">
         <f t="shared" si="0"/>
         <v>537865.87839999993</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="132" t="s">
+      <c r="A30" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="120">
+      <c r="B30" s="53">
         <f>('Tablas Calculadas '!B63/(12*30))*(Constantes!$C$11+2)</f>
         <v>43512.597333333339</v>
       </c>
-      <c r="C30" s="121">
+      <c r="C30" s="54">
         <f>(Constantes!$B$11*Constantes!$B$36*Constantes!B29*Constantes!$C$11)+(Constantes!$B$11*(Constantes!$B$36*(1+Constantes!$E$3))*Constantes!B29*Constantes!$D$11)</f>
         <v>430080</v>
       </c>
-      <c r="D30" s="86">
+      <c r="D30" s="25">
         <v>20</v>
       </c>
-      <c r="E30" s="124">
+      <c r="E30" s="57">
         <f t="shared" si="0"/>
         <v>568311.11679999996</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="125">
+      <c r="B31" s="58">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$11+2)</f>
         <v>49728.682666666668</v>
       </c>
-      <c r="C31" s="126">
+      <c r="C31" s="59">
         <f>(Constantes!$B$11*Constantes!$B$36*Constantes!B30*Constantes!$C$11)+(Constantes!$B$11*(Constantes!$B$36*(1+Constantes!$E$3))*Constantes!B30*Constantes!$D$11)</f>
         <v>491520</v>
       </c>
-      <c r="D31" s="102">
+      <c r="D31" s="40">
         <v>20</v>
       </c>
-      <c r="E31" s="127">
+      <c r="E31" s="60">
         <f t="shared" si="0"/>
         <v>649498.4192</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="120">
+      <c r="B33" s="53">
         <f>('Tablas Calculadas '!B60/(12*30))*(Constantes!$C$12+2)</f>
         <v>32224</v>
       </c>
-      <c r="C33" s="121">
+      <c r="C33" s="54">
         <f>(Constantes!$B$12*Constantes!$B$36*Constantes!B26*Constantes!$C$12)+(Constantes!$B$12*(Constantes!$B$36*(1+Constantes!$E$3))*Constantes!B26*Constantes!$D$12)</f>
         <v>819200</v>
       </c>
-      <c r="D33" s="86">
+      <c r="D33" s="25">
         <v>20</v>
       </c>
-      <c r="E33" s="122">
+      <c r="E33" s="55">
         <f t="shared" si="0"/>
         <v>1021708.7999999999</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="132" t="s">
+      <c r="A34" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="120">
+      <c r="B34" s="53">
         <f>('Tablas Calculadas '!B61/(12*30))*(Constantes!$C$12+2)</f>
         <v>38991.80799999999</v>
       </c>
-      <c r="C34" s="133">
+      <c r="C34" s="66">
         <f>(Constantes!$B$12*Constantes!$B$36*Constantes!B27*Constantes!$C$12)+(Constantes!$B$12*(Constantes!$B$36*(1+Constantes!$E$3))*Constantes!B27*Constantes!$D$12)</f>
         <v>942080</v>
       </c>
-      <c r="D34" s="92">
+      <c r="D34" s="30">
         <v>20</v>
       </c>
-      <c r="E34" s="124">
+      <c r="E34" s="57">
         <f t="shared" si="0"/>
         <v>1177286.1695999999</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="132" t="s">
+      <c r="A35" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="120">
+      <c r="B35" s="53">
         <f>('Tablas Calculadas '!B62/(12*30))*(Constantes!$C$12+2)</f>
         <v>44925.344000000005</v>
       </c>
-      <c r="C35" s="133">
+      <c r="C35" s="66">
         <f>(Constantes!$B$12*Constantes!$B$36*Constantes!B28*Constantes!$C$12)+(Constantes!$B$12*(Constantes!$B$36*(1+Constantes!$E$3))*Constantes!B28*Constantes!$D$12)</f>
         <v>1085440</v>
       </c>
-      <c r="D35" s="92">
+      <c r="D35" s="30">
         <v>20</v>
       </c>
-      <c r="E35" s="124">
+      <c r="E35" s="57">
         <f t="shared" si="0"/>
         <v>1356438.4128</v>
       </c>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="120">
+      <c r="B36" s="53">
         <f>('Tablas Calculadas '!B63/(12*30))*(Constantes!$C$12+2)</f>
         <v>47468.288</v>
       </c>
-      <c r="C36" s="133">
+      <c r="C36" s="66">
         <f>(Constantes!$B$12*Constantes!$B$36*Constantes!B29*Constantes!$C$12)+(Constantes!$B$12*(Constantes!$B$36*(1+Constantes!$E$3))*Constantes!B29*Constantes!$D$12)</f>
         <v>1146880</v>
       </c>
-      <c r="D36" s="92">
+      <c r="D36" s="30">
         <v>20</v>
       </c>
-      <c r="E36" s="124">
+      <c r="E36" s="57">
         <f t="shared" si="0"/>
         <v>1433217.9456</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="132" t="s">
+      <c r="A37" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="134">
+      <c r="B37" s="67">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$12+2)</f>
         <v>54249.471999999994</v>
       </c>
-      <c r="C37" s="135">
+      <c r="C37" s="68">
         <f>(Constantes!$B$12*Constantes!$B$36*Constantes!B30*Constantes!$C$12)+(Constantes!$B$12*(Constantes!$B$36*(1+Constantes!$E$3))*Constantes!B30*Constantes!$D$12)</f>
         <v>1310720</v>
       </c>
-      <c r="D37" s="136">
+      <c r="D37" s="69">
         <v>20</v>
       </c>
-      <c r="E37" s="137">
+      <c r="E37" s="70">
         <f t="shared" si="0"/>
         <v>1637963.3663999999</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="132" t="s">
+      <c r="A38" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="128"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="120">
+      <c r="B39" s="53">
         <f>'Tablas Calculadas '!B60/12*2</f>
         <v>80560</v>
       </c>
-      <c r="C39" s="121">
+      <c r="C39" s="54">
         <f>Constantes!B5*Constantes!B26</f>
         <v>2000000</v>
       </c>
-      <c r="D39" s="130">
+      <c r="D39" s="63">
         <v>20</v>
       </c>
-      <c r="E39" s="131">
+      <c r="E39" s="64">
         <f t="shared" si="0"/>
         <v>2496672</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="139" t="s">
+      <c r="A40" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="140">
+      <c r="B40" s="73">
         <f>'Tablas Calculadas '!B60/12*2</f>
         <v>80560</v>
       </c>
-      <c r="C40" s="133">
+      <c r="C40" s="66">
         <f>Constantes!B6*Constantes!B26</f>
         <v>4000000</v>
       </c>
-      <c r="D40" s="97">
+      <c r="D40" s="35">
         <v>20</v>
       </c>
-      <c r="E40" s="141">
+      <c r="E40" s="74">
         <f t="shared" si="0"/>
         <v>4896672</v>
       </c>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="142" t="s">
+      <c r="A41" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="125">
+      <c r="B41" s="58">
         <f>'Tablas Calculadas '!B60/12*2</f>
         <v>80560</v>
       </c>
-      <c r="C41" s="126">
+      <c r="C41" s="59">
         <f>Constantes!B7*Constantes!B26</f>
         <v>6000000</v>
       </c>
-      <c r="D41" s="102">
+      <c r="D41" s="40">
         <v>20</v>
       </c>
-      <c r="E41" s="127">
+      <c r="E41" s="60">
         <f t="shared" si="0"/>
         <v>7296672</v>
       </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="138" t="s">
+      <c r="A42" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="120">
+      <c r="B42" s="53">
         <f>'Tablas Calculadas '!B61/12*2</f>
         <v>97479.519999999975</v>
       </c>
-      <c r="C42" s="121">
+      <c r="C42" s="54">
         <f>Constantes!B5*Constantes!$B$27</f>
         <v>2300000</v>
       </c>
-      <c r="D42" s="97">
+      <c r="D42" s="35">
         <v>20</v>
       </c>
-      <c r="E42" s="141">
+      <c r="E42" s="74">
         <f t="shared" si="0"/>
         <v>2876975.4240000001</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="139" t="s">
+      <c r="A43" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="140">
+      <c r="B43" s="73">
         <f>'Tablas Calculadas '!B61/12*2</f>
         <v>97479.519999999975</v>
       </c>
-      <c r="C43" s="133">
+      <c r="C43" s="66">
         <f>Constantes!B6*Constantes!$B$27</f>
         <v>4600000</v>
       </c>
-      <c r="D43" s="97">
+      <c r="D43" s="35">
         <v>20</v>
       </c>
-      <c r="E43" s="141">
+      <c r="E43" s="74">
         <f t="shared" si="0"/>
         <v>5636975.4239999996</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="125">
+      <c r="B44" s="58">
         <f>'Tablas Calculadas '!B61/12*2</f>
         <v>97479.519999999975</v>
       </c>
-      <c r="C44" s="126">
+      <c r="C44" s="59">
         <f>Constantes!B7*Constantes!$B$27</f>
         <v>6900000</v>
       </c>
-      <c r="D44" s="102">
+      <c r="D44" s="40">
         <v>20</v>
       </c>
-      <c r="E44" s="127">
+      <c r="E44" s="60">
         <f t="shared" si="0"/>
         <v>8396975.4239999987</v>
       </c>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="138" t="s">
+      <c r="A45" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="120">
+      <c r="B45" s="53">
         <f>'Tablas Calculadas '!$B$62/12*2</f>
         <v>112313.36</v>
       </c>
-      <c r="C45" s="121">
+      <c r="C45" s="54">
         <f>Constantes!B5*Constantes!$B$28</f>
         <v>2650000</v>
       </c>
-      <c r="D45" s="97">
+      <c r="D45" s="35">
         <v>20</v>
       </c>
-      <c r="E45" s="141">
+      <c r="E45" s="74">
         <f t="shared" si="0"/>
         <v>3314776.0319999997</v>
       </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="139" t="s">
+      <c r="A46" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="140">
+      <c r="B46" s="73">
         <f>'Tablas Calculadas '!$B$62/12*2</f>
         <v>112313.36</v>
       </c>
-      <c r="C46" s="133">
+      <c r="C46" s="66">
         <f>Constantes!B6*Constantes!$B$28</f>
         <v>5300000</v>
       </c>
-      <c r="D46" s="97">
+      <c r="D46" s="35">
         <v>20</v>
       </c>
-      <c r="E46" s="141">
+      <c r="E46" s="74">
         <f t="shared" si="0"/>
         <v>6494776.0320000006</v>
       </c>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="142" t="s">
+      <c r="A47" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="125">
+      <c r="B47" s="58">
         <f>'Tablas Calculadas '!$B$62/12*2</f>
         <v>112313.36</v>
       </c>
-      <c r="C47" s="126">
+      <c r="C47" s="59">
         <f>Constantes!B7*Constantes!$B$28</f>
         <v>7950000</v>
       </c>
-      <c r="D47" s="102">
+      <c r="D47" s="40">
         <v>20</v>
       </c>
-      <c r="E47" s="127">
+      <c r="E47" s="60">
         <f t="shared" si="0"/>
         <v>9674776.0319999997</v>
       </c>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="138" t="s">
+      <c r="A48" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="120">
+      <c r="B48" s="53">
         <f>'Tablas Calculadas '!$B$63/12*2</f>
         <v>118670.72000000002</v>
       </c>
-      <c r="C48" s="121">
+      <c r="C48" s="54">
         <f>Constantes!B5*Constantes!$B$29</f>
         <v>2800000</v>
       </c>
-      <c r="D48" s="97">
+      <c r="D48" s="35">
         <v>20</v>
       </c>
-      <c r="E48" s="141">
+      <c r="E48" s="74">
         <f t="shared" si="0"/>
         <v>3502404.8640000001</v>
       </c>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="139" t="s">
+      <c r="A49" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="140">
+      <c r="B49" s="73">
         <f>'Tablas Calculadas '!$B$63/12*2</f>
         <v>118670.72000000002</v>
       </c>
-      <c r="C49" s="133">
+      <c r="C49" s="66">
         <f>Constantes!B6*Constantes!$B$29</f>
         <v>5600000</v>
       </c>
-      <c r="D49" s="97">
+      <c r="D49" s="35">
         <v>20</v>
       </c>
-      <c r="E49" s="141">
+      <c r="E49" s="74">
         <f t="shared" si="0"/>
         <v>6862404.8639999991</v>
       </c>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="142" t="s">
+      <c r="A50" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="125">
+      <c r="B50" s="58">
         <f>'Tablas Calculadas '!$B$63/12*2</f>
         <v>118670.72000000002</v>
       </c>
-      <c r="C50" s="126">
+      <c r="C50" s="59">
         <f>Constantes!B7*Constantes!$B$29</f>
         <v>8400000</v>
       </c>
-      <c r="D50" s="102">
+      <c r="D50" s="40">
         <v>20</v>
       </c>
-      <c r="E50" s="127">
+      <c r="E50" s="60">
         <f t="shared" si="0"/>
         <v>10222404.864</v>
       </c>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="138" t="s">
+      <c r="A51" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="120">
+      <c r="B51" s="53">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C51" s="121">
+      <c r="C51" s="54">
         <f>Constantes!B5*Constantes!$B$30</f>
         <v>3200000</v>
       </c>
-      <c r="D51" s="97">
+      <c r="D51" s="35">
         <v>20</v>
       </c>
-      <c r="E51" s="141">
-        <f>SUM(B51:C51)*(1+(D51/100))</f>
+      <c r="E51" s="74">
+        <f t="shared" ref="E51:E56" si="1">SUM(B51:C51)*(1+(D51/100))</f>
         <v>4002748.4160000002</v>
       </c>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
     </row>
     <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="139" t="s">
+      <c r="A52" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="140">
+      <c r="B52" s="73">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C52" s="133">
+      <c r="C52" s="66">
         <f>Constantes!B6*Constantes!$B$30</f>
         <v>6400000</v>
       </c>
-      <c r="D52" s="97">
+      <c r="D52" s="35">
         <v>20</v>
       </c>
-      <c r="E52" s="141">
-        <f>SUM(B52:C52)*(1+(D52/100))</f>
+      <c r="E52" s="74">
+        <f t="shared" si="1"/>
         <v>7842748.4159999993</v>
       </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="142" t="s">
+      <c r="A53" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="125">
+      <c r="B53" s="58">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C53" s="126">
+      <c r="C53" s="59">
         <f>Constantes!B7*Constantes!$B$30</f>
         <v>9600000</v>
       </c>
-      <c r="D53" s="102">
+      <c r="D53" s="40">
         <v>20</v>
       </c>
-      <c r="E53" s="127">
-        <f>SUM(B53:C53)*(1+(D53/100))</f>
+      <c r="E53" s="60">
+        <f t="shared" si="1"/>
         <v>11682748.415999999</v>
       </c>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="138" t="s">
+      <c r="A54" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="120">
+      <c r="B54" s="53">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C54" s="121">
+      <c r="C54" s="54">
         <f>Constantes!B8*Constantes!$B$30</f>
         <v>0</v>
       </c>
-      <c r="D54" s="97">
+      <c r="D54" s="35">
         <v>20</v>
       </c>
-      <c r="E54" s="141">
-        <f>SUM(B54:C54)*(1+(D54/100))</f>
+      <c r="E54" s="74">
+        <f t="shared" si="1"/>
         <v>162748.416</v>
       </c>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
     </row>
     <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="139" t="s">
+      <c r="A55" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="140">
+      <c r="B55" s="73">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C55" s="133" t="e">
+      <c r="C55" s="66" t="e">
         <f>Constantes!B9*Constantes!$B$30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D55" s="97">
+      <c r="D55" s="35">
         <v>20</v>
       </c>
-      <c r="E55" s="141" t="e">
-        <f>SUM(B55:C55)*(1+(D55/100))</f>
+      <c r="E55" s="74" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="142" t="s">
+      <c r="A56" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="125">
+      <c r="B56" s="58">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C56" s="126">
+      <c r="C56" s="59">
         <f>Constantes!B10*Constantes!$B$30</f>
         <v>768</v>
       </c>
-      <c r="D56" s="102">
+      <c r="D56" s="40">
         <v>20</v>
       </c>
-      <c r="E56" s="127">
-        <f>SUM(B56:C56)*(1+(D56/100))</f>
+      <c r="E56" s="60">
+        <f t="shared" si="1"/>
         <v>163670.01599999997</v>
       </c>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
     </row>
     <row r="59" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="79" t="s">
+      <c r="A59" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="79" t="s">
+      <c r="D59" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
     </row>
     <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="140">
+      <c r="B60" s="73">
         <f>(Constantes!C19*(1+((Constantes!D19/100)*0))+ Constantes!C20*(1+((Constantes!D20/100)*0)) + Constantes!C21*(1+((Constantes!D21/100)*0)))*Constantes!B26*12</f>
         <v>483360</v>
       </c>
-      <c r="C60" s="133">
+      <c r="C60" s="66">
         <f>Constantes!B40*12+(Constantes!B45*Constantes!B26+Constantes!B46*Constantes!B26+Constantes!B47*Constantes!B26)*12 +'Tablas Calculadas '!F7*'Tablas Calculadas '!C39+'Tablas Calculadas '!G7*'Tablas Calculadas '!C40+'Tablas Calculadas '!H7*'Tablas Calculadas '!C41 + 'Tablas Calculadas '!B72</f>
         <v>3760512</v>
       </c>
-      <c r="D60" s="143">
-        <f t="shared" ref="D60:D66" si="1">SUM(B60:C60)</f>
+      <c r="D60" s="76">
+        <f t="shared" ref="D60:D66" si="2">SUM(B60:C60)</f>
         <v>4243872</v>
       </c>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
     </row>
     <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="140">
+      <c r="B61" s="73">
         <f>(((Constantes!$C$19*(1+((Constantes!$D$19/100)*1)))+ (Constantes!$C$20*(1+((Constantes!$D$20/100)*1))) + (Constantes!$C$21*(1+((Constantes!$D$21/100)*1))))*Constantes!B27*12)*((1+Constantes!$C$14)^1)</f>
         <v>584877.11999999988</v>
       </c>
-      <c r="C61" s="133">
+      <c r="C61" s="66">
         <f>(Constantes!B41*12+(Constantes!$B$45*Constantes!B27+Constantes!$B$46*Constantes!B27+Constantes!B47*Constantes!B27)*12) +'Tablas Calculadas '!F8*'Tablas Calculadas '!C42+'Tablas Calculadas '!G8*'Tablas Calculadas '!C43+'Tablas Calculadas '!H8*'Tablas Calculadas '!C44 +'Tablas Calculadas '!B73</f>
         <v>8924588.8000000007</v>
       </c>
-      <c r="D61" s="143">
-        <f t="shared" si="1"/>
+      <c r="D61" s="76">
+        <f t="shared" si="2"/>
         <v>9509465.9199999999</v>
       </c>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
     </row>
     <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="140">
+      <c r="B62" s="73">
         <f>(((Constantes!$C$19*(1+((Constantes!$D$19/100)*1)))+ (Constantes!$C$20*(1+((Constantes!$D$20/100)*1))) + (Constantes!$C$21*(1+((Constantes!$D$21/100)*1))))*Constantes!B28*12)*((1+Constantes!$C$14)^2)</f>
         <v>673880.16</v>
       </c>
-      <c r="C62" s="133">
+      <c r="C62" s="66">
         <f>(Constantes!B42*12+(Constantes!$B$45*Constantes!B28+Constantes!$B$46*Constantes!B28+Constantes!B47*Constantes!B28)*12) +('Tablas Calculadas '!F9*'Tablas Calculadas '!C45+'Tablas Calculadas '!G9*'Tablas Calculadas '!C46+'Tablas Calculadas '!H9*'Tablas Calculadas '!C47) +'Tablas Calculadas '!B74</f>
         <v>5226902.4000000004</v>
       </c>
-      <c r="D62" s="143">
-        <f t="shared" si="1"/>
+      <c r="D62" s="76">
+        <f t="shared" si="2"/>
         <v>5900782.5600000005</v>
       </c>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
     </row>
     <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="89" t="s">
+      <c r="A63" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="140">
+      <c r="B63" s="73">
         <f>(((Constantes!$C$19*(1+((Constantes!$D$19/100)*1)))+ (Constantes!$C$20*(1+((Constantes!$D$20/100)*1))) + (Constantes!$C$21*(1+((Constantes!$D$21/100)*1))))*Constantes!B29*12)*((1+Constantes!$C$14)^3)</f>
         <v>712024.32000000007</v>
       </c>
-      <c r="C63" s="133">
+      <c r="C63" s="66">
         <f>(Constantes!B43*12+(Constantes!$B$45*Constantes!B29+Constantes!$B$46*Constantes!B29)*12)+('Tablas Calculadas '!F10*'Tablas Calculadas '!C48+'Tablas Calculadas '!G10*'Tablas Calculadas '!C49+'Tablas Calculadas '!H10*'Tablas Calculadas '!C50) +'Tablas Calculadas '!B75</f>
         <v>5612812.7999999998</v>
       </c>
-      <c r="D63" s="143">
-        <f t="shared" si="1"/>
+      <c r="D63" s="76">
+        <f t="shared" si="2"/>
         <v>6324837.1200000001</v>
       </c>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
     </row>
     <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="89" t="s">
+      <c r="A64" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="140">
+      <c r="B64" s="73">
         <f>(((Constantes!$C$19*(1+((Constantes!$D$19/100)*1)))+ (Constantes!$C$20*(1+((Constantes!$D$20/100)*1))) + (Constantes!$C$21*(1+((Constantes!$D$21/100)*1))))*Constantes!B30*12)*((1+Constantes!$C$14)^4)</f>
         <v>813742.07999999996</v>
       </c>
-      <c r="C64" s="133">
+      <c r="C64" s="66">
         <f>(Constantes!B44*12+(Constantes!$B$45*Constantes!B30+Constantes!$B$46*Constantes!B30+Constantes!B47*Constantes!B30)*12)+('Tablas Calculadas '!F11*'Tablas Calculadas '!C51+'Tablas Calculadas '!G11*'Tablas Calculadas '!C52+'Tablas Calculadas '!H11*'Tablas Calculadas '!C53) +'Tablas Calculadas '!B76</f>
         <v>6606643.1999999993</v>
       </c>
-      <c r="D64" s="143">
-        <f t="shared" si="1"/>
+      <c r="D64" s="76">
+        <f t="shared" si="2"/>
         <v>7420385.2799999993</v>
       </c>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="144" t="s">
+      <c r="A65" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="128"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="145"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
     </row>
     <row r="66" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="146" t="s">
+      <c r="A66" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="147">
+      <c r="B66" s="80">
         <f>SUM(B60:B64)</f>
         <v>3267883.6799999997</v>
       </c>
-      <c r="C66" s="148">
+      <c r="C66" s="81">
         <f>SUM(C60:C64)</f>
         <v>30131459.200000003</v>
       </c>
-      <c r="D66" s="149">
-        <f t="shared" si="1"/>
+      <c r="D66" s="82">
+        <f t="shared" si="2"/>
         <v>33399342.880000003</v>
       </c>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="78"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
     </row>
     <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="78"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="78"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="78"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
     </row>
     <row r="71" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="150" t="s">
+      <c r="A71" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="151"/>
-      <c r="C71" s="152" t="s">
+      <c r="B71" s="159"/>
+      <c r="C71" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="78"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="153" t="s">
+      <c r="A72" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="154">
+      <c r="B72" s="85">
         <f>('Tablas Calculadas '!C7*Constantes!$D$10*Constantes!$B$10+'Tablas Calculadas '!$D$7*Constantes!D11*Constantes!$B$11+'Tablas Calculadas '!E7*Constantes!$D$12*Constantes!$B$12)*(Constantes!$B$35*(1+Constantes!$E$3)*Constantes!B26)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="155"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="91" t="s">
+      <c r="A73" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="156">
+      <c r="B73" s="87">
         <f>('Tablas Calculadas '!C8*Constantes!$D$10*Constantes!$B$10+'Tablas Calculadas '!$D$7*Constantes!D12*Constantes!$B$11+'Tablas Calculadas '!E8*Constantes!$D$12*Constantes!$B$12)*(Constantes!$B$35*(1+Constantes!$E$3)*Constantes!B27)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="155"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="91" t="s">
+      <c r="A74" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="156">
+      <c r="B74" s="87">
         <f>('Tablas Calculadas '!C9*Constantes!$D$10*Constantes!$B$10+'Tablas Calculadas '!$D$7*Constantes!D13*Constantes!$B$11+'Tablas Calculadas '!E9*Constantes!$D$12*Constantes!$B$12)*(Constantes!$B$35*(1+Constantes!$E$3)*Constantes!B28)</f>
         <v>244224</v>
       </c>
-      <c r="C74" s="155"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="91" t="s">
+      <c r="A75" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="156">
+      <c r="B75" s="87">
         <f>('Tablas Calculadas '!C10*Constantes!$D$10*Constantes!$B$10+'Tablas Calculadas '!$D$7*Constantes!D14*Constantes!$B$11+'Tablas Calculadas '!E10*Constantes!$D$12*Constantes!$B$12)*(Constantes!$B$35*(1+Constantes!$E$3)*Constantes!B29)</f>
         <v>516096</v>
       </c>
-      <c r="C75" s="155"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78"/>
-      <c r="J75" s="78"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="101" t="s">
+      <c r="A76" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="157">
+      <c r="B76" s="88">
         <f>('Tablas Calculadas '!C11*Constantes!$D$10*Constantes!$B$10+'Tablas Calculadas '!$D$7*Constantes!D15*Constantes!$B$11+'Tablas Calculadas '!E11*Constantes!$D$12*Constantes!$B$12)*(Constantes!$B$35*(1+Constantes!$E$3)*Constantes!B30)</f>
         <v>589824</v>
       </c>
-      <c r="C76" s="155"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="78"/>
-      <c r="H76" s="78"/>
-      <c r="I76" s="78"/>
-      <c r="J76" s="78"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
     </row>
     <row r="77" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="101" t="s">
+      <c r="A77" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="157">
+      <c r="B77" s="88">
         <f>('Tablas Calculadas '!C13*Constantes!$D$10*Constantes!$B$10+'Tablas Calculadas '!$D$7*Constantes!D16*Constantes!$B$11+'Tablas Calculadas '!E13*Constantes!$D$12*Constantes!$B$12)*(Constantes!$B$35*(1+Constantes!$E$3)*Constantes!B31)</f>
         <v>0</v>
       </c>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="78"/>
-      <c r="G77" s="78"/>
-      <c r="H77" s="78"/>
-      <c r="I77" s="78"/>
-      <c r="J77" s="78"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="78"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
-      <c r="H78" s="78"/>
-      <c r="I78" s="78"/>
-      <c r="J78" s="78"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5380,8 +5394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I88"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5394,1461 +5408,1461 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="160" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="160"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="150" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="161">
+      <c r="D3" s="159"/>
+      <c r="E3" s="89">
         <v>1</v>
       </c>
-      <c r="F3" s="162" t="s">
+      <c r="F3" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="163">
+      <c r="B5" s="91">
         <v>50000</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="164"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="165">
+      <c r="B6" s="93">
         <v>100000</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="165">
+      <c r="B7" s="93">
         <v>150000</v>
       </c>
       <c r="C7" s="166"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="168" t="s">
+      <c r="B9" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="168" t="s">
+      <c r="C9" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="23">
         <v>12</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="29">
         <v>8</v>
       </c>
-      <c r="D10" s="170">
+      <c r="D10" s="97">
         <v>0</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="28">
         <v>24</v>
       </c>
-      <c r="C11" s="91">
+      <c r="C11" s="29">
         <v>20</v>
       </c>
-      <c r="D11" s="139">
+      <c r="D11" s="72">
         <v>0</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="38">
         <v>32</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="39">
         <v>22</v>
       </c>
-      <c r="D12" s="142">
+      <c r="D12" s="75">
         <v>9</v>
       </c>
-      <c r="E12" s="162" t="s">
+      <c r="E12" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="78"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="155"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="155"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="176" t="s">
+      <c r="A18" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="176"/>
-      <c r="C18" s="168" t="s">
+      <c r="B18" s="172"/>
+      <c r="C18" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="168" t="s">
+      <c r="D18" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="178"/>
-      <c r="C19" s="179">
+      <c r="B19" s="174"/>
+      <c r="C19" s="102">
         <v>657</v>
       </c>
-      <c r="D19" s="170">
+      <c r="D19" s="97">
         <v>8</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="180" t="s">
+      <c r="A20" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="182">
+      <c r="B20" s="176"/>
+      <c r="C20" s="103">
         <v>200</v>
       </c>
-      <c r="D20" s="139">
+      <c r="D20" s="72">
         <v>0</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="181"/>
-      <c r="C21" s="182">
+      <c r="B21" s="176"/>
+      <c r="C21" s="103">
         <v>150</v>
       </c>
-      <c r="D21" s="139">
+      <c r="D21" s="72">
         <v>0</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="183" t="s">
+      <c r="A22" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="184"/>
-      <c r="C22" s="185">
+      <c r="B22" s="178"/>
+      <c r="C22" s="104">
         <f>SUM(C19:C21)</f>
         <v>1007</v>
       </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="155"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="151"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="95" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="153">
+      <c r="A26" s="84">
         <v>0</v>
       </c>
-      <c r="B26" s="186">
+      <c r="B26" s="105">
         <v>40</v>
       </c>
-      <c r="C26" s="187" t="s">
+      <c r="C26" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="155"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="91">
+      <c r="A27" s="29">
         <v>1</v>
       </c>
-      <c r="B27" s="143">
+      <c r="B27" s="76">
         <v>46</v>
       </c>
-      <c r="C27" s="188"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="91">
+      <c r="A28" s="29">
         <v>2</v>
       </c>
-      <c r="B28" s="143">
+      <c r="B28" s="76">
         <v>53</v>
       </c>
-      <c r="C28" s="188"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="91">
+      <c r="A29" s="29">
         <v>3</v>
       </c>
-      <c r="B29" s="143">
+      <c r="B29" s="76">
         <v>56</v>
       </c>
-      <c r="C29" s="188"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="101">
+      <c r="A30" s="39">
         <v>4</v>
       </c>
-      <c r="B30" s="189">
+      <c r="B30" s="106">
         <v>64</v>
       </c>
-      <c r="C30" s="190"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="155"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="155"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="155"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="151"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="191" t="s">
+      <c r="A35" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="192">
+      <c r="B35" s="108">
         <v>8</v>
       </c>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="193" t="s">
+      <c r="A36" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="194">
+      <c r="B36" s="110">
         <v>16</v>
       </c>
-      <c r="C36" s="162" t="s">
+      <c r="C36" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="155"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="195">
+      <c r="B37" s="111">
         <v>8</v>
       </c>
-      <c r="C37" s="196" t="s">
+      <c r="C37" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="155"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="195">
+      <c r="B38" s="111">
         <v>22</v>
       </c>
-      <c r="C38" s="197"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="195">
+      <c r="B39" s="111">
         <v>4</v>
       </c>
-      <c r="C39" s="155"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="143">
+      <c r="B40" s="76">
         <f>($B$35*B26*$B$37*$B$38*$B$39)*(1+(SUM($B$48:$B$53)))</f>
         <v>277376</v>
       </c>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="143">
+      <c r="B41" s="76">
         <f t="shared" ref="B41:B43" si="0">($B$35*B27*$B$37*$B$38*$B$39)*(1+(SUM($B$48:$B$53)))</f>
         <v>318982.39999999997</v>
       </c>
-      <c r="C41" s="155"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="143">
+      <c r="B42" s="76">
         <f t="shared" si="0"/>
         <v>367523.2</v>
       </c>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="143">
+      <c r="B43" s="76">
         <f t="shared" si="0"/>
         <v>388326.39999999997</v>
       </c>
-      <c r="C43" s="155"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="91" t="s">
+      <c r="A44" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="143">
+      <c r="B44" s="76">
         <f>($B$35*B30*$B$37*$B$38*$B$39)*(1+(SUM($B$48:$B$53)))</f>
         <v>443801.59999999998</v>
       </c>
-      <c r="C44" s="155"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="194">
+      <c r="B45" s="110">
         <v>150</v>
       </c>
-      <c r="C45" s="155"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="194">
+      <c r="B46" s="110">
         <v>500</v>
       </c>
-      <c r="C46" s="155"/>
-      <c r="D46" s="155"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="91" t="s">
+      <c r="A47" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="194">
+      <c r="B47" s="110">
         <v>250</v>
       </c>
-      <c r="C47" s="155"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="91" t="s">
+      <c r="A48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="198">
+      <c r="B48" s="112">
         <v>0.03</v>
       </c>
-      <c r="C48" s="155"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="91" t="s">
+      <c r="A49" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="198">
+      <c r="B49" s="112">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C49" s="155"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="199">
+      <c r="B50" s="113">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="C50" s="155"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="200">
+      <c r="B51" s="114">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C51" s="155"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="96" t="s">
+      <c r="A52" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="200">
+      <c r="B52" s="114">
         <v>1E-3</v>
       </c>
-      <c r="C52" s="155"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="201" t="s">
+      <c r="A53" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="202">
+      <c r="B53" s="116">
         <v>0.05</v>
       </c>
-      <c r="C53" s="155"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="155"/>
-      <c r="B54" s="155"/>
-      <c r="C54" s="155"/>
-      <c r="D54" s="155"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="155"/>
-      <c r="B55" s="155"/>
-      <c r="C55" s="155"/>
-      <c r="D55" s="155"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="203" t="s">
+      <c r="A56" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="204"/>
-      <c r="C56" s="203" t="s">
+      <c r="B56" s="164"/>
+      <c r="C56" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="205"/>
-      <c r="E56" s="204"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="206" t="s">
+      <c r="A57" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="207" t="s">
+      <c r="B57" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="208" t="s">
+      <c r="C57" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="207" t="s">
+      <c r="D57" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="209" t="s">
+      <c r="E57" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="210" t="s">
+      <c r="A58" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="165">
+      <c r="B58" s="93">
         <v>425</v>
       </c>
-      <c r="C58" s="165">
+      <c r="C58" s="93">
         <v>180</v>
       </c>
-      <c r="D58" s="91">
+      <c r="D58" s="29">
         <v>5</v>
       </c>
-      <c r="E58" s="194">
+      <c r="E58" s="110">
         <f>IF(ISERROR((B58-C58)/D58),0,(B58-C58)/D58)</f>
         <v>49</v>
       </c>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="210" t="s">
+      <c r="A59" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="165">
+      <c r="B59" s="93">
         <v>125</v>
       </c>
-      <c r="C59" s="165">
+      <c r="C59" s="93">
         <v>40</v>
       </c>
-      <c r="D59" s="91">
+      <c r="D59" s="29">
         <v>10</v>
       </c>
-      <c r="E59" s="194">
-        <f t="shared" ref="E59:E80" si="1">IF(ISERROR((B59-C59)/D59),0,(B59-C59)/D59)</f>
+      <c r="E59" s="110">
+        <f t="shared" ref="E59:E79" si="1">IF(ISERROR((B59-C59)/D59),0,(B59-C59)/D59)</f>
         <v>8.5</v>
       </c>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="210" t="s">
+      <c r="A60" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="165">
+      <c r="B60" s="93">
         <v>66</v>
       </c>
-      <c r="C60" s="165">
+      <c r="C60" s="93">
         <v>15</v>
       </c>
-      <c r="D60" s="91">
+      <c r="D60" s="29">
         <v>5</v>
       </c>
-      <c r="E60" s="194">
+      <c r="E60" s="110">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="210" t="s">
+      <c r="A61" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="165">
+      <c r="B61" s="93">
         <v>279</v>
       </c>
-      <c r="C61" s="165">
+      <c r="C61" s="93">
         <v>110</v>
       </c>
-      <c r="D61" s="91">
+      <c r="D61" s="29">
         <v>5</v>
       </c>
-      <c r="E61" s="194">
+      <c r="E61" s="110">
         <f t="shared" si="1"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="210" t="s">
+      <c r="A62" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="165">
+      <c r="B62" s="93">
         <v>179</v>
       </c>
-      <c r="C62" s="165">
+      <c r="C62" s="93">
         <v>15</v>
       </c>
-      <c r="D62" s="91">
+      <c r="D62" s="29">
         <v>10</v>
       </c>
-      <c r="E62" s="194">
+      <c r="E62" s="110">
         <f t="shared" si="1"/>
         <v>16.399999999999999</v>
       </c>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="210" t="s">
+      <c r="A63" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="165">
+      <c r="B63" s="93">
         <v>258</v>
       </c>
-      <c r="C63" s="165">
+      <c r="C63" s="93">
         <v>52</v>
       </c>
-      <c r="D63" s="91">
+      <c r="D63" s="29">
         <v>5</v>
       </c>
-      <c r="E63" s="194">
+      <c r="E63" s="110">
         <f t="shared" si="1"/>
         <v>41.2</v>
       </c>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="210" t="s">
+      <c r="A64" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="165">
+      <c r="B64" s="93">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C64" s="165">
+      <c r="C64" s="93">
         <v>0.02</v>
       </c>
-      <c r="D64" s="91">
+      <c r="D64" s="29">
         <v>5</v>
       </c>
-      <c r="E64" s="194">
+      <c r="E64" s="110">
         <f t="shared" si="1"/>
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="210" t="s">
+      <c r="A65" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="165">
+      <c r="B65" s="93">
         <v>135</v>
       </c>
-      <c r="C65" s="165">
+      <c r="C65" s="93">
         <v>53</v>
       </c>
-      <c r="D65" s="91">
+      <c r="D65" s="29">
         <v>10</v>
       </c>
-      <c r="E65" s="194">
+      <c r="E65" s="110">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="210" t="s">
+      <c r="A66" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="165">
+      <c r="B66" s="93">
         <v>6100</v>
       </c>
-      <c r="C66" s="165">
+      <c r="C66" s="93">
         <v>1200</v>
       </c>
-      <c r="D66" s="91">
+      <c r="D66" s="29">
         <v>5</v>
       </c>
-      <c r="E66" s="194">
+      <c r="E66" s="110">
         <f t="shared" si="1"/>
         <v>980</v>
       </c>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="210" t="s">
+      <c r="A67" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="165">
+      <c r="B67" s="93">
         <v>290</v>
       </c>
-      <c r="C67" s="165">
+      <c r="C67" s="93">
         <v>96</v>
       </c>
-      <c r="D67" s="91">
+      <c r="D67" s="29">
         <v>5</v>
       </c>
-      <c r="E67" s="194">
+      <c r="E67" s="110">
         <f t="shared" si="1"/>
         <v>38.799999999999997</v>
       </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="210" t="s">
+      <c r="A68" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="165">
+      <c r="B68" s="93">
         <v>99</v>
       </c>
-      <c r="C68" s="165">
+      <c r="C68" s="93">
         <v>24</v>
       </c>
-      <c r="D68" s="91">
+      <c r="D68" s="29">
         <v>5</v>
       </c>
-      <c r="E68" s="194">
+      <c r="E68" s="110">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="210" t="s">
+      <c r="A69" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="B69" s="165">
+      <c r="B69" s="93">
         <v>125</v>
       </c>
-      <c r="C69" s="165">
+      <c r="C69" s="93">
         <v>30</v>
       </c>
-      <c r="D69" s="91">
+      <c r="D69" s="29">
         <v>10</v>
       </c>
-      <c r="E69" s="194">
+      <c r="E69" s="110">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="211" t="s">
+      <c r="A70" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="165">
+      <c r="B70" s="93">
         <v>95</v>
       </c>
-      <c r="C70" s="165">
+      <c r="C70" s="93">
         <v>30</v>
       </c>
-      <c r="D70" s="91">
+      <c r="D70" s="29">
         <v>10</v>
       </c>
-      <c r="E70" s="194">
+      <c r="E70" s="110">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="211" t="s">
+      <c r="A71" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="165">
+      <c r="B71" s="93">
         <v>27</v>
       </c>
-      <c r="C71" s="165">
+      <c r="C71" s="93">
         <v>5</v>
       </c>
-      <c r="D71" s="91">
+      <c r="D71" s="29">
         <v>5</v>
       </c>
-      <c r="E71" s="194">
+      <c r="E71" s="110">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F71" s="78"/>
-      <c r="G71" s="78"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="210" t="s">
+      <c r="A72" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="165">
+      <c r="B72" s="93">
         <v>148</v>
       </c>
-      <c r="C72" s="165">
+      <c r="C72" s="93">
         <v>58</v>
       </c>
-      <c r="D72" s="91">
+      <c r="D72" s="29">
         <v>10</v>
       </c>
-      <c r="E72" s="194">
+      <c r="E72" s="110">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="210" t="s">
+      <c r="A73" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="165">
+      <c r="B73" s="93">
         <v>36</v>
       </c>
-      <c r="C73" s="165">
+      <c r="C73" s="93">
         <v>12</v>
       </c>
-      <c r="D73" s="91">
+      <c r="D73" s="29">
         <v>5</v>
       </c>
-      <c r="E73" s="194">
+      <c r="E73" s="110">
         <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
-      <c r="F73" s="78"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="210" t="s">
+      <c r="A74" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="165">
+      <c r="B74" s="93">
         <v>79</v>
       </c>
-      <c r="C74" s="165">
+      <c r="C74" s="93">
         <v>20</v>
       </c>
-      <c r="D74" s="91">
+      <c r="D74" s="29">
         <v>5</v>
       </c>
-      <c r="E74" s="194">
+      <c r="E74" s="110">
         <f t="shared" si="1"/>
         <v>11.8</v>
       </c>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="210" t="s">
+      <c r="A75" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="165">
+      <c r="B75" s="93">
         <v>99</v>
       </c>
-      <c r="C75" s="165">
+      <c r="C75" s="93">
         <v>34</v>
       </c>
-      <c r="D75" s="91">
+      <c r="D75" s="29">
         <v>5</v>
       </c>
-      <c r="E75" s="194">
+      <c r="E75" s="110">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F75" s="78"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="210" t="s">
+      <c r="A76" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="165">
+      <c r="B76" s="93">
         <v>100</v>
       </c>
-      <c r="C76" s="165">
+      <c r="C76" s="93">
         <v>32</v>
       </c>
-      <c r="D76" s="91">
+      <c r="D76" s="29">
         <v>10</v>
       </c>
-      <c r="E76" s="194">
+      <c r="E76" s="110">
         <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
-      <c r="F76" s="78"/>
-      <c r="G76" s="78"/>
-      <c r="H76" s="78"/>
-      <c r="I76" s="78"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="210" t="s">
+      <c r="A77" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="165">
+      <c r="B77" s="93">
         <v>15</v>
       </c>
-      <c r="C77" s="165">
+      <c r="C77" s="93">
         <v>2</v>
       </c>
-      <c r="D77" s="91">
+      <c r="D77" s="29">
         <v>5</v>
       </c>
-      <c r="E77" s="194">
+      <c r="E77" s="110">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="F77" s="78"/>
-      <c r="G77" s="78"/>
-      <c r="H77" s="78"/>
-      <c r="I77" s="78"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="210" t="s">
+      <c r="A78" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="165">
+      <c r="B78" s="93">
         <v>50</v>
       </c>
-      <c r="C78" s="165">
+      <c r="C78" s="93">
         <v>10</v>
       </c>
-      <c r="D78" s="91">
+      <c r="D78" s="29">
         <v>5</v>
       </c>
-      <c r="E78" s="194">
+      <c r="E78" s="110">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
-      <c r="H78" s="78"/>
-      <c r="I78" s="78"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="210" t="s">
+      <c r="A79" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="165">
+      <c r="B79" s="93">
         <v>235</v>
       </c>
-      <c r="C79" s="165">
+      <c r="C79" s="93">
         <v>0</v>
       </c>
-      <c r="D79" s="91">
+      <c r="D79" s="29">
         <v>4</v>
       </c>
-      <c r="E79" s="194">
+      <c r="E79" s="110">
         <f t="shared" si="1"/>
         <v>58.75</v>
       </c>
-      <c r="F79" s="78"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="78"/>
-      <c r="I79" s="78"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="210" t="s">
+      <c r="A80" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="165">
+      <c r="B80" s="93">
         <v>349</v>
       </c>
-      <c r="C80" s="165">
+      <c r="C80" s="93">
         <v>0</v>
       </c>
-      <c r="D80" s="91">
+      <c r="D80" s="29">
         <v>5</v>
       </c>
-      <c r="E80" s="194">
+      <c r="E80" s="110">
         <f>IF(ISERROR((B80-C80)/D80),0,(B80-C80)/D80)</f>
         <v>69.8</v>
       </c>
-      <c r="F80" s="78"/>
-      <c r="G80" s="78"/>
-      <c r="H80" s="78"/>
-      <c r="I80" s="78"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="210"/>
-      <c r="B81" s="165"/>
-      <c r="C81" s="165"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="194">
+      <c r="A81" s="121"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="110">
         <f t="shared" ref="E81:E86" si="2">IF(ISERROR((B81-C81)/D81),0,(B81-C81)/D81)</f>
         <v>0</v>
       </c>
-      <c r="F81" s="78"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="78"/>
-      <c r="I81" s="78"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="210"/>
-      <c r="B82" s="165"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="194">
+      <c r="A82" s="121"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F82" s="78"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
-      <c r="I82" s="78"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="210"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="194">
+      <c r="A83" s="121"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F83" s="78"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="78"/>
-      <c r="I83" s="78"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="210"/>
-      <c r="B84" s="165"/>
-      <c r="C84" s="165"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="194">
+      <c r="A84" s="121"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F84" s="78"/>
-      <c r="G84" s="78"/>
-      <c r="H84" s="78"/>
-      <c r="I84" s="78"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="210"/>
-      <c r="B85" s="165"/>
-      <c r="C85" s="165"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="194">
+      <c r="A85" s="121"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="78"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
     </row>
     <row r="86" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="100"/>
-      <c r="B86" s="212"/>
-      <c r="C86" s="212"/>
-      <c r="D86" s="101"/>
-      <c r="E86" s="194">
+      <c r="A86" s="38"/>
+      <c r="B86" s="123"/>
+      <c r="C86" s="123"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="78"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="78"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="78"/>
-      <c r="H87" s="78"/>
-      <c r="I87" s="78"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="78"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="78"/>
-      <c r="I88" s="78"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6879,8 +6893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6895,330 +6909,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="160" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="183" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="217" t="s">
+      <c r="B6" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="183" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="124" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="217" t="s">
+      <c r="B8" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="213" t="s">
+      <c r="A9" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="217" t="s">
+      <c r="B9" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="213" t="s">
+      <c r="A10" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="219" t="s">
+      <c r="B10" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="213" t="s">
+      <c r="A12" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="213" t="s">
+      <c r="A13" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="213" t="s">
+      <c r="A14" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="220" t="s">
+      <c r="B15" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="220"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B12:G12"/>
@@ -7228,6 +7237,11 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Actividades/Femp03011/Flujo_de_fondos.xlsx
+++ b/Actividades/Femp03011/Flujo_de_fondos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\ProyectoFinal2019-\Actividades\Femp03011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{705AE1A9-B361-482D-931D-8E7FF4EC7E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2954B9E6-C5AE-46D5-8D11-CB78C0DDFACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="190">
   <si>
     <t xml:space="preserve">Ventas: </t>
   </si>
@@ -545,9 +545,6 @@
     <t>I.R.A.E (25%) (-)</t>
   </si>
   <si>
-    <t>Actualizacion TRR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flujo de fondos descondato </t>
   </si>
   <si>
@@ -555,9 +552,6 @@
   </si>
   <si>
     <t>Amortizacion (+)</t>
-  </si>
-  <si>
-    <t>I.I (-)</t>
   </si>
   <si>
     <r>
@@ -792,6 +786,15 @@
       <t>de cada B/U</t>
     </r>
   </si>
+  <si>
+    <t>Costo salarial total por mes durante año 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deflactor </t>
+  </si>
+  <si>
+    <t>I.I (+)</t>
+  </si>
 </sst>
 </file>
 
@@ -809,7 +812,7 @@
     <numFmt numFmtId="172" formatCode="_-[$$-45C]* #,##0.00_-;\-[$$-45C]* #,##0.00_-;_-[$$-45C]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="173" formatCode="_-[$$-2C0A]\ * #,##0_-;\-[$$-2C0A]\ * #,##0_-;_-[$$-2C0A]\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,6 +1025,11 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1055,7 +1063,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="107">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -2413,11 +2421,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
@@ -2554,7 +2601,6 @@
     <xf numFmtId="170" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2597,286 +2643,10 @@
     <xf numFmtId="170" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2884,36 +2654,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2922,6 +2662,322 @@
     <xf numFmtId="167" fontId="8" fillId="5" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3477,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,50 +3552,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="120"/>
+      <c r="A1" s="175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="120"/>
+      <c r="A2" s="178"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="168" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="120"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="119"/>
     </row>
     <row r="4" spans="1:10" ht="47.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="7"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
@@ -3549,55 +3605,55 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="166"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="170" t="s">
+      <c r="A5" s="155"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="119" t="s">
+      <c r="D5" s="162"/>
+      <c r="E5" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="120" t="s">
         <v>155</v>
       </c>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="172" t="s">
+      <c r="A6" s="187" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="188"/>
+      <c r="C6" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="118">
+      <c r="D6" s="164"/>
+      <c r="E6" s="117">
         <f>'Tablas Calculadas '!I8 *0.8</f>
-        <v>8594222.6679466683</v>
-      </c>
-      <c r="F6" s="118">
+        <v>10698041.867946668</v>
+      </c>
+      <c r="F6" s="117">
         <f>'Tablas Calculadas '!I9 *0.8</f>
         <v>2446370.6023466666</v>
       </c>
-      <c r="G6" s="118">
+      <c r="G6" s="117">
         <f>'Tablas Calculadas '!I10 *0.8</f>
         <v>3625624.3131733332</v>
       </c>
-      <c r="H6" s="118">
+      <c r="H6" s="117">
         <f>'Tablas Calculadas '!I11 *0.8</f>
         <v>4421353.4856533334</v>
       </c>
-      <c r="I6" s="122">
+      <c r="I6" s="121">
         <f>'Tablas Calculadas '!I12 * 0.8</f>
         <v>3341452.4313600003</v>
       </c>
@@ -3606,44 +3662,44 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="174" t="s">
+      <c r="B7" s="190"/>
+      <c r="C7" s="165" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="175"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="9">
         <f>'Tablas Calculadas '!C61*-1</f>
-        <v>-9242540.8000000007</v>
+        <v>-11809488</v>
       </c>
       <c r="F7" s="9">
         <f>'Tablas Calculadas '!C62*-1</f>
-        <v>-5226902.4000000004</v>
+        <v>-6329472</v>
       </c>
       <c r="G7" s="9">
         <f>'Tablas Calculadas '!C63*-1</f>
-        <v>-5612812.7999999998</v>
+        <v>-6777792</v>
       </c>
       <c r="H7" s="9">
         <f>'Tablas Calculadas '!C64*-1</f>
-        <v>-6606643.1999999993</v>
-      </c>
-      <c r="I7" s="123">
+        <v>-9186240</v>
+      </c>
+      <c r="I7" s="122">
         <f>'Tablas Calculadas '!C65*-1</f>
-        <v>-6388627.1999999993</v>
+        <v>-8968224</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="174" t="s">
+      <c r="B8" s="190"/>
+      <c r="C8" s="165" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="175"/>
+      <c r="D8" s="166"/>
       <c r="E8" s="9">
         <f>'Tablas Calculadas '!B61*-1</f>
         <v>-584877.11999999988</v>
@@ -3660,82 +3716,82 @@
         <f>'Tablas Calculadas '!B64*-1</f>
         <v>-813742.07999999996</v>
       </c>
-      <c r="I8" s="124">
+      <c r="I8" s="123">
         <f>'Tablas Calculadas '!B65*-1</f>
         <v>-966318.72</v>
       </c>
-      <c r="J8" s="120"/>
+      <c r="J8" s="119"/>
     </row>
     <row r="9" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="193" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="176" t="s">
+      <c r="B9" s="194"/>
+      <c r="C9" s="167" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="177"/>
+      <c r="D9" s="168"/>
       <c r="E9" s="10">
-        <f>SUM(Constantes!E61:E89)*Constantes!B30*-1</f>
+        <f>SUM(Constantes!E62:E90)*Constantes!B30*-1</f>
         <v>-67355.59199999999</v>
       </c>
       <c r="F9" s="10">
-        <f>SUM(Constantes!E61:E89)*Constantes!B30*-1</f>
+        <f>SUM(Constantes!E62:E90)*Constantes!B30*-1</f>
         <v>-67355.59199999999</v>
       </c>
       <c r="G9" s="10">
-        <f>SUM(Constantes!E61:E89)*Constantes!B30*-1</f>
+        <f>SUM(Constantes!E62:E90)*Constantes!B30*-1</f>
         <v>-67355.59199999999</v>
       </c>
       <c r="H9" s="10">
-        <f>SUM(Constantes!E61:E89)*Constantes!B30*-1</f>
+        <f>SUM(Constantes!E62:E90)*Constantes!B30*-1</f>
         <v>-67355.59199999999</v>
       </c>
-      <c r="I9" s="125">
-        <f>SUM(Constantes!E61:E89)*Constantes!B30*-1</f>
+      <c r="I9" s="124">
+        <f>SUM(Constantes!E62:E90)*Constantes!B30*-1</f>
         <v>-67355.59199999999</v>
       </c>
-      <c r="J9" s="120"/>
+      <c r="J9" s="119"/>
     </row>
     <row r="10" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="191" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="178" t="s">
+      <c r="B10" s="192"/>
+      <c r="C10" s="169" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="179"/>
+      <c r="D10" s="170"/>
       <c r="E10" s="14">
         <f>SUM(E6:E9)</f>
-        <v>-1300550.8440533322</v>
+        <v>-1763678.8440533322</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" ref="F10:I10" si="0">SUM(F6:F9)</f>
-        <v>-3521767.5496533341</v>
+        <v>-4624337.1496533332</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>-2766568.3988266671</v>
+        <v>-3931547.5988266673</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>-3066387.3863466661</v>
-      </c>
-      <c r="I10" s="126">
+        <v>-5645984.1863466669</v>
+      </c>
+      <c r="I10" s="125">
         <f t="shared" si="0"/>
-        <v>-4080849.0806399994</v>
+        <v>-6660445.8806399992</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="193" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="154"/>
-      <c r="C11" s="180" t="s">
+      <c r="B11" s="194"/>
+      <c r="C11" s="171" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="181"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="15">
         <f>IF(E10&gt;0,E10/4,0)</f>
         <v>0</v>
@@ -3752,84 +3808,84 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="127">
+      <c r="I11" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="120"/>
+      <c r="J11" s="119"/>
     </row>
     <row r="12" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="151" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="152"/>
-      <c r="C12" s="141" t="s">
+      <c r="A12" s="191" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="192"/>
+      <c r="C12" s="181" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="142"/>
+      <c r="D12" s="182"/>
       <c r="E12" s="11">
         <f>E10-E11</f>
-        <v>-1300550.8440533322</v>
+        <v>-1763678.8440533322</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" ref="F12:I12" si="2">F10-F11</f>
-        <v>-3521767.5496533341</v>
+        <f t="shared" ref="F12:H12" si="2">F10-F11</f>
+        <v>-4624337.1496533332</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>-2766568.3988266671</v>
+        <v>-3931547.5988266673</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="2"/>
-        <v>-3066387.3863466661</v>
-      </c>
-      <c r="I12" s="128">
+        <v>-5645984.1863466669</v>
+      </c>
+      <c r="I12" s="127">
         <f>I10-I11</f>
-        <v>-4080849.0806399994</v>
-      </c>
-      <c r="J12" s="120"/>
+        <v>-6660445.8806399992</v>
+      </c>
+      <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A13" s="149" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="143" t="s">
+      <c r="A13" s="189" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="190"/>
+      <c r="C13" s="183" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="144"/>
+      <c r="D13" s="184"/>
       <c r="E13" s="12">
-        <f>SUM(Constantes!E61:E89)*Constantes!B30</f>
+        <f>SUM(Constantes!E62:E90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
       <c r="F13" s="12">
-        <f>SUM(Constantes!E61:E89)*Constantes!B30</f>
+        <f>SUM(Constantes!E62:E90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
       <c r="G13" s="12">
-        <f>SUM(Constantes!E61:E89)*Constantes!B30</f>
+        <f>SUM(Constantes!E62:E90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
       <c r="H13" s="12">
-        <f>SUM(Constantes!E61:E89)*Constantes!B30</f>
+        <f>SUM(Constantes!E62:E90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
-      <c r="I13" s="129">
-        <f t="shared" ref="F13:I13" si="3">I9*-1</f>
+      <c r="I13" s="128">
+        <f t="shared" ref="I13" si="3">I9*-1</f>
         <v>67355.59199999999</v>
       </c>
-      <c r="J13" s="120"/>
+      <c r="J13" s="119"/>
     </row>
     <row r="14" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="233" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="145">
-        <f>SUM(Constantes!B61:'Constantes'!B89)*Constantes!B29*-1</f>
-        <v>-373571.19999999995</v>
-      </c>
-      <c r="D14" s="146"/>
+      <c r="A14" s="158" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="159"/>
+      <c r="C14" s="250">
+        <f>SUM(Constantes!B62:'Constantes'!B90)*Constantes!B29</f>
+        <v>373571.19999999995</v>
+      </c>
+      <c r="D14" s="251"/>
       <c r="E14" s="13" t="s">
         <v>163</v>
       </c>
@@ -3842,115 +3898,115 @@
       <c r="H14" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="130" t="s">
+      <c r="I14" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="120"/>
+      <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="154" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="235"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="244">
-        <f>SUM(Constantes!I61:I89)*Constantes!B34</f>
+      <c r="A15" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="195"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="143">
+        <f>SUM(Constantes!I62:I90)*Constantes!B34</f>
         <v>115027.13999999998</v>
       </c>
-      <c r="J15" s="120"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="236">
+      <c r="B16" s="160"/>
+      <c r="C16" s="185">
         <f>C14</f>
-        <v>-373571.19999999995</v>
-      </c>
-      <c r="D16" s="237"/>
-      <c r="E16" s="240">
+        <v>373571.19999999995</v>
+      </c>
+      <c r="D16" s="186"/>
+      <c r="E16" s="139">
         <f>E12+E13</f>
-        <v>-1233195.2520533323</v>
-      </c>
-      <c r="F16" s="240">
+        <v>-1696323.2520533323</v>
+      </c>
+      <c r="F16" s="139">
         <f>F12+F13</f>
-        <v>-3454411.9576533339</v>
-      </c>
-      <c r="G16" s="242">
+        <v>-4556981.5576533331</v>
+      </c>
+      <c r="G16" s="141">
         <f>G12+G13</f>
-        <v>-2699212.8068266669</v>
-      </c>
-      <c r="H16" s="242">
+        <v>-3864192.0068266671</v>
+      </c>
+      <c r="H16" s="141">
         <f>H12+H13</f>
-        <v>-2999031.794346666</v>
-      </c>
-      <c r="I16" s="243">
+        <v>-5578628.5943466667</v>
+      </c>
+      <c r="I16" s="142">
         <f>I12+I13+I15</f>
-        <v>-3898466.3486399991</v>
-      </c>
-      <c r="J16" s="120"/>
+        <v>-6478063.1486399993</v>
+      </c>
+      <c r="J16" s="119"/>
     </row>
     <row r="17" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="155" t="s">
+      <c r="A17" s="144" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="145"/>
+      <c r="C17" s="148">
+        <v>1</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="114">
+        <v>1.08</v>
+      </c>
+      <c r="F17" s="114">
+        <v>1.1664000000000001</v>
+      </c>
+      <c r="G17" s="114">
+        <v>1.2597</v>
+      </c>
+      <c r="H17" s="114">
+        <v>1.3605</v>
+      </c>
+      <c r="I17" s="130">
+        <v>1.4693000000000001</v>
+      </c>
+      <c r="J17" s="119"/>
+    </row>
+    <row r="18" spans="1:10" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A18" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="156"/>
-      <c r="C17" s="159">
-        <v>1</v>
-      </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="115">
-        <v>1.08</v>
-      </c>
-      <c r="F17" s="115">
-        <v>1.1664000000000001</v>
-      </c>
-      <c r="G17" s="115">
-        <v>1.2597</v>
-      </c>
-      <c r="H17" s="115">
-        <v>1.3605</v>
-      </c>
-      <c r="I17" s="131">
-        <v>1.4693000000000001</v>
-      </c>
-      <c r="J17" s="120"/>
-    </row>
-    <row r="18" spans="1:10" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="161">
+      <c r="B18" s="147"/>
+      <c r="C18" s="150">
         <f>C16/C17</f>
-        <v>-373571.19999999995</v>
-      </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="117">
+        <v>373571.19999999995</v>
+      </c>
+      <c r="D18" s="147"/>
+      <c r="E18" s="116">
         <f>E16/E17</f>
-        <v>-1141847.4556049372</v>
-      </c>
-      <c r="F18" s="117">
+        <v>-1570669.6778271594</v>
+      </c>
+      <c r="F18" s="116">
         <f t="shared" ref="F18:I18" si="4">F16/F17</f>
-        <v>-2961601.4726108825</v>
-      </c>
-      <c r="G18" s="117">
+        <v>-3906877.1927754912</v>
+      </c>
+      <c r="G18" s="116">
         <f t="shared" si="4"/>
-        <v>-2142742.5631711255</v>
-      </c>
-      <c r="H18" s="116">
+        <v>-3067549.4219470248</v>
+      </c>
+      <c r="H18" s="115">
         <f t="shared" si="4"/>
-        <v>-2204360.010545142</v>
-      </c>
-      <c r="I18" s="114">
+        <v>-4100425.2806664216</v>
+      </c>
+      <c r="I18" s="113">
         <f t="shared" si="4"/>
-        <v>-2653281.3915742184</v>
+        <v>-4408945.1770502953</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4004,6 +4060,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C17:D17"/>
@@ -4020,20 +4090,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C14:I14 C16:I18 C15 E6:I15">
@@ -4054,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,18 +4130,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
+      <c r="A1" s="196" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
@@ -4163,7 +4219,7 @@
       <c r="I6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="189" t="s">
+      <c r="J6" s="203" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4182,7 +4238,7 @@
         <f>B7*'Tablas Calculadas '!E20+C7*'Tablas Calculadas '!E21+F7*'Tablas Calculadas '!E39+G7*'Tablas Calculadas '!E40+'Tablas Calculadas '!E41*H7+D7*'Tablas Calculadas '!E27+E7*'Tablas Calculadas '!E33</f>
         <v>0</v>
       </c>
-      <c r="J7" s="190"/>
+      <c r="J7" s="204"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
@@ -4205,9 +4261,9 @@
       <c r="H8" s="29"/>
       <c r="I8" s="30">
         <f>B8*'Tablas Calculadas '!E20+C8*'Tablas Calculadas '!E22+F8*'Tablas Calculadas '!E42+G8*'Tablas Calculadas '!E43+'Tablas Calculadas '!E44*H8+D8*'Tablas Calculadas '!E28+E8*'Tablas Calculadas '!E34</f>
-        <v>10742778.334933335</v>
-      </c>
-      <c r="J8" s="190"/>
+        <v>13372552.334933333</v>
+      </c>
+      <c r="J8" s="204"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
@@ -4230,7 +4286,7 @@
         <f>B9*'Tablas Calculadas '!E20+C9*'Tablas Calculadas '!E23+F9*'Tablas Calculadas '!E45+G9*'Tablas Calculadas '!E46+H9*'Tablas Calculadas '!E47+D9*'Tablas Calculadas '!E29+E9*'Tablas Calculadas '!E35</f>
         <v>3057963.2529333332</v>
       </c>
-      <c r="J9" s="190"/>
+      <c r="J9" s="204"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
@@ -4253,7 +4309,7 @@
         <f>B10*'Tablas Calculadas '!E20+C10*'Tablas Calculadas '!E24+F10*'Tablas Calculadas '!E48+'Tablas Calculadas '!E49*G10+H10*'Tablas Calculadas '!E50+D10*'Tablas Calculadas '!E30+E10*'Tablas Calculadas '!E36</f>
         <v>4532030.391466666</v>
       </c>
-      <c r="J10" s="190"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -4276,7 +4332,7 @@
         <f>B11*'Tablas Calculadas '!E20+C11*'Tablas Calculadas '!E25+F11*'Tablas Calculadas '!E51+'Tablas Calculadas '!E52*G11+H11*'Tablas Calculadas '!E53+D11*'Tablas Calculadas '!E31+E11*'Tablas Calculadas '!E37</f>
         <v>5526691.8570666667</v>
       </c>
-      <c r="J11" s="190"/>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
@@ -4295,11 +4351,11 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="35">
+      <c r="I12" s="249">
         <f>B12*'Tablas Calculadas '!E20+C12*'Tablas Calculadas '!E26+F12*'Tablas Calculadas '!E54+'Tablas Calculadas '!E55*G12+H12*'Tablas Calculadas '!E56+D12*'Tablas Calculadas '!E32+E12*'Tablas Calculadas '!E38</f>
         <v>4176815.5392</v>
       </c>
-      <c r="J12" s="190"/>
+      <c r="J12" s="204"/>
     </row>
     <row r="13" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
@@ -4307,7 +4363,7 @@
       </c>
       <c r="B13" s="41">
         <f>SUM(B7:B11)*'Tablas Calculadas '!E20</f>
-        <v>3737636.0000000009</v>
+        <v>4435410</v>
       </c>
       <c r="C13" s="41">
         <f>C7*'Tablas Calculadas '!E21+C8*'Tablas Calculadas '!E22+C9*'Tablas Calculadas '!E23+C10*'Tablas Calculadas '!E24+C11*'Tablas Calculadas '!E25</f>
@@ -4327,7 +4383,7 @@
       </c>
       <c r="G13" s="42">
         <f>G7*'Tablas Calculadas '!E40+G8*'Tablas Calculadas '!E43+G9*'Tablas Calculadas '!E46+G10*'Tablas Calculadas '!E49+G11*'Tablas Calculadas '!E52</f>
-        <v>5636975.4239999996</v>
+        <v>7568975.4239999987</v>
       </c>
       <c r="H13" s="42">
         <f>H7*'Tablas Calculadas '!E41+H8*'Tablas Calculadas '!E44+H9*'Tablas Calculadas '!E47+H10*'Tablas Calculadas '!E50+H11*'Tablas Calculadas '!E53</f>
@@ -4335,9 +4391,9 @@
       </c>
       <c r="I13" s="43">
         <f>SUM(I7:I12)</f>
-        <v>28036279.375600003</v>
-      </c>
-      <c r="J13" s="190"/>
+        <v>30666053.375600003</v>
+      </c>
+      <c r="J13" s="204"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
@@ -4388,15 +4444,15 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="184" t="s">
+      <c r="A18" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="185"/>
-      <c r="C18" s="186" t="s">
+      <c r="B18" s="199"/>
+      <c r="C18" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="187"/>
-      <c r="E18" s="188"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="202"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -4408,7 +4464,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>10</v>
@@ -4435,14 +4491,14 @@
       </c>
       <c r="C20" s="47">
         <f>(('Tablas Calculadas '!C61-C43)/12)*7</f>
-        <v>2708148.8000000007</v>
+        <v>3266368</v>
       </c>
       <c r="D20" s="48">
         <v>25</v>
       </c>
       <c r="E20" s="49">
         <f t="shared" ref="E20:E56" si="0">SUM(B20:C20)*(1+(D20/100))</f>
-        <v>3737636.0000000009</v>
+        <v>4435410</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -4550,22 +4606,22 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="246">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$13+2)</f>
         <v>22603.946666666667</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="62">
         <f>(Constantes!$B$13*Constantes!$B$39*Constantes!B33*Constantes!$C$13)+(Constantes!$B$13*(Constantes!$B$38*(1+Constantes!$E$6))*Constantes!B33*Constantes!$D$13)</f>
         <v>98304</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="29">
         <v>25</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="55">
         <f t="shared" si="0"/>
         <v>151134.93333333335</v>
       </c>
@@ -4579,18 +4635,18 @@
       <c r="A26" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26" s="242">
         <f>('Tablas Calculadas '!B65/(12*30))*(Constantes!$C$13+2)</f>
         <v>26842.186666666668</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="243">
         <f>(Constantes!$B$13*Constantes!$B$39*Constantes!B34*Constantes!$C$13)+(Constantes!$B$13*(Constantes!$B$38*(1+Constantes!$E$6))*Constantes!B34*Constantes!$D$13)</f>
         <v>116736</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="39">
         <v>20</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="58">
         <f t="shared" si="0"/>
         <v>172293.82399999999</v>
       </c>
@@ -4700,22 +4756,22 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="246">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$14+2)</f>
         <v>49728.682666666668</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="62">
         <f>(Constantes!$B$14*Constantes!$B$39*Constantes!B33*Constantes!$C$14)+(Constantes!$B$14*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B33*Constantes!$D$14)</f>
         <v>491520</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="29">
         <v>20</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="55">
         <f t="shared" si="0"/>
         <v>649498.4192</v>
       </c>
@@ -4729,18 +4785,18 @@
       <c r="A32" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="242">
         <f>('Tablas Calculadas '!B65/(12*30))*(Constantes!$C$14+2)</f>
         <v>59052.810666666664</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="243">
         <f>(Constantes!$B$14*Constantes!$B$39*Constantes!B34*Constantes!$C$14)+(Constantes!$B$14*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B34*Constantes!$D$14)</f>
         <v>583680</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="244">
         <v>20</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="245">
         <f t="shared" si="0"/>
         <v>771279.37280000001</v>
       </c>
@@ -4910,14 +4966,14 @@
       </c>
       <c r="C39" s="52">
         <f>Constantes!B8*Constantes!B29</f>
-        <v>2000000</v>
+        <v>3240000</v>
       </c>
       <c r="D39" s="59">
         <v>20</v>
       </c>
       <c r="E39" s="60">
         <f t="shared" si="0"/>
-        <v>2496672</v>
+        <v>3984672</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -4935,14 +4991,14 @@
       </c>
       <c r="C40" s="62">
         <f>Constantes!B9*Constantes!B29</f>
-        <v>4000000</v>
+        <v>5400000</v>
       </c>
       <c r="D40" s="34">
         <v>20</v>
       </c>
       <c r="E40" s="70">
         <f t="shared" si="0"/>
-        <v>4896672</v>
+        <v>6576672</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -4960,14 +5016,14 @@
       </c>
       <c r="C41" s="57">
         <f>Constantes!B10*Constantes!B29</f>
-        <v>6000000</v>
+        <v>7760000</v>
       </c>
       <c r="D41" s="39">
         <v>20</v>
       </c>
       <c r="E41" s="58">
         <f t="shared" si="0"/>
-        <v>7296672</v>
+        <v>9408672</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -4985,14 +5041,14 @@
       </c>
       <c r="C42" s="52">
         <f>Constantes!B8*Constantes!$B$30</f>
-        <v>2300000</v>
+        <v>3726000</v>
       </c>
       <c r="D42" s="34">
         <v>20</v>
       </c>
       <c r="E42" s="70">
         <f t="shared" si="0"/>
-        <v>2876975.4240000001</v>
+        <v>4588175.4239999996</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -5010,14 +5066,14 @@
       </c>
       <c r="C43" s="62">
         <f>Constantes!B9*Constantes!$B$30</f>
-        <v>4600000</v>
+        <v>6210000</v>
       </c>
       <c r="D43" s="34">
         <v>20</v>
       </c>
       <c r="E43" s="70">
         <f t="shared" si="0"/>
-        <v>5636975.4239999996</v>
+        <v>7568975.4239999987</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -5035,14 +5091,14 @@
       </c>
       <c r="C44" s="57">
         <f>Constantes!B10*Constantes!$B$30</f>
-        <v>6900000</v>
+        <v>8924000</v>
       </c>
       <c r="D44" s="39">
         <v>20</v>
       </c>
       <c r="E44" s="58">
         <f t="shared" si="0"/>
-        <v>8396975.4239999987</v>
+        <v>10825775.423999999</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
@@ -5060,14 +5116,14 @@
       </c>
       <c r="C45" s="52">
         <f>Constantes!B8*Constantes!$B$31</f>
-        <v>2650000</v>
+        <v>4293000</v>
       </c>
       <c r="D45" s="34">
         <v>20</v>
       </c>
       <c r="E45" s="70">
         <f t="shared" si="0"/>
-        <v>3314776.0319999997</v>
+        <v>5286376.0320000006</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -5085,14 +5141,14 @@
       </c>
       <c r="C46" s="62">
         <f>Constantes!B9*Constantes!$B$31</f>
-        <v>5300000</v>
+        <v>7155000</v>
       </c>
       <c r="D46" s="34">
         <v>20</v>
       </c>
       <c r="E46" s="70">
         <f t="shared" si="0"/>
-        <v>6494776.0320000006</v>
+        <v>8720776.0319999997</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -5110,14 +5166,14 @@
       </c>
       <c r="C47" s="57">
         <f>Constantes!B10*Constantes!$B$31</f>
-        <v>7950000</v>
+        <v>10282000</v>
       </c>
       <c r="D47" s="39">
         <v>20</v>
       </c>
       <c r="E47" s="58">
         <f t="shared" si="0"/>
-        <v>9674776.0319999997</v>
+        <v>12473176.032</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -5135,14 +5191,14 @@
       </c>
       <c r="C48" s="52">
         <f>Constantes!B8*Constantes!$B$32</f>
-        <v>2800000</v>
+        <v>4536000</v>
       </c>
       <c r="D48" s="34">
         <v>20</v>
       </c>
       <c r="E48" s="70">
         <f t="shared" si="0"/>
-        <v>3502404.8640000001</v>
+        <v>5585604.8639999991</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
@@ -5160,14 +5216,14 @@
       </c>
       <c r="C49" s="62">
         <f>Constantes!B9*Constantes!$B$32</f>
-        <v>5600000</v>
+        <v>7560000</v>
       </c>
       <c r="D49" s="34">
         <v>20</v>
       </c>
       <c r="E49" s="70">
         <f t="shared" si="0"/>
-        <v>6862404.8639999991</v>
+        <v>9214404.8640000001</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -5185,14 +5241,14 @@
       </c>
       <c r="C50" s="57">
         <f>Constantes!B10*Constantes!$B$32</f>
-        <v>8400000</v>
+        <v>10864000</v>
       </c>
       <c r="D50" s="39">
         <v>20</v>
       </c>
       <c r="E50" s="58">
         <f t="shared" si="0"/>
-        <v>10222404.864</v>
+        <v>13179204.864</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -5210,14 +5266,14 @@
       </c>
       <c r="C51" s="52">
         <f>Constantes!B8*Constantes!$B$33</f>
-        <v>3200000</v>
+        <v>5184000</v>
       </c>
       <c r="D51" s="34">
         <v>20</v>
       </c>
       <c r="E51" s="70">
         <f t="shared" si="0"/>
-        <v>4002748.4160000002</v>
+        <v>6383548.4159999993</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -5235,14 +5291,14 @@
       </c>
       <c r="C52" s="62">
         <f>Constantes!B9*Constantes!$B$33</f>
-        <v>6400000</v>
+        <v>8640000</v>
       </c>
       <c r="D52" s="34">
         <v>20</v>
       </c>
       <c r="E52" s="70">
         <f t="shared" si="0"/>
-        <v>7842748.4159999993</v>
+        <v>10530748.415999999</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -5260,14 +5316,14 @@
       </c>
       <c r="C53" s="57">
         <f>Constantes!B10*Constantes!$B$33</f>
-        <v>9600000</v>
+        <v>12416000</v>
       </c>
       <c r="D53" s="39">
         <v>20</v>
       </c>
       <c r="E53" s="58">
         <f t="shared" si="0"/>
-        <v>11682748.415999999</v>
+        <v>15061948.415999999</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -5285,14 +5341,14 @@
       </c>
       <c r="C54" s="52">
         <f>Constantes!B8*Constantes!$B$33</f>
-        <v>3200000</v>
+        <v>5184000</v>
       </c>
       <c r="D54" s="34">
         <v>20</v>
       </c>
       <c r="E54" s="70">
         <f t="shared" si="0"/>
-        <v>4002748.4160000002</v>
+        <v>6383548.4159999993</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -5310,14 +5366,14 @@
       </c>
       <c r="C55" s="62">
         <f>Constantes!B9*Constantes!$B$33</f>
-        <v>6400000</v>
+        <v>8640000</v>
       </c>
       <c r="D55" s="34">
         <v>20</v>
       </c>
       <c r="E55" s="70">
         <f t="shared" si="0"/>
-        <v>7842748.4159999993</v>
+        <v>10530748.415999999</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
@@ -5335,14 +5391,14 @@
       </c>
       <c r="C56" s="57">
         <f>Constantes!B10*Constantes!$B$33</f>
-        <v>9600000</v>
+        <v>12416000</v>
       </c>
       <c r="D56" s="39">
         <v>20</v>
       </c>
       <c r="E56" s="58">
         <f t="shared" si="0"/>
-        <v>11682748.415999999</v>
+        <v>15061948.415999999</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
@@ -5403,12 +5459,12 @@
         <v>483360</v>
       </c>
       <c r="C60" s="62">
-        <f>Constantes!B43*12+(Constantes!B48*Constantes!B29+Constantes!B49*Constantes!B29+Constantes!B50*Constantes!B29)*12 +'Tablas Calculadas '!F7*'Tablas Calculadas '!C39+'Tablas Calculadas '!G7*'Tablas Calculadas '!C40+'Tablas Calculadas '!H7*'Tablas Calculadas '!C41 + 'Tablas Calculadas '!B72</f>
-        <v>3760512</v>
+        <f>Constantes!B43*12+(Constantes!B49*Constantes!B29+Constantes!B50*Constantes!B29+Constantes!B51*Constantes!B29)*12 +'Tablas Calculadas '!F7*'Tablas Calculadas '!C39+'Tablas Calculadas '!G7*'Tablas Calculadas '!C40+'Tablas Calculadas '!H7*'Tablas Calculadas '!C41 + 'Tablas Calculadas '!B72</f>
+        <v>4592640</v>
       </c>
       <c r="D60" s="72">
         <f t="shared" ref="D60:D66" si="1">SUM(B60:C60)</f>
-        <v>4243872</v>
+        <v>5076000</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -5426,12 +5482,12 @@
         <v>584877.11999999988</v>
       </c>
       <c r="C61" s="62">
-        <f>(Constantes!B44*12+(Constantes!$B$48*Constantes!B30+Constantes!$B$49*Constantes!B30+Constantes!B50*Constantes!B30)*12) +'Tablas Calculadas '!F8*'Tablas Calculadas '!C42+'Tablas Calculadas '!G8*'Tablas Calculadas '!C43+'Tablas Calculadas '!H8*'Tablas Calculadas '!C44 +'Tablas Calculadas '!B73</f>
-        <v>9242540.8000000007</v>
+        <f>(Constantes!B44*12+(Constantes!$B$49*Constantes!B30+Constantes!$B$50*Constantes!B30+Constantes!B51*Constantes!B30)*12) +'Tablas Calculadas '!F8*'Tablas Calculadas '!C42+'Tablas Calculadas '!G8*'Tablas Calculadas '!C43+'Tablas Calculadas '!H8*'Tablas Calculadas '!C44 +'Tablas Calculadas '!B73</f>
+        <v>11809488</v>
       </c>
       <c r="D61" s="72">
         <f t="shared" si="1"/>
-        <v>9827417.9199999999</v>
+        <v>12394365.119999999</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -5449,12 +5505,12 @@
         <v>673880.16</v>
       </c>
       <c r="C62" s="62">
-        <f>(Constantes!B45*12+(Constantes!$B$48*Constantes!B31+Constantes!$B$49*Constantes!B31+Constantes!B50*Constantes!B31)*12) +('Tablas Calculadas '!F9*'Tablas Calculadas '!C45+'Tablas Calculadas '!G9*'Tablas Calculadas '!C46+'Tablas Calculadas '!H9*'Tablas Calculadas '!C47) +'Tablas Calculadas '!B74</f>
-        <v>5226902.4000000004</v>
+        <f>(Constantes!B45*12+(Constantes!$B$49*Constantes!B31+Constantes!$B$50*Constantes!B31+Constantes!B51*Constantes!B31)*12) +('Tablas Calculadas '!F9*'Tablas Calculadas '!C45+'Tablas Calculadas '!G9*'Tablas Calculadas '!C46+'Tablas Calculadas '!H9*'Tablas Calculadas '!C47) +'Tablas Calculadas '!B74</f>
+        <v>6329472</v>
       </c>
       <c r="D62" s="72">
         <f t="shared" si="1"/>
-        <v>5900782.5600000005</v>
+        <v>7003352.1600000001</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
@@ -5472,12 +5528,12 @@
         <v>712024.32000000007</v>
       </c>
       <c r="C63" s="62">
-        <f>(Constantes!B46*12+(Constantes!$B$48*Constantes!B32+Constantes!$B$49*Constantes!B32)*12)+('Tablas Calculadas '!F10*'Tablas Calculadas '!C48+'Tablas Calculadas '!G10*'Tablas Calculadas '!C49+'Tablas Calculadas '!H10*'Tablas Calculadas '!C50) +'Tablas Calculadas '!B75</f>
-        <v>5612812.7999999998</v>
+        <f>(Constantes!B46*12+(Constantes!$B$49*Constantes!B32+Constantes!$B$50*Constantes!B32)*12)+('Tablas Calculadas '!F10*'Tablas Calculadas '!C48+'Tablas Calculadas '!G10*'Tablas Calculadas '!C49+'Tablas Calculadas '!H10*'Tablas Calculadas '!C50) +'Tablas Calculadas '!B75</f>
+        <v>6777792</v>
       </c>
       <c r="D63" s="72">
         <f t="shared" si="1"/>
-        <v>6324837.1200000001</v>
+        <v>7489816.3200000003</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -5495,12 +5551,12 @@
         <v>813742.07999999996</v>
       </c>
       <c r="C64" s="62">
-        <f>(Constantes!B47*12+(Constantes!$B$48*Constantes!B33+Constantes!$B$49*Constantes!B33+Constantes!B50*Constantes!B33)*12)+('Tablas Calculadas '!F11*'Tablas Calculadas '!C51+'Tablas Calculadas '!G11*'Tablas Calculadas '!C52+'Tablas Calculadas '!H11*'Tablas Calculadas '!C53) +'Tablas Calculadas '!B76</f>
-        <v>6606643.1999999993</v>
+        <f>(Constantes!B48*12+(Constantes!$B$49*Constantes!B33+Constantes!$B$50*Constantes!B33+Constantes!B51*Constantes!B33)*12)+('Tablas Calculadas '!F11*'Tablas Calculadas '!C51+'Tablas Calculadas '!G11*'Tablas Calculadas '!C52+'Tablas Calculadas '!H11*'Tablas Calculadas '!C53) +'Tablas Calculadas '!B76</f>
+        <v>9186240</v>
       </c>
       <c r="D64" s="72">
         <f t="shared" si="1"/>
-        <v>7420385.2799999993</v>
+        <v>9999982.0800000001</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -5518,12 +5574,12 @@
         <v>966318.72</v>
       </c>
       <c r="C65" s="62">
-        <f>(Constantes!B47*12+(Constantes!$B$48*Constantes!B34+Constantes!$B$49*Constantes!B33+Constantes!B50*Constantes!B33)*12)+('Tablas Calculadas '!F12*'Tablas Calculadas '!C54+'Tablas Calculadas '!G12*'Tablas Calculadas '!C55+'Tablas Calculadas '!H12*'Tablas Calculadas '!C56) +'Tablas Calculadas '!B77</f>
-        <v>6388627.1999999993</v>
+        <f>(Constantes!B48*12+(Constantes!$B$49*Constantes!B34+Constantes!$B$50*Constantes!B33+Constantes!B51*Constantes!B33)*12)+('Tablas Calculadas '!F12*'Tablas Calculadas '!C54+'Tablas Calculadas '!G12*'Tablas Calculadas '!C55+'Tablas Calculadas '!H12*'Tablas Calculadas '!C56) +'Tablas Calculadas '!B77</f>
+        <v>8968224</v>
       </c>
       <c r="D65" s="72">
         <f t="shared" si="1"/>
-        <v>7354945.919999999</v>
+        <v>9934542.7200000007</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -5542,11 +5598,11 @@
       </c>
       <c r="C66" s="76">
         <f>SUM(C60:C64)</f>
-        <v>30449411.200000003</v>
+        <v>38695632</v>
       </c>
       <c r="D66" s="77">
         <f t="shared" si="1"/>
-        <v>33717294.880000003</v>
+        <v>41963515.68</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -5604,10 +5660,10 @@
       <c r="J70" s="17"/>
     </row>
     <row r="71" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="191" t="s">
+      <c r="A71" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="192"/>
+      <c r="B71" s="206"/>
       <c r="C71" s="78" t="s">
         <v>127</v>
       </c>
@@ -6014,10 +6070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6025,7 +6081,7 @@
     <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
@@ -6034,17 +6090,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="193" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="195"/>
+      <c r="A1" s="228" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="230"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H2" s="17"/>
@@ -6071,10 +6127,10 @@
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="192"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="84">
         <v>1</v>
       </c>
@@ -6085,10 +6141,10 @@
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="191" t="s">
+      <c r="A7" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="192"/>
+      <c r="B7" s="206"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6101,9 +6157,9 @@
         <v>56</v>
       </c>
       <c r="B8" s="86">
-        <v>50000</v>
-      </c>
-      <c r="C8" s="189" t="s">
+        <v>81000</v>
+      </c>
+      <c r="C8" s="203" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="87"/>
@@ -6117,9 +6173,9 @@
         <v>57</v>
       </c>
       <c r="B9" s="88">
-        <v>100000</v>
-      </c>
-      <c r="C9" s="190"/>
+        <v>135000</v>
+      </c>
+      <c r="C9" s="204"/>
       <c r="D9" s="81"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -6131,9 +6187,9 @@
         <v>58</v>
       </c>
       <c r="B10" s="88">
-        <v>150000</v>
-      </c>
-      <c r="C10" s="206"/>
+        <v>194000</v>
+      </c>
+      <c r="C10" s="208"/>
       <c r="D10" s="81"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -6265,22 +6321,22 @@
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="191" t="s">
+      <c r="A20" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="205"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="192"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="206"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="198" t="s">
+      <c r="A21" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="198"/>
+      <c r="B21" s="231"/>
       <c r="C21" s="90" t="s">
         <v>29</v>
       </c>
@@ -6293,10 +6349,10 @@
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="199" t="s">
+      <c r="A22" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="200"/>
+      <c r="B22" s="233"/>
       <c r="C22" s="97">
         <v>657</v>
       </c>
@@ -6309,10 +6365,10 @@
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="196" t="s">
+      <c r="A23" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="197"/>
+      <c r="B23" s="222"/>
       <c r="C23" s="98">
         <v>200</v>
       </c>
@@ -6325,10 +6381,10 @@
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="196" t="s">
+      <c r="A24" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="197"/>
+      <c r="B24" s="222"/>
       <c r="C24" s="98">
         <v>150</v>
       </c>
@@ -6341,10 +6397,10 @@
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="203" t="s">
+      <c r="A25" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="204"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="99">
         <f>SUM(C22:C24)</f>
         <v>1007</v>
@@ -6366,10 +6422,10 @@
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="191" t="s">
+      <c r="A27" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="192"/>
+      <c r="B27" s="206"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
       <c r="E27" s="17"/>
@@ -6392,13 +6448,13 @@
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="133">
+      <c r="A29" s="132">
         <v>0</v>
       </c>
       <c r="B29" s="100">
         <v>40</v>
       </c>
-      <c r="C29" s="224" t="s">
+      <c r="C29" s="225" t="s">
         <v>121</v>
       </c>
       <c r="D29" s="81"/>
@@ -6408,13 +6464,13 @@
       <c r="I29" s="17"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="111">
+      <c r="A30" s="110">
         <v>1</v>
       </c>
       <c r="B30" s="72">
         <v>46</v>
       </c>
-      <c r="C30" s="225"/>
+      <c r="C30" s="226"/>
       <c r="D30" s="81"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -6422,13 +6478,13 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="111">
+      <c r="A31" s="110">
         <v>2</v>
       </c>
       <c r="B31" s="72">
         <v>53</v>
       </c>
-      <c r="C31" s="225"/>
+      <c r="C31" s="226"/>
       <c r="D31" s="81"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -6436,13 +6492,13 @@
       <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="111">
+      <c r="A32" s="110">
         <v>3</v>
       </c>
       <c r="B32" s="72">
         <v>56</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="226"/>
       <c r="D32" s="81"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -6450,13 +6506,13 @@
       <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="111">
+      <c r="A33" s="110">
         <v>4</v>
       </c>
       <c r="B33" s="72">
         <v>64</v>
       </c>
-      <c r="C33" s="225"/>
+      <c r="C33" s="226"/>
       <c r="D33" s="81"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -6467,10 +6523,10 @@
       <c r="A34" s="37">
         <v>5</v>
       </c>
-      <c r="B34" s="134">
+      <c r="B34" s="133">
         <v>76</v>
       </c>
-      <c r="C34" s="226"/>
+      <c r="C34" s="227"/>
       <c r="D34" s="81"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
@@ -6498,10 +6554,10 @@
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="191" t="s">
+      <c r="A37" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="192"/>
+      <c r="B37" s="206"/>
       <c r="C37" s="81"/>
       <c r="D37" s="81"/>
       <c r="E37" s="17"/>
@@ -6513,7 +6569,7 @@
       <c r="A38" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="102">
+      <c r="B38" s="247">
         <v>8</v>
       </c>
       <c r="C38" s="81"/>
@@ -6524,10 +6580,10 @@
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="104">
+      <c r="B39" s="248">
         <v>16</v>
       </c>
       <c r="C39" s="85" t="s">
@@ -6543,10 +6599,10 @@
       <c r="A40" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="105">
+      <c r="B40" s="104">
         <v>8</v>
       </c>
-      <c r="C40" s="201" t="s">
+      <c r="C40" s="219" t="s">
         <v>125</v>
       </c>
       <c r="D40" s="81"/>
@@ -6559,10 +6615,10 @@
       <c r="A41" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="105">
+      <c r="B41" s="104">
         <v>22</v>
       </c>
-      <c r="C41" s="202"/>
+      <c r="C41" s="220"/>
       <c r="D41" s="81"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -6573,8 +6629,8 @@
       <c r="A42" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="105">
-        <v>4</v>
+      <c r="B42" s="104">
+        <v>5</v>
       </c>
       <c r="C42" s="81"/>
       <c r="D42" s="81"/>
@@ -6588,8 +6644,8 @@
         <v>38</v>
       </c>
       <c r="B43" s="72">
-        <f>($B$38*B29*$B$40*$B$41*$B$42)*(1+(SUM($B$51:$B$56)))</f>
-        <v>277376</v>
+        <f>($B$38*B29*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <v>346720</v>
       </c>
       <c r="C43" s="81"/>
       <c r="D43" s="81"/>
@@ -6603,8 +6659,8 @@
         <v>39</v>
       </c>
       <c r="B44" s="72">
-        <f>($B$38*B30*$B$40*$B$41*$B$42)*(1+(SUM($B$51:$B$56)))</f>
-        <v>318982.39999999997</v>
+        <f>($B$38*B30*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <v>398728</v>
       </c>
       <c r="C44" s="81"/>
       <c r="D44" s="81"/>
@@ -6618,8 +6674,8 @@
         <v>40</v>
       </c>
       <c r="B45" s="72">
-        <f>($B$38*B31*$B$40*$B$41*$B$42)*(1+(SUM($B$51:$B$56)))</f>
-        <v>367523.2</v>
+        <f>($B$38*B31*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <v>459404</v>
       </c>
       <c r="C45" s="81"/>
       <c r="D45" s="81"/>
@@ -6633,8 +6689,8 @@
         <v>41</v>
       </c>
       <c r="B46" s="72">
-        <f>($B$38*B32*$B$40*$B$41*$B$42)*(1+(SUM($B$51:$B$56)))</f>
-        <v>388326.39999999997</v>
+        <f>($B$38*B32*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <v>485408</v>
       </c>
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
@@ -6648,8 +6704,8 @@
         <v>42</v>
       </c>
       <c r="B47" s="72">
-        <f>($B$38*B33*$B$40*$B$41*$B$42)*(1+(SUM($B$51:$B$56)))</f>
-        <v>443801.59999999998</v>
+        <f>($B$38*B33*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <v>554752</v>
       </c>
       <c r="C47" s="81"/>
       <c r="D47" s="81"/>
@@ -6660,10 +6716,11 @@
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="104">
-        <v>150</v>
+        <v>187</v>
+      </c>
+      <c r="B48" s="72">
+        <f>($B$38*B34*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <v>658768</v>
       </c>
       <c r="C48" s="81"/>
       <c r="D48" s="81"/>
@@ -6674,10 +6731,10 @@
     </row>
     <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="104">
-        <v>500</v>
+        <v>59</v>
+      </c>
+      <c r="B49" s="103">
+        <v>150</v>
       </c>
       <c r="C49" s="81"/>
       <c r="D49" s="81"/>
@@ -6688,10 +6745,10 @@
     </row>
     <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="104">
-        <v>250</v>
+        <v>60</v>
+      </c>
+      <c r="B50" s="103">
+        <v>500</v>
       </c>
       <c r="C50" s="81"/>
       <c r="D50" s="81"/>
@@ -6702,10 +6759,10 @@
     </row>
     <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="106">
-        <v>0.03</v>
+        <v>45</v>
+      </c>
+      <c r="B51" s="103">
+        <v>250</v>
       </c>
       <c r="C51" s="81"/>
       <c r="D51" s="81"/>
@@ -6716,10 +6773,10 @@
     </row>
     <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="106">
-        <v>7.4999999999999997E-2</v>
+        <v>61</v>
+      </c>
+      <c r="B52" s="105">
+        <v>0.03</v>
       </c>
       <c r="C52" s="81"/>
       <c r="D52" s="81"/>
@@ -6729,11 +6786,11 @@
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="107">
-        <v>2.5000000000000001E-4</v>
+      <c r="A53" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="105">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C53" s="81"/>
       <c r="D53" s="81"/>
@@ -6744,10 +6801,10 @@
     </row>
     <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="108">
-        <v>7.4999999999999997E-2</v>
+        <v>135</v>
+      </c>
+      <c r="B54" s="106">
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="C54" s="81"/>
       <c r="D54" s="81"/>
@@ -6758,10 +6815,10 @@
     </row>
     <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="108">
-        <v>1E-3</v>
+        <v>133</v>
+      </c>
+      <c r="B55" s="107">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C55" s="81"/>
       <c r="D55" s="81"/>
@@ -6770,12 +6827,12 @@
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="110">
-        <v>0.05</v>
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="107">
+        <v>1E-3</v>
       </c>
       <c r="C56" s="81"/>
       <c r="D56" s="81"/>
@@ -6785,8 +6842,12 @@
       <c r="I56" s="17"/>
     </row>
     <row r="57" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="81"/>
-      <c r="B57" s="81"/>
+      <c r="A57" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="109">
+        <v>0.05</v>
+      </c>
       <c r="C57" s="81"/>
       <c r="D57" s="81"/>
       <c r="E57" s="17"/>
@@ -6794,1046 +6855,1056 @@
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="216" t="s">
+    <row r="58" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="81"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="217"/>
-      <c r="C58" s="191" t="s">
+      <c r="B59" s="210"/>
+      <c r="C59" s="205" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="206"/>
+      <c r="E59" s="213" t="s">
         <v>183</v>
       </c>
-      <c r="D58" s="192"/>
-      <c r="E58" s="218" t="s">
-        <v>185</v>
-      </c>
-      <c r="F58" s="219"/>
-      <c r="G58" s="219"/>
-      <c r="H58" s="219"/>
-      <c r="I58" s="220"/>
-    </row>
-    <row r="59" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="221"/>
-      <c r="B59" s="222"/>
-      <c r="C59" s="230" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="231"/>
-      <c r="E59" s="231"/>
-      <c r="F59" s="231"/>
-      <c r="G59" s="231"/>
-      <c r="H59" s="231"/>
-      <c r="I59" s="232"/>
-    </row>
-    <row r="60" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="227" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="228" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="F60" s="101" t="s">
+      <c r="F59" s="214"/>
+      <c r="G59" s="214"/>
+      <c r="H59" s="214"/>
+      <c r="I59" s="215"/>
+    </row>
+    <row r="60" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="211"/>
+      <c r="B60" s="212"/>
+      <c r="C60" s="216" t="s">
         <v>180</v>
       </c>
-      <c r="G60" s="228" t="s">
-        <v>181</v>
-      </c>
-      <c r="H60" s="101" t="s">
-        <v>184</v>
-      </c>
-      <c r="I60" s="229" t="s">
-        <v>188</v>
-      </c>
+      <c r="D60" s="217"/>
+      <c r="E60" s="217"/>
+      <c r="F60" s="217"/>
+      <c r="G60" s="217"/>
+      <c r="H60" s="217"/>
+      <c r="I60" s="218"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
     </row>
-    <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="88">
-        <v>450</v>
-      </c>
-      <c r="C61" s="88">
-        <v>180</v>
-      </c>
-      <c r="D61" s="28">
-        <v>5</v>
-      </c>
-      <c r="E61" s="88">
-        <f>IF(ISERROR((B61-C61)/D61),0,(B61-C61)/D61)</f>
-        <v>54</v>
-      </c>
-      <c r="F61" s="88">
-        <f>C61</f>
-        <v>180</v>
-      </c>
-      <c r="G61" s="88">
-        <f>B61-(E61*5)</f>
-        <v>180</v>
-      </c>
-      <c r="H61" s="88">
-        <f>F61*0.25</f>
-        <v>45</v>
-      </c>
-      <c r="I61" s="104">
-        <f>IF((F61-G61)&gt;0,(F61+H61),(F61-H61))</f>
-        <v>135</v>
+    <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="101" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="G61" s="137" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="I61" s="138" t="s">
+        <v>186</v>
       </c>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
     </row>
     <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="111" t="s">
-        <v>19</v>
+      <c r="A62" s="110" t="s">
+        <v>18</v>
       </c>
       <c r="B62" s="88">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="C62" s="88">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="D62" s="28">
         <v>5</v>
       </c>
       <c r="E62" s="88">
-        <f>IF(ISERROR((B62-C62)/D62),0,(B62-C62)/D62)</f>
-        <v>17</v>
+        <f t="shared" ref="E62:E90" si="0">IF(ISERROR((B62-C62)/D62),0,(B62-C62)/D62)</f>
+        <v>54</v>
       </c>
       <c r="F62" s="88">
-        <f>C62</f>
-        <v>40</v>
+        <f t="shared" ref="F62:F84" si="1">C62</f>
+        <v>180</v>
       </c>
       <c r="G62" s="88">
         <f>B62-(E62*5)</f>
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="H62" s="88">
-        <f t="shared" ref="H62:H89" si="0">F62*0.25</f>
-        <v>10</v>
-      </c>
-      <c r="I62" s="104">
-        <f t="shared" ref="I62:I89" si="1">IF((F62-G62)&gt;0,(F62+H62),(F62-H62))</f>
-        <v>30</v>
+        <f>F62*0.25</f>
+        <v>45</v>
+      </c>
+      <c r="I62" s="103">
+        <f>IF((F62-G62)&gt;0,(F62+H62),(F62-H62))</f>
+        <v>135</v>
       </c>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
     </row>
     <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="111" t="s">
-        <v>20</v>
+      <c r="A63" s="110" t="s">
+        <v>19</v>
       </c>
       <c r="B63" s="88">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C63" s="88">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D63" s="28">
         <v>5</v>
       </c>
       <c r="E63" s="88">
-        <f>IF(ISERROR((B63-C63)/D63),0,(B63-C63)/D63)</f>
-        <v>10.199999999999999</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="F63" s="88">
-        <f>C63</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="G63" s="88">
-        <f t="shared" ref="G62:G83" si="2">B63-(E63*5)</f>
-        <v>15</v>
+        <f>B63-(E63*5)</f>
+        <v>40</v>
       </c>
       <c r="H63" s="88">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="I63" s="104">
-        <f t="shared" si="1"/>
-        <v>11.25</v>
+        <f t="shared" ref="H63:H90" si="2">F63*0.25</f>
+        <v>10</v>
+      </c>
+      <c r="I63" s="103">
+        <f t="shared" ref="I63:I90" si="3">IF((F63-G63)&gt;0,(F63+H63),(F63-H63))</f>
+        <v>30</v>
       </c>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
     </row>
     <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="111" t="s">
-        <v>21</v>
+      <c r="A64" s="110" t="s">
+        <v>20</v>
       </c>
       <c r="B64" s="88">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="C64" s="88">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="D64" s="28">
         <v>5</v>
       </c>
       <c r="E64" s="88">
-        <f>IF(ISERROR((B64-C64)/D64),0,(B64-C64)/D64)</f>
-        <v>33.799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
       </c>
       <c r="F64" s="88">
-        <f>C64</f>
-        <v>110</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="G64" s="88">
+        <f t="shared" ref="G64:G83" si="4">B64-(E64*5)</f>
+        <v>15</v>
+      </c>
+      <c r="H64" s="88">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="H64" s="88">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-      <c r="I64" s="104">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
+        <v>3.75</v>
+      </c>
+      <c r="I64" s="103">
+        <f t="shared" si="3"/>
+        <v>11.25</v>
       </c>
       <c r="K64" s="17"/>
       <c r="L64" s="17"/>
     </row>
     <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="111" t="s">
-        <v>136</v>
+      <c r="A65" s="110" t="s">
+        <v>21</v>
       </c>
       <c r="B65" s="88">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="C65" s="88">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D65" s="28">
         <v>5</v>
       </c>
       <c r="E65" s="88">
-        <f>IF(ISERROR((B65-C65)/D65),0,(B65-C65)/D65)</f>
-        <v>32.799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>33.799999999999997</v>
       </c>
       <c r="F65" s="88">
-        <f>C65</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="G65" s="88">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="H65" s="88">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H65" s="88">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="I65" s="104">
-        <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>27.5</v>
+      </c>
+      <c r="I65" s="103">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
       </c>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
     </row>
     <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="111" t="s">
-        <v>137</v>
+      <c r="A66" s="110" t="s">
+        <v>136</v>
       </c>
       <c r="B66" s="88">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c r="C66" s="88">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D66" s="28">
         <v>5</v>
       </c>
       <c r="E66" s="88">
-        <f>IF(ISERROR((B66-C66)/D66),0,(B66-C66)/D66)</f>
+        <f t="shared" si="0"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F66" s="88">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G66" s="88">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H66" s="88">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="I66" s="103">
+        <f t="shared" si="3"/>
+        <v>11.25</v>
+      </c>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="88">
+        <v>258</v>
+      </c>
+      <c r="C67" s="88">
+        <v>52</v>
+      </c>
+      <c r="D67" s="28">
+        <v>5</v>
+      </c>
+      <c r="E67" s="88">
+        <f t="shared" si="0"/>
         <v>41.2</v>
       </c>
-      <c r="F66" s="88">
-        <f>C66</f>
+      <c r="F67" s="88">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="G66" s="88">
+      <c r="G67" s="88">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="H67" s="88">
         <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="H66" s="88">
+        <v>13</v>
+      </c>
+      <c r="I67" s="103">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="88">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C68" s="88">
+        <v>0.02</v>
+      </c>
+      <c r="D68" s="28">
+        <v>5</v>
+      </c>
+      <c r="E68" s="88">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="F68" s="88">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="G68" s="88">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H68" s="88">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I68" s="103">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+    </row>
+    <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="88">
+        <v>135</v>
+      </c>
+      <c r="C69" s="88">
+        <v>53</v>
+      </c>
+      <c r="D69" s="28">
+        <v>5</v>
+      </c>
+      <c r="E69" s="88">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F69" s="88">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="G69" s="88">
+        <f>B69-(E69*5)</f>
+        <v>53</v>
+      </c>
+      <c r="H69" s="88">
+        <f t="shared" si="2"/>
+        <v>13.25</v>
+      </c>
+      <c r="I69" s="103">
+        <f t="shared" si="3"/>
+        <v>39.75</v>
+      </c>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+    </row>
+    <row r="70" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="88">
+        <v>6100</v>
+      </c>
+      <c r="C70" s="88">
+        <v>1200</v>
+      </c>
+      <c r="D70" s="28">
+        <v>5</v>
+      </c>
+      <c r="E70" s="88">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="F70" s="88">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="G70" s="88">
+        <f>B70-(E70*5)</f>
+        <v>1200</v>
+      </c>
+      <c r="H70" s="88">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="I70" s="103">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="88">
+        <v>290</v>
+      </c>
+      <c r="C71" s="88">
+        <v>96</v>
+      </c>
+      <c r="D71" s="28">
+        <v>5</v>
+      </c>
+      <c r="E71" s="88">
+        <f t="shared" si="0"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F71" s="88">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="G71" s="88">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="H71" s="88">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I71" s="103">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="88">
+        <v>99</v>
+      </c>
+      <c r="C72" s="88">
+        <v>24</v>
+      </c>
+      <c r="D72" s="28">
+        <v>5</v>
+      </c>
+      <c r="E72" s="88">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F72" s="88">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G72" s="88">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H72" s="88">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I72" s="103">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="88">
+        <v>125</v>
+      </c>
+      <c r="C73" s="88">
+        <v>30</v>
+      </c>
+      <c r="D73" s="28">
+        <v>5</v>
+      </c>
+      <c r="E73" s="88">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F73" s="88">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G73" s="88">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H73" s="88">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="I73" s="103">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+    </row>
+    <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="135" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="88">
+        <v>95</v>
+      </c>
+      <c r="C74" s="88">
+        <v>30</v>
+      </c>
+      <c r="D74" s="28">
+        <v>5</v>
+      </c>
+      <c r="E74" s="88">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I66" s="104">
+      <c r="F74" s="88">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-    </row>
-    <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="111" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" s="88">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C67" s="88">
-        <v>0.02</v>
-      </c>
-      <c r="D67" s="28">
+        <v>30</v>
+      </c>
+      <c r="G74" s="88">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H74" s="88">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="I74" s="103">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="135" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="88">
+        <v>27</v>
+      </c>
+      <c r="C75" s="88">
         <v>5</v>
       </c>
-      <c r="E67" s="88">
-        <f>IF(ISERROR((B67-C67)/D67),0,(B67-C67)/D67)</f>
-        <v>5.2000000000000005E-2</v>
-      </c>
-      <c r="F67" s="88">
-        <f>C67</f>
-        <v>0.02</v>
-      </c>
-      <c r="G67" s="88">
+      <c r="D75" s="28">
+        <v>5</v>
+      </c>
+      <c r="E75" s="88">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F75" s="88">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G75" s="88">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H75" s="88">
         <f t="shared" si="2"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="H67" s="88">
+        <v>1.25</v>
+      </c>
+      <c r="I75" s="103">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="88">
+        <v>148</v>
+      </c>
+      <c r="C76" s="88">
+        <v>58</v>
+      </c>
+      <c r="D76" s="28">
+        <v>5</v>
+      </c>
+      <c r="E76" s="88">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I67" s="104">
+        <v>18</v>
+      </c>
+      <c r="F76" s="88">
         <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="111" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="88">
-        <v>135</v>
-      </c>
-      <c r="C68" s="88">
-        <v>53</v>
-      </c>
-      <c r="D68" s="28">
+        <v>58</v>
+      </c>
+      <c r="G76" s="88">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="H76" s="88">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="I76" s="103">
+        <f t="shared" si="3"/>
+        <v>43.5</v>
+      </c>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="88">
+        <v>36</v>
+      </c>
+      <c r="C77" s="88">
+        <v>12</v>
+      </c>
+      <c r="D77" s="28">
         <v>5</v>
       </c>
-      <c r="E68" s="88">
-        <f>IF(ISERROR((B68-C68)/D68),0,(B68-C68)/D68)</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F68" s="88">
-        <f>C68</f>
-        <v>53</v>
-      </c>
-      <c r="G68" s="88">
-        <f>B68-(E68*5)</f>
-        <v>53</v>
-      </c>
-      <c r="H68" s="88">
+      <c r="E77" s="88">
         <f t="shared" si="0"/>
-        <v>13.25</v>
-      </c>
-      <c r="I68" s="104">
+        <v>4.8</v>
+      </c>
+      <c r="F77" s="88">
         <f t="shared" si="1"/>
-        <v>39.75</v>
-      </c>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-    </row>
-    <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="88">
-        <v>6100</v>
-      </c>
-      <c r="C69" s="88">
-        <v>1200</v>
-      </c>
-      <c r="D69" s="28">
+        <v>12</v>
+      </c>
+      <c r="G77" s="88">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H77" s="88">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I77" s="103">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="88">
+        <v>79</v>
+      </c>
+      <c r="C78" s="88">
+        <v>20</v>
+      </c>
+      <c r="D78" s="28">
         <v>5</v>
       </c>
-      <c r="E69" s="88">
-        <f>IF(ISERROR((B69-C69)/D69),0,(B69-C69)/D69)</f>
-        <v>980</v>
-      </c>
-      <c r="F69" s="88">
-        <f>C69</f>
-        <v>1200</v>
-      </c>
-      <c r="G69" s="88">
-        <f>B69-(E69*5)</f>
-        <v>1200</v>
-      </c>
-      <c r="H69" s="88">
+      <c r="E78" s="88">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="I69" s="104">
+        <v>11.8</v>
+      </c>
+      <c r="F78" s="88">
         <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-    </row>
-    <row r="70" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="88">
-        <v>290</v>
-      </c>
-      <c r="C70" s="88">
-        <v>96</v>
-      </c>
-      <c r="D70" s="28">
-        <v>5</v>
-      </c>
-      <c r="E70" s="88">
-        <f>IF(ISERROR((B70-C70)/D70),0,(B70-C70)/D70)</f>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="F70" s="88">
-        <f>C70</f>
-        <v>96</v>
-      </c>
-      <c r="G70" s="88">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="H70" s="88">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="I70" s="104">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-    </row>
-    <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="111" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="88">
-        <v>99</v>
-      </c>
-      <c r="C71" s="88">
-        <v>24</v>
-      </c>
-      <c r="D71" s="28">
-        <v>5</v>
-      </c>
-      <c r="E71" s="88">
-        <f>IF(ISERROR((B71-C71)/D71),0,(B71-C71)/D71)</f>
-        <v>15</v>
-      </c>
-      <c r="F71" s="88">
-        <f>C71</f>
-        <v>24</v>
-      </c>
-      <c r="G71" s="88">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="H71" s="88">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I71" s="104">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="88">
-        <v>125</v>
-      </c>
-      <c r="C72" s="88">
-        <v>30</v>
-      </c>
-      <c r="D72" s="28">
-        <v>5</v>
-      </c>
-      <c r="E72" s="88">
-        <f>IF(ISERROR((B72-C72)/D72),0,(B72-C72)/D72)</f>
-        <v>19</v>
-      </c>
-      <c r="F72" s="88">
-        <f>C72</f>
-        <v>30</v>
-      </c>
-      <c r="G72" s="88">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="H72" s="88">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="I72" s="104">
-        <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="223" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="88">
-        <v>95</v>
-      </c>
-      <c r="C73" s="88">
-        <v>30</v>
-      </c>
-      <c r="D73" s="28">
-        <v>5</v>
-      </c>
-      <c r="E73" s="88">
-        <f>IF(ISERROR((B73-C73)/D73),0,(B73-C73)/D73)</f>
-        <v>13</v>
-      </c>
-      <c r="F73" s="88">
-        <f>C73</f>
-        <v>30</v>
-      </c>
-      <c r="G73" s="88">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="H73" s="88">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="I73" s="104">
-        <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="223" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="88">
-        <v>27</v>
-      </c>
-      <c r="C74" s="88">
-        <v>5</v>
-      </c>
-      <c r="D74" s="28">
-        <v>5</v>
-      </c>
-      <c r="E74" s="88">
-        <f>IF(ISERROR((B74-C74)/D74),0,(B74-C74)/D74)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F74" s="88">
-        <f>C74</f>
-        <v>5</v>
-      </c>
-      <c r="G74" s="88">
+      <c r="G78" s="88">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H78" s="88">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H74" s="88">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="I74" s="104">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="111" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="88">
-        <v>148</v>
-      </c>
-      <c r="C75" s="88">
-        <v>58</v>
-      </c>
-      <c r="D75" s="28">
-        <v>5</v>
-      </c>
-      <c r="E75" s="88">
-        <f>IF(ISERROR((B75-C75)/D75),0,(B75-C75)/D75)</f>
-        <v>18</v>
-      </c>
-      <c r="F75" s="88">
-        <f>C75</f>
-        <v>58</v>
-      </c>
-      <c r="G75" s="88">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="H75" s="88">
-        <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-      <c r="I75" s="104">
-        <f t="shared" si="1"/>
-        <v>43.5</v>
-      </c>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-    </row>
-    <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="88">
-        <v>36</v>
-      </c>
-      <c r="C76" s="88">
-        <v>12</v>
-      </c>
-      <c r="D76" s="28">
-        <v>5</v>
-      </c>
-      <c r="E76" s="88">
-        <f>IF(ISERROR((B76-C76)/D76),0,(B76-C76)/D76)</f>
-        <v>4.8</v>
-      </c>
-      <c r="F76" s="88">
-        <f>C76</f>
-        <v>12</v>
-      </c>
-      <c r="G76" s="88">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H76" s="88">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I76" s="104">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-    </row>
-    <row r="77" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="88">
-        <v>79</v>
-      </c>
-      <c r="C77" s="88">
-        <v>20</v>
-      </c>
-      <c r="D77" s="28">
-        <v>5</v>
-      </c>
-      <c r="E77" s="88">
-        <f>IF(ISERROR((B77-C77)/D77),0,(B77-C77)/D77)</f>
-        <v>11.8</v>
-      </c>
-      <c r="F77" s="88">
-        <f>C77</f>
-        <v>20</v>
-      </c>
-      <c r="G77" s="88">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H77" s="88">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I77" s="104">
-        <f t="shared" si="1"/>
+      <c r="I78" s="103">
+        <f t="shared" si="3"/>
         <v>15</v>
-      </c>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-    </row>
-    <row r="78" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" s="88">
-        <v>99</v>
-      </c>
-      <c r="C78" s="88">
-        <v>34</v>
-      </c>
-      <c r="D78" s="28">
-        <v>5</v>
-      </c>
-      <c r="E78" s="88">
-        <f>IF(ISERROR((B78-C78)/D78),0,(B78-C78)/D78)</f>
-        <v>13</v>
-      </c>
-      <c r="F78" s="88">
-        <f>C78</f>
-        <v>34</v>
-      </c>
-      <c r="G78" s="88">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="H78" s="88">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="I78" s="104">
-        <f t="shared" si="1"/>
-        <v>25.5</v>
       </c>
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
     </row>
     <row r="79" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="111" t="s">
-        <v>146</v>
+      <c r="A79" s="110" t="s">
+        <v>145</v>
       </c>
       <c r="B79" s="88">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="88">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D79" s="28">
         <v>5</v>
       </c>
       <c r="E79" s="88">
-        <f>IF(ISERROR((B79-C79)/D79),0,(B79-C79)/D79)</f>
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F79" s="88">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G79" s="88">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="H79" s="88">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="I79" s="103">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+    </row>
+    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="88">
+        <v>100</v>
+      </c>
+      <c r="C80" s="88">
+        <v>32</v>
+      </c>
+      <c r="D80" s="28">
+        <v>5</v>
+      </c>
+      <c r="E80" s="88">
+        <f t="shared" si="0"/>
         <v>13.6</v>
       </c>
-      <c r="F79" s="88">
-        <f>C79</f>
+      <c r="F80" s="88">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="G79" s="88">
+      <c r="G80" s="88">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="H80" s="88">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="H79" s="88">
+        <v>8</v>
+      </c>
+      <c r="I80" s="103">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="88">
+        <v>15</v>
+      </c>
+      <c r="C81" s="88">
+        <v>2</v>
+      </c>
+      <c r="D81" s="28">
+        <v>5</v>
+      </c>
+      <c r="E81" s="88">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="F81" s="88">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G81" s="88">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H81" s="88">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I81" s="103">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="88">
+        <v>50</v>
+      </c>
+      <c r="C82" s="88">
+        <v>10</v>
+      </c>
+      <c r="D82" s="28">
+        <v>5</v>
+      </c>
+      <c r="E82" s="88">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I79" s="104">
+      <c r="F82" s="88">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-    </row>
-    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="B80" s="88">
-        <v>15</v>
-      </c>
-      <c r="C80" s="88">
-        <v>2</v>
-      </c>
-      <c r="D80" s="28">
+        <v>10</v>
+      </c>
+      <c r="G82" s="88">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H82" s="88">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I82" s="103">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="88">
+        <v>235</v>
+      </c>
+      <c r="C83" s="88">
+        <v>0</v>
+      </c>
+      <c r="D83" s="28">
         <v>5</v>
       </c>
-      <c r="E80" s="88">
-        <f>IF(ISERROR((B80-C80)/D80),0,(B80-C80)/D80)</f>
-        <v>2.6</v>
-      </c>
-      <c r="F80" s="88">
-        <f>C80</f>
-        <v>2</v>
-      </c>
-      <c r="G80" s="88">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H80" s="88">
+      <c r="E83" s="88">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I80" s="104">
+        <v>47</v>
+      </c>
+      <c r="F83" s="88">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="111" t="s">
-        <v>148</v>
-      </c>
-      <c r="B81" s="88">
-        <v>50</v>
-      </c>
-      <c r="C81" s="88">
-        <v>10</v>
-      </c>
-      <c r="D81" s="28">
-        <v>5</v>
-      </c>
-      <c r="E81" s="88">
-        <f>IF(ISERROR((B81-C81)/D81),0,(B81-C81)/D81)</f>
-        <v>8</v>
-      </c>
-      <c r="F81" s="88">
-        <f>C81</f>
-        <v>10</v>
-      </c>
-      <c r="G81" s="88">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H81" s="88">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I81" s="104">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="88">
-        <v>235</v>
-      </c>
-      <c r="C82" s="88">
         <v>0</v>
       </c>
-      <c r="D82" s="28">
-        <v>5</v>
-      </c>
-      <c r="E82" s="88">
-        <f>IF(ISERROR((B82-C82)/D82),0,(B82-C82)/D82)</f>
-        <v>47</v>
-      </c>
-      <c r="F82" s="88">
-        <f>C82</f>
+      <c r="G83" s="88">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G82" s="88">
+      <c r="H83" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H82" s="88">
+      <c r="I83" s="103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" s="88">
+        <v>349</v>
+      </c>
+      <c r="C84" s="88">
+        <v>0</v>
+      </c>
+      <c r="D84" s="28">
+        <v>5</v>
+      </c>
+      <c r="E84" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="104">
+        <v>69.8</v>
+      </c>
+      <c r="F84" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-    </row>
-    <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="88">
-        <v>349</v>
-      </c>
-      <c r="C83" s="88">
+      <c r="G84" s="88">
+        <f>B84-(E84*5)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="28">
-        <v>5</v>
-      </c>
-      <c r="E83" s="88">
-        <f>IF(ISERROR((B83-C83)/D83),0,(B83-C83)/D83)</f>
-        <v>69.8</v>
-      </c>
-      <c r="F83" s="88">
-        <f>C83</f>
+      <c r="H84" s="88">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83" s="88">
-        <f>B83-(E83*5)</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-    </row>
-    <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="111"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="88">
-        <f>IF(ISERROR((B84-C84)/D84),0,(B84-C84)/D84)</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
-      <c r="H84" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="104">
-        <f t="shared" si="1"/>
+      <c r="I84" s="103">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K84" s="17"/>
       <c r="L84" s="17"/>
     </row>
     <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="111"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="88"/>
       <c r="C85" s="88"/>
       <c r="D85" s="28"/>
       <c r="E85" s="88">
-        <f>IF(ISERROR((B85-C85)/D85),0,(B85-C85)/D85)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F85" s="88"/>
       <c r="G85" s="88"/>
       <c r="H85" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I85" s="104">
-        <f t="shared" si="1"/>
+      <c r="I85" s="103">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
     </row>
     <row r="86" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="111"/>
+      <c r="A86" s="110"/>
       <c r="B86" s="88"/>
       <c r="C86" s="88"/>
       <c r="D86" s="28"/>
       <c r="E86" s="88">
-        <f>IF(ISERROR((B86-C86)/D86),0,(B86-C86)/D86)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F86" s="88"/>
       <c r="G86" s="88"/>
       <c r="H86" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I86" s="104">
-        <f t="shared" si="1"/>
+      <c r="I86" s="103">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
     </row>
     <row r="87" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="111"/>
+      <c r="A87" s="110"/>
       <c r="B87" s="88"/>
       <c r="C87" s="88"/>
       <c r="D87" s="28"/>
       <c r="E87" s="88">
-        <f>IF(ISERROR((B87-C87)/D87),0,(B87-C87)/D87)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F87" s="88"/>
       <c r="G87" s="88"/>
       <c r="H87" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I87" s="104">
-        <f t="shared" si="1"/>
+      <c r="I87" s="103">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
     </row>
     <row r="88" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="111"/>
+      <c r="A88" s="110"/>
       <c r="B88" s="88"/>
       <c r="C88" s="88"/>
       <c r="D88" s="28"/>
       <c r="E88" s="88">
-        <f>IF(ISERROR((B88-C88)/D88),0,(B88-C88)/D88)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F88" s="88"/>
       <c r="G88" s="88"/>
       <c r="H88" s="88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I88" s="104">
-        <f t="shared" si="1"/>
+      <c r="I88" s="103">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
     </row>
-    <row r="89" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="37"/>
-      <c r="B89" s="112"/>
-      <c r="C89" s="112"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="112">
-        <f>IF(ISERROR((B89-C89)/D89),0,(B89-C89)/D89)</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="112"/>
-      <c r="G89" s="112"/>
-      <c r="H89" s="112">
+    <row r="89" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="110"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I89" s="132">
-        <f t="shared" si="1"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="37"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="111"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="111"/>
+      <c r="G90" s="111"/>
+      <c r="H90" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="131">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="C60:I60"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C29:C34"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="C59:D59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7861,17 +7932,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="193" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="195"/>
+      <c r="A1" s="228" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="230"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
@@ -7891,15 +7962,15 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="192"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="206"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -7907,17 +7978,17 @@
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="214"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="236"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -7925,17 +7996,17 @@
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="237" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="211"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="238"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -7943,17 +8014,17 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="211"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="238"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -7961,17 +8032,17 @@
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="238"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -7979,17 +8050,17 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="210" t="s">
+      <c r="B8" s="237" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="211"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="238"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -7997,17 +8068,17 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="237" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="211"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="238"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -8015,17 +8086,17 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="209" t="s">
+      <c r="B10" s="241" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="211"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="238"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -8033,17 +8104,17 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="211"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="238"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -8051,17 +8122,17 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="237" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="211"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="237"/>
+      <c r="G12" s="238"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -8069,17 +8140,17 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="241" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="211"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="238"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -8087,17 +8158,17 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="241" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="211"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="237"/>
+      <c r="G14" s="238"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -8105,17 +8176,17 @@
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="239" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="208"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="239"/>
+      <c r="G15" s="240"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -8180,11 +8251,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B12:G12"/>
@@ -8194,6 +8260,11 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Actividades/Femp03011/Flujo_de_fondos.xlsx
+++ b/Actividades/Femp03011/Flujo_de_fondos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\ProyectoFinal2019-\Actividades\Femp03011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2954B9E6-C5AE-46D5-8D11-CB78C0DDFACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4101FE20-93C0-4E23-BFB7-08DEDB0EBBE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="194">
   <si>
     <t xml:space="preserve">Ventas: </t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Nombre del B/U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo adquisicion </t>
   </si>
   <si>
     <t xml:space="preserve">Vida util </t>
@@ -447,9 +444,6 @@
   </si>
   <si>
     <t>Switch</t>
-  </si>
-  <si>
-    <t>Cableado</t>
   </si>
   <si>
     <t>Ficha</t>
@@ -732,9 +726,6 @@
     <t>VNC = Costo Adquisicion - (Amorizacion * 5 años)</t>
   </si>
   <si>
-    <t xml:space="preserve">Amortisacion por año </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Valor residual  </t>
     </r>
@@ -748,6 +739,30 @@
       </rPr>
       <t>(Obj4)</t>
     </r>
+  </si>
+  <si>
+    <t>Costo salarial total por mes durante año 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deflactor </t>
+  </si>
+  <si>
+    <t>I.I (+)</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Cableado (Bobina)</t>
+  </si>
+  <si>
+    <t>Costo adquisicion total</t>
+  </si>
+  <si>
+    <t>Costo adquisicion Individual</t>
+  </si>
+  <si>
+    <t>Amortisacion por año Individual</t>
   </si>
   <si>
     <r>
@@ -783,17 +798,48 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>de cada B/U</t>
+      <t>de cada B/U Idividual</t>
     </r>
   </si>
   <si>
-    <t>Costo salarial total por mes durante año 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deflactor </t>
-  </si>
-  <si>
-    <t>I.I (+)</t>
+    <t>Amortisacion por año Total</t>
+  </si>
+  <si>
+    <r>
+      <t>VR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>de cada B/U Total</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1063,7 +1109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="110">
+  <borders count="114">
     <border>
       <left/>
       <right/>
@@ -2460,11 +2506,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
@@ -2647,13 +2739,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2662,306 +2747,6 @@
     <xf numFmtId="167" fontId="8" fillId="5" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2973,12 +2758,328 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3135,7 +3236,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>812601</xdr:colOff>
+      <xdr:colOff>264914</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1795462</xdr:rowOff>
     </xdr:to>
@@ -3533,8 +3634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3552,50 +3653,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="177"/>
+      <c r="A1" s="182" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="184"/>
       <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="178"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="A2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="187"/>
       <c r="J2" s="119"/>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="151" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="157" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
+      <c r="A3" s="158" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="159"/>
+      <c r="C3" s="164" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="119"/>
     </row>
     <row r="4" spans="1:10" ht="47.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="153"/>
-      <c r="B4" s="154"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="7"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
@@ -3605,12 +3706,12 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="155"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="161" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="118" t="s">
         <v>2</v>
       </c>
@@ -3624,19 +3725,19 @@
         <v>5</v>
       </c>
       <c r="I5" s="120" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="187" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="163" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="164"/>
+      <c r="A6" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="197"/>
+      <c r="C6" s="170" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="171"/>
       <c r="E6" s="117">
         <f>'Tablas Calculadas '!I8 *0.8</f>
         <v>10698041.867946668</v>
@@ -3658,18 +3759,18 @@
         <v>3341452.4313600003</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A7" s="189" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="190"/>
-      <c r="C7" s="165" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="166"/>
+      <c r="A7" s="198" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="199"/>
+      <c r="C7" s="172" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="173"/>
       <c r="E7" s="9">
         <f>'Tablas Calculadas '!C61*-1</f>
         <v>-11809488</v>
@@ -3692,14 +3793,14 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="189" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="165" t="s">
+      <c r="A8" s="198" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="166"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="172" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="173"/>
       <c r="E8" s="9">
         <f>'Tablas Calculadas '!B61*-1</f>
         <v>-584877.11999999988</v>
@@ -3723,75 +3824,75 @@
       <c r="J8" s="119"/>
     </row>
     <row r="9" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="193" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="167" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="168"/>
+      <c r="A9" s="202" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="203"/>
+      <c r="C9" s="174" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="175"/>
       <c r="E9" s="10">
-        <f>SUM(Constantes!E62:E90)*Constantes!B30*-1</f>
-        <v>-67355.59199999999</v>
+        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29</f>
+        <v>82498.079999999987</v>
       </c>
       <c r="F9" s="10">
-        <f>SUM(Constantes!E62:E90)*Constantes!B30*-1</f>
-        <v>-67355.59199999999</v>
+        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29</f>
+        <v>82498.079999999987</v>
       </c>
       <c r="G9" s="10">
-        <f>SUM(Constantes!E62:E90)*Constantes!B30*-1</f>
-        <v>-67355.59199999999</v>
+        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29</f>
+        <v>82498.079999999987</v>
       </c>
       <c r="H9" s="10">
-        <f>SUM(Constantes!E62:E90)*Constantes!B30*-1</f>
-        <v>-67355.59199999999</v>
+        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29</f>
+        <v>82498.079999999987</v>
       </c>
       <c r="I9" s="124">
-        <f>SUM(Constantes!E62:E90)*Constantes!B30*-1</f>
-        <v>-67355.59199999999</v>
+        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29</f>
+        <v>82498.079999999987</v>
       </c>
       <c r="J9" s="119"/>
     </row>
     <row r="10" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A10" s="191" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="169" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="170"/>
+      <c r="A10" s="200" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="201"/>
+      <c r="C10" s="176" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="177"/>
       <c r="E10" s="14">
         <f>SUM(E6:E9)</f>
-        <v>-1763678.8440533322</v>
+        <v>-1613825.1720533322</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" ref="F10:I10" si="0">SUM(F6:F9)</f>
-        <v>-4624337.1496533332</v>
+        <v>-4474483.477653333</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>-3931547.5988266673</v>
+        <v>-3781693.926826667</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>-5645984.1863466669</v>
+        <v>-5496130.5143466666</v>
       </c>
       <c r="I10" s="125">
         <f t="shared" si="0"/>
-        <v>-6660445.8806399992</v>
+        <v>-6510592.2086399989</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="193" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="194"/>
-      <c r="C11" s="171" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="172"/>
+      <c r="A11" s="202" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="203"/>
+      <c r="C11" s="178" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="179"/>
       <c r="E11" s="15">
         <f>IF(E10&gt;0,E10/4,0)</f>
         <v>0</v>
@@ -3815,152 +3916,149 @@
       <c r="J11" s="119"/>
     </row>
     <row r="12" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="191" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="181" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="182"/>
+      <c r="A12" s="200" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="201"/>
+      <c r="C12" s="188" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="189"/>
       <c r="E12" s="11">
         <f>E10-E11</f>
-        <v>-1763678.8440533322</v>
+        <v>-1613825.1720533322</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" ref="F12:H12" si="2">F10-F11</f>
-        <v>-4624337.1496533332</v>
+        <v>-4474483.477653333</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>-3931547.5988266673</v>
+        <v>-3781693.926826667</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="2"/>
-        <v>-5645984.1863466669</v>
+        <v>-5496130.5143466666</v>
       </c>
       <c r="I12" s="127">
         <f>I10-I11</f>
-        <v>-6660445.8806399992</v>
+        <v>-6510592.2086399989</v>
       </c>
       <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A13" s="189" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="190"/>
-      <c r="C13" s="183" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="184"/>
+      <c r="A13" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="199"/>
+      <c r="C13" s="190" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="191"/>
       <c r="E13" s="12">
-        <f>SUM(Constantes!E62:E90)*Constantes!B30</f>
+        <f>SUM(Constantes!F62:F90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
       <c r="F13" s="12">
-        <f>SUM(Constantes!E62:E90)*Constantes!B30</f>
+        <f>SUM(Constantes!F62:F90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
       <c r="G13" s="12">
-        <f>SUM(Constantes!E62:E90)*Constantes!B30</f>
+        <f>SUM(Constantes!F62:F90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
       <c r="H13" s="12">
-        <f>SUM(Constantes!E62:E90)*Constantes!B30</f>
+        <f>SUM(Constantes!F62:F90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
       <c r="I13" s="128">
         <f t="shared" ref="I13" si="3">I9*-1</f>
-        <v>67355.59199999999</v>
+        <v>-82498.079999999987</v>
       </c>
       <c r="J13" s="119"/>
     </row>
     <row r="14" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="158" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="159"/>
-      <c r="C14" s="250">
-        <f>SUM(Constantes!B62:'Constantes'!B90)*Constantes!B29</f>
-        <v>373571.19999999995</v>
-      </c>
-      <c r="D14" s="251"/>
+      <c r="A14" s="165" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="166"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="193"/>
       <c r="E14" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I14" s="129" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="194" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="195"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
+      <c r="A15" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="204"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="134"/>
       <c r="H15" s="134"/>
-      <c r="I15" s="143">
-        <f>SUM(Constantes!I62:I90)*Constantes!B34</f>
-        <v>115027.13999999998</v>
+      <c r="I15" s="140">
+        <f>SUM(Constantes!M62:M90)*Constantes!B34</f>
+        <v>162280.13999999998</v>
       </c>
       <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="160"/>
-      <c r="C16" s="185">
-        <f>C14</f>
-        <v>373571.19999999995</v>
-      </c>
-      <c r="D16" s="186"/>
-      <c r="E16" s="139">
+      <c r="A16" s="167" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="167"/>
+      <c r="C16" s="194">
+        <f>SUM(Constantes!K62:K90)*Constantes!B29</f>
+        <v>82498.079999999987</v>
+      </c>
+      <c r="D16" s="195"/>
+      <c r="E16" s="136">
         <f>E12+E13</f>
-        <v>-1696323.2520533323</v>
-      </c>
-      <c r="F16" s="139">
+        <v>-1546469.5800533323</v>
+      </c>
+      <c r="F16" s="136">
         <f>F12+F13</f>
-        <v>-4556981.5576533331</v>
-      </c>
-      <c r="G16" s="141">
+        <v>-4407127.8856533328</v>
+      </c>
+      <c r="G16" s="138">
         <f>G12+G13</f>
-        <v>-3864192.0068266671</v>
-      </c>
-      <c r="H16" s="141">
+        <v>-3714338.3348266669</v>
+      </c>
+      <c r="H16" s="138">
         <f>H12+H13</f>
-        <v>-5578628.5943466667</v>
-      </c>
-      <c r="I16" s="142">
+        <v>-5428774.9223466665</v>
+      </c>
+      <c r="I16" s="139">
         <f>I12+I13+I15</f>
-        <v>-6478063.1486399993</v>
+        <v>-6430810.1486399993</v>
       </c>
       <c r="J16" s="119"/>
     </row>
     <row r="17" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="148">
+      <c r="A17" s="151" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="152"/>
+      <c r="C17" s="155">
         <v>1</v>
       </c>
-      <c r="D17" s="149"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="114">
         <v>1.08</v>
       </c>
@@ -3979,34 +4077,34 @@
       <c r="J17" s="119"/>
     </row>
     <row r="18" spans="1:10" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="146" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="147"/>
-      <c r="C18" s="150">
+      <c r="A18" s="153" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="154"/>
+      <c r="C18" s="157">
         <f>C16/C17</f>
-        <v>373571.19999999995</v>
-      </c>
-      <c r="D18" s="147"/>
+        <v>82498.079999999987</v>
+      </c>
+      <c r="D18" s="154"/>
       <c r="E18" s="116">
         <f>E16/E17</f>
-        <v>-1570669.6778271594</v>
+        <v>-1431916.2778271595</v>
       </c>
       <c r="F18" s="116">
         <f t="shared" ref="F18:I18" si="4">F16/F17</f>
-        <v>-3906877.1927754912</v>
+        <v>-3778401.8224051204</v>
       </c>
       <c r="G18" s="116">
         <f t="shared" si="4"/>
-        <v>-3067549.4219470248</v>
+        <v>-2948589.6124685775</v>
       </c>
       <c r="H18" s="115">
         <f t="shared" si="4"/>
-        <v>-4100425.2806664216</v>
+        <v>-3990279.2520004897</v>
       </c>
       <c r="I18" s="113">
         <f t="shared" si="4"/>
-        <v>-4408945.1770502953</v>
+        <v>-4376784.9647042807</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4110,7 +4208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4130,18 +4228,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="196" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
+      <c r="A1" s="205" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
@@ -4199,28 +4297,28 @@
         <v>6</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>85</v>
-      </c>
       <c r="F6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="203" t="s">
-        <v>93</v>
+        <v>43</v>
+      </c>
+      <c r="J6" s="212" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4238,7 +4336,7 @@
         <f>B7*'Tablas Calculadas '!E20+C7*'Tablas Calculadas '!E21+F7*'Tablas Calculadas '!E39+G7*'Tablas Calculadas '!E40+'Tablas Calculadas '!E41*H7+D7*'Tablas Calculadas '!E27+E7*'Tablas Calculadas '!E33</f>
         <v>0</v>
       </c>
-      <c r="J7" s="204"/>
+      <c r="J7" s="213"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
@@ -4263,7 +4361,7 @@
         <f>B8*'Tablas Calculadas '!E20+C8*'Tablas Calculadas '!E22+F8*'Tablas Calculadas '!E42+G8*'Tablas Calculadas '!E43+'Tablas Calculadas '!E44*H8+D8*'Tablas Calculadas '!E28+E8*'Tablas Calculadas '!E34</f>
         <v>13372552.334933333</v>
       </c>
-      <c r="J8" s="204"/>
+      <c r="J8" s="213"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
@@ -4286,7 +4384,7 @@
         <f>B9*'Tablas Calculadas '!E20+C9*'Tablas Calculadas '!E23+F9*'Tablas Calculadas '!E45+G9*'Tablas Calculadas '!E46+H9*'Tablas Calculadas '!E47+D9*'Tablas Calculadas '!E29+E9*'Tablas Calculadas '!E35</f>
         <v>3057963.2529333332</v>
       </c>
-      <c r="J9" s="204"/>
+      <c r="J9" s="213"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
@@ -4309,7 +4407,7 @@
         <f>B10*'Tablas Calculadas '!E20+C10*'Tablas Calculadas '!E24+F10*'Tablas Calculadas '!E48+'Tablas Calculadas '!E49*G10+H10*'Tablas Calculadas '!E50+D10*'Tablas Calculadas '!E30+E10*'Tablas Calculadas '!E36</f>
         <v>4532030.391466666</v>
       </c>
-      <c r="J10" s="204"/>
+      <c r="J10" s="213"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -4332,11 +4430,11 @@
         <f>B11*'Tablas Calculadas '!E20+C11*'Tablas Calculadas '!E25+F11*'Tablas Calculadas '!E51+'Tablas Calculadas '!E52*G11+H11*'Tablas Calculadas '!E53+D11*'Tablas Calculadas '!E31+E11*'Tablas Calculadas '!E37</f>
         <v>5526691.8570666667</v>
       </c>
-      <c r="J11" s="204"/>
+      <c r="J11" s="213"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="38">
@@ -4351,11 +4449,11 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="249">
+      <c r="I12" s="148">
         <f>B12*'Tablas Calculadas '!E20+C12*'Tablas Calculadas '!E26+F12*'Tablas Calculadas '!E54+'Tablas Calculadas '!E55*G12+H12*'Tablas Calculadas '!E56+D12*'Tablas Calculadas '!E32+E12*'Tablas Calculadas '!E38</f>
         <v>4176815.5392</v>
       </c>
-      <c r="J12" s="204"/>
+      <c r="J12" s="213"/>
     </row>
     <row r="13" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
@@ -4393,7 +4491,7 @@
         <f>SUM(I7:I12)</f>
         <v>30666053.375600003</v>
       </c>
-      <c r="J13" s="204"/>
+      <c r="J13" s="213"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
@@ -4444,15 +4542,15 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="198" t="s">
+      <c r="A18" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="199"/>
-      <c r="C18" s="200" t="s">
+      <c r="B18" s="208"/>
+      <c r="C18" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="201"/>
-      <c r="E18" s="202"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="211"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -4461,16 +4559,16 @@
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="45" t="s">
         <v>11</v>
@@ -4483,7 +4581,7 @@
     </row>
     <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="47">
         <f>(Constantes!C22*(1+((Constantes!D22/100)*0))+ Constantes!C23*(1+((Constantes!D23/100)*0)) + Constantes!C24*(1+((Constantes!D24/100)*0)))*Constantes!B29*7</f>
@@ -4508,7 +4606,7 @@
     </row>
     <row r="21" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="51">
         <f>('Tablas Calculadas '!B60/(12*30))*(Constantes!$C$13+2)</f>
@@ -4533,7 +4631,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="51">
         <f>('Tablas Calculadas '!B61/(12*30))*(Constantes!$C$13+2)</f>
@@ -4558,7 +4656,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="51">
         <f>('Tablas Calculadas '!B62/(12*30))*(Constantes!$C$13+2)</f>
@@ -4583,7 +4681,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="51">
         <f>('Tablas Calculadas '!B63/(12*30))*(Constantes!$C$13+2)</f>
@@ -4608,9 +4706,9 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="246">
+        <v>99</v>
+      </c>
+      <c r="B25" s="145">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$13+2)</f>
         <v>22603.946666666667</v>
       </c>
@@ -4633,13 +4731,13 @@
     </row>
     <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="242">
+        <v>159</v>
+      </c>
+      <c r="B26" s="141">
         <f>('Tablas Calculadas '!B65/(12*30))*(Constantes!$C$13+2)</f>
         <v>26842.186666666668</v>
       </c>
-      <c r="C26" s="243">
+      <c r="C26" s="142">
         <f>(Constantes!$B$13*Constantes!$B$39*Constantes!B34*Constantes!$C$13)+(Constantes!$B$13*(Constantes!$B$38*(1+Constantes!$E$6))*Constantes!B34*Constantes!$D$13)</f>
         <v>116736</v>
       </c>
@@ -4658,7 +4756,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="51">
         <f>('Tablas Calculadas '!B60/(12*30))*(Constantes!$C$14+2)</f>
@@ -4683,7 +4781,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="51">
         <f>('Tablas Calculadas '!B61/(12*30))*(Constantes!$C$14+2)</f>
@@ -4708,7 +4806,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="51">
         <f>('Tablas Calculadas '!B62/(12*30))*(Constantes!$C$14+2)</f>
@@ -4733,7 +4831,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="51">
         <f>('Tablas Calculadas '!B63/(12*30))*(Constantes!$C$14+2)</f>
@@ -4758,9 +4856,9 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="246">
+        <v>104</v>
+      </c>
+      <c r="B31" s="145">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$14+2)</f>
         <v>49728.682666666668</v>
       </c>
@@ -4783,20 +4881,20 @@
     </row>
     <row r="32" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="242">
+        <v>158</v>
+      </c>
+      <c r="B32" s="141">
         <f>('Tablas Calculadas '!B65/(12*30))*(Constantes!$C$14+2)</f>
         <v>59052.810666666664</v>
       </c>
-      <c r="C32" s="243">
+      <c r="C32" s="142">
         <f>(Constantes!$B$14*Constantes!$B$39*Constantes!B34*Constantes!$C$14)+(Constantes!$B$14*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B34*Constantes!$D$14)</f>
         <v>583680</v>
       </c>
-      <c r="D32" s="244">
+      <c r="D32" s="143">
         <v>20</v>
       </c>
-      <c r="E32" s="245">
+      <c r="E32" s="144">
         <f t="shared" si="0"/>
         <v>771279.37280000001</v>
       </c>
@@ -4808,7 +4906,7 @@
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="51">
         <f>('Tablas Calculadas '!B60/(12*30))*(Constantes!$C$15+2)</f>
@@ -4833,7 +4931,7 @@
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="51">
         <f>('Tablas Calculadas '!B61/(12*30))*(Constantes!$C$15+2)</f>
@@ -4858,7 +4956,7 @@
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="51">
         <f>('Tablas Calculadas '!B62/(12*30))*(Constantes!$C$15+2)</f>
@@ -4883,7 +4981,7 @@
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="51">
         <f>('Tablas Calculadas '!B63/(12*30))*(Constantes!$C$15+2)</f>
@@ -4908,7 +5006,7 @@
     </row>
     <row r="37" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="63">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$15+2)</f>
@@ -4933,7 +5031,7 @@
     </row>
     <row r="38" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B38" s="63">
         <f>('Tablas Calculadas '!B65/(12*30))*(Constantes!$C$15+2)</f>
@@ -4958,7 +5056,7 @@
     </row>
     <row r="39" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="51">
         <f>'Tablas Calculadas '!B60/12*2</f>
@@ -4983,7 +5081,7 @@
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="69">
         <f>'Tablas Calculadas '!B60/12*2</f>
@@ -5008,7 +5106,7 @@
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="56">
         <f>'Tablas Calculadas '!B60/12*2</f>
@@ -5033,7 +5131,7 @@
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="51">
         <f>'Tablas Calculadas '!B61/12*2</f>
@@ -5058,7 +5156,7 @@
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="69">
         <f>'Tablas Calculadas '!B61/12*2</f>
@@ -5083,7 +5181,7 @@
     </row>
     <row r="44" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="56">
         <f>'Tablas Calculadas '!B61/12*2</f>
@@ -5108,7 +5206,7 @@
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="51">
         <f>'Tablas Calculadas '!$B$62/12*2</f>
@@ -5133,7 +5231,7 @@
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="69">
         <f>'Tablas Calculadas '!$B$62/12*2</f>
@@ -5158,7 +5256,7 @@
     </row>
     <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="56">
         <f>'Tablas Calculadas '!$B$62/12*2</f>
@@ -5183,7 +5281,7 @@
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="51">
         <f>'Tablas Calculadas '!$B$63/12*2</f>
@@ -5208,7 +5306,7 @@
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" s="69">
         <f>'Tablas Calculadas '!$B$63/12*2</f>
@@ -5233,7 +5331,7 @@
     </row>
     <row r="50" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="56">
         <f>'Tablas Calculadas '!$B$63/12*2</f>
@@ -5258,7 +5356,7 @@
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="51">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
@@ -5283,7 +5381,7 @@
     </row>
     <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="69">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
@@ -5308,7 +5406,7 @@
     </row>
     <row r="53" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="56">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
@@ -5333,7 +5431,7 @@
     </row>
     <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B54" s="51">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
@@ -5358,7 +5456,7 @@
     </row>
     <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B55" s="69">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
@@ -5383,7 +5481,7 @@
     </row>
     <row r="56" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B56" s="56">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
@@ -5438,10 +5536,10 @@
         <v>13</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -5567,7 +5665,7 @@
     </row>
     <row r="65" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B65" s="69">
         <f>(((Constantes!$C$22*(1+((Constantes!$D$22/100)*1)))+ (Constantes!$C$23*(1+((Constantes!$D$23/100)*1))) + (Constantes!$C$24*(1+((Constantes!$D$24/100)*1))))*Constantes!B34*12)*((1+Constantes!$C$17)^4)</f>
@@ -5660,12 +5758,12 @@
       <c r="J70" s="17"/>
     </row>
     <row r="71" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="205" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="206"/>
+      <c r="A71" s="214" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="215"/>
       <c r="C71" s="78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -5694,7 +5792,7 @@
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" s="82">
         <f>('Tablas Calculadas '!C8*Constantes!$D$13*Constantes!$B$13+'Tablas Calculadas '!$D$8*Constantes!D15*Constantes!$B$14+'Tablas Calculadas '!E8*Constantes!$D$15*Constantes!$B$15)*(Constantes!$B$38*(1+Constantes!$E$6)*Constantes!B30)</f>
@@ -5711,7 +5809,7 @@
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="82">
         <f>('Tablas Calculadas '!C9*Constantes!$D$13*Constantes!$B$13+'Tablas Calculadas '!$D$7*Constantes!D16*Constantes!$B$14+'Tablas Calculadas '!E9*Constantes!$D$15*Constantes!$B$15)*(Constantes!$B$38*(1+Constantes!$E$6)*Constantes!B31)</f>
@@ -5728,7 +5826,7 @@
     </row>
     <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" s="82">
         <f>('Tablas Calculadas '!C10*Constantes!$D$13*Constantes!$B$13+'Tablas Calculadas '!$D$10*Constantes!D14*Constantes!$B$14+'Tablas Calculadas '!E10*Constantes!$D$15*Constantes!$B$15)*(Constantes!$B$38*(1+Constantes!$E$6)*Constantes!B32)</f>
@@ -5762,7 +5860,7 @@
     </row>
     <row r="77" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" s="83">
         <f>('Tablas Calculadas '!C12*Constantes!$D$13*Constantes!$B$13+'Tablas Calculadas '!$D$12*Constantes!D19*Constantes!$B$14+'Tablas Calculadas '!E12*Constantes!$D$15*Constantes!$B$15)*(Constantes!$B$38*(1+Constantes!$E$6)*Constantes!B34)</f>
@@ -6070,10 +6168,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6083,24 +6181,28 @@
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="228" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="230"/>
+      <c r="A1" s="233" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="235"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H2" s="17"/>
@@ -6127,24 +6229,24 @@
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="205" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="206"/>
+      <c r="C6" s="214" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="215"/>
       <c r="E6" s="84">
         <v>1</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="205" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="206"/>
+      <c r="A7" s="214" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="215"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -6154,13 +6256,13 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="86">
         <v>81000</v>
       </c>
-      <c r="C8" s="203" t="s">
-        <v>116</v>
+      <c r="C8" s="212" t="s">
+        <v>115</v>
       </c>
       <c r="D8" s="87"/>
       <c r="E8" s="17"/>
@@ -6170,12 +6272,12 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="88">
         <v>135000</v>
       </c>
-      <c r="C9" s="204"/>
+      <c r="C9" s="213"/>
       <c r="D9" s="81"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -6184,12 +6286,12 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="88">
         <v>194000</v>
       </c>
-      <c r="C10" s="208"/>
+      <c r="C10" s="239"/>
       <c r="D10" s="81"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -6208,16 +6310,16 @@
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -6226,7 +6328,7 @@
     </row>
     <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="22">
         <v>12</v>
@@ -6244,7 +6346,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="27">
         <v>24</v>
@@ -6262,7 +6364,7 @@
     </row>
     <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="37">
         <v>32</v>
@@ -6274,7 +6376,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="17"/>
       <c r="H15" s="17"/>
@@ -6321,27 +6423,27 @@
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="205" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="207"/>
-      <c r="C20" s="207"/>
-      <c r="D20" s="206"/>
+      <c r="A20" s="214" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="232"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="215"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="231" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="231"/>
+      <c r="A21" s="236" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="236"/>
       <c r="C21" s="90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -6349,10 +6451,10 @@
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="232" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="233"/>
+      <c r="A22" s="237" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="238"/>
       <c r="C22" s="97">
         <v>657</v>
       </c>
@@ -6366,7 +6468,7 @@
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="222"/>
       <c r="C23" s="98">
@@ -6382,7 +6484,7 @@
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="221" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="222"/>
       <c r="C24" s="98">
@@ -6398,7 +6500,7 @@
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="223" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="224"/>
       <c r="C25" s="99">
@@ -6422,10 +6524,10 @@
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="205" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="206"/>
+      <c r="A27" s="214" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="215"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
       <c r="E27" s="17"/>
@@ -6435,10 +6537,10 @@
     </row>
     <row r="28" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="90" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -6455,7 +6557,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="225" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="17"/>
@@ -6554,10 +6656,10 @@
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="205" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="206"/>
+      <c r="A37" s="214" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="215"/>
       <c r="C37" s="81"/>
       <c r="D37" s="81"/>
       <c r="E37" s="17"/>
@@ -6567,9 +6669,9 @@
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="247">
+        <v>32</v>
+      </c>
+      <c r="B38" s="146">
         <v>8</v>
       </c>
       <c r="C38" s="81"/>
@@ -6581,13 +6683,13 @@
     </row>
     <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="248">
+        <v>81</v>
+      </c>
+      <c r="B39" s="147">
         <v>16</v>
       </c>
       <c r="C39" s="85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="81"/>
       <c r="E39" s="17"/>
@@ -6597,13 +6699,13 @@
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="104">
         <v>8</v>
       </c>
       <c r="C40" s="219" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="81"/>
       <c r="E40" s="17"/>
@@ -6613,7 +6715,7 @@
     </row>
     <row r="41" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="104">
         <v>22</v>
@@ -6627,7 +6729,7 @@
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="104">
         <v>5</v>
@@ -6641,10 +6743,10 @@
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="72">
-        <f>($B$38*B29*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <f t="shared" ref="B43:B48" si="0">($B$38*B29*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
         <v>346720</v>
       </c>
       <c r="C43" s="81"/>
@@ -6656,10 +6758,10 @@
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="72">
-        <f>($B$38*B30*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <f t="shared" si="0"/>
         <v>398728</v>
       </c>
       <c r="C44" s="81"/>
@@ -6671,10 +6773,10 @@
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="72">
-        <f>($B$38*B31*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <f t="shared" si="0"/>
         <v>459404</v>
       </c>
       <c r="C45" s="81"/>
@@ -6686,10 +6788,10 @@
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="72">
-        <f>($B$38*B32*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <f t="shared" si="0"/>
         <v>485408</v>
       </c>
       <c r="C46" s="81"/>
@@ -6701,10 +6803,10 @@
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="72">
-        <f>($B$38*B33*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <f t="shared" si="0"/>
         <v>554752</v>
       </c>
       <c r="C47" s="81"/>
@@ -6716,10 +6818,10 @@
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B48" s="72">
-        <f>($B$38*B34*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
+        <f t="shared" si="0"/>
         <v>658768</v>
       </c>
       <c r="C48" s="81"/>
@@ -6729,9 +6831,9 @@
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="103">
         <v>150</v>
@@ -6743,9 +6845,9 @@
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="103">
         <v>500</v>
@@ -6757,9 +6859,9 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="103">
         <v>250</v>
@@ -6771,9 +6873,9 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="105">
         <v>0.03</v>
@@ -6785,9 +6887,9 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="105">
         <v>7.4999999999999997E-2</v>
@@ -6799,9 +6901,9 @@
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="106">
         <v>2.5000000000000001E-4</v>
@@ -6813,9 +6915,9 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="107">
         <v>7.4999999999999997E-2</v>
@@ -6827,9 +6929,9 @@
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="107">
         <v>1E-3</v>
@@ -6841,9 +6943,9 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="108" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="109">
         <v>0.05</v>
@@ -6855,7 +6957,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="81"/>
       <c r="B58" s="81"/>
       <c r="C58" s="81"/>
@@ -6865,1023 +6967,1407 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="209" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="210"/>
-      <c r="C59" s="205" t="s">
+    <row r="59" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="228" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="229"/>
+      <c r="C59" s="214" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="232"/>
+      <c r="E59" s="215"/>
+      <c r="F59" s="216" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="206"/>
-      <c r="E59" s="213" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" s="214"/>
-      <c r="G59" s="214"/>
-      <c r="H59" s="214"/>
-      <c r="I59" s="215"/>
-    </row>
-    <row r="60" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="211"/>
-      <c r="B60" s="212"/>
-      <c r="C60" s="216" t="s">
+      <c r="G59" s="217"/>
+      <c r="H59" s="217"/>
+      <c r="I59" s="217"/>
+      <c r="J59" s="217"/>
+      <c r="K59" s="217"/>
+      <c r="L59" s="217"/>
+      <c r="M59" s="218"/>
+    </row>
+    <row r="60" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="230"/>
+      <c r="B60" s="231"/>
+      <c r="C60" s="214" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="232"/>
+      <c r="E60" s="232"/>
+      <c r="F60" s="232"/>
+      <c r="G60" s="232"/>
+      <c r="H60" s="232"/>
+      <c r="I60" s="232"/>
+      <c r="J60" s="232"/>
+      <c r="K60" s="232"/>
+      <c r="L60" s="232"/>
+      <c r="M60" s="215"/>
+    </row>
+    <row r="61" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="255" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="256" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="257" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="258" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="257" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="257" t="s">
+        <v>190</v>
+      </c>
+      <c r="G61" s="257" t="s">
+        <v>176</v>
+      </c>
+      <c r="H61" s="258" t="s">
+        <v>177</v>
+      </c>
+      <c r="I61" s="257" t="s">
         <v>180</v>
       </c>
-      <c r="D60" s="217"/>
-      <c r="E60" s="217"/>
-      <c r="F60" s="217"/>
-      <c r="G60" s="217"/>
-      <c r="H60" s="217"/>
-      <c r="I60" s="218"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-    </row>
-    <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="137" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="101" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" s="101" t="s">
-        <v>178</v>
-      </c>
-      <c r="G61" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="H61" s="101" t="s">
-        <v>182</v>
-      </c>
-      <c r="I61" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-    </row>
-    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="110" t="s">
+      <c r="J61" s="252" t="s">
+        <v>191</v>
+      </c>
+      <c r="K61" s="250" t="s">
+        <v>188</v>
+      </c>
+      <c r="L61" s="251" t="s">
+        <v>192</v>
+      </c>
+      <c r="M61" s="252" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="253">
+        <v>450</v>
+      </c>
+      <c r="C62" s="259">
+        <v>1</v>
+      </c>
+      <c r="D62" s="253">
+        <v>180</v>
+      </c>
+      <c r="E62" s="79">
+        <v>5</v>
+      </c>
+      <c r="F62" s="253">
+        <f t="shared" ref="F62:F90" si="1">IF(ISERROR((B62-D62)/E62),0,(B62-D62)/E62)</f>
+        <v>54</v>
+      </c>
+      <c r="G62" s="253">
+        <f t="shared" ref="G62:G84" si="2">D62</f>
+        <v>180</v>
+      </c>
+      <c r="H62" s="253">
+        <f t="shared" ref="H62:H84" si="3">B62-(F62*5)</f>
+        <v>180</v>
+      </c>
+      <c r="I62" s="253">
+        <f>G62*0.25</f>
+        <v>45</v>
+      </c>
+      <c r="J62" s="260">
+        <f>IF((G62-H62)&gt;0,(G62+I62),(G62-I62))</f>
+        <v>135</v>
+      </c>
+      <c r="K62" s="253">
+        <f>F62*C62</f>
+        <v>54</v>
+      </c>
+      <c r="L62" s="253">
+        <f>F62*C62</f>
+        <v>54</v>
+      </c>
+      <c r="M62" s="254">
+        <f>J62*C62</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="110" t="s">
         <v>18</v>
-      </c>
-      <c r="B62" s="88">
-        <v>450</v>
-      </c>
-      <c r="C62" s="88">
-        <v>180</v>
-      </c>
-      <c r="D62" s="28">
-        <v>5</v>
-      </c>
-      <c r="E62" s="88">
-        <f t="shared" ref="E62:E90" si="0">IF(ISERROR((B62-C62)/D62),0,(B62-C62)/D62)</f>
-        <v>54</v>
-      </c>
-      <c r="F62" s="88">
-        <f t="shared" ref="F62:F84" si="1">C62</f>
-        <v>180</v>
-      </c>
-      <c r="G62" s="88">
-        <f>B62-(E62*5)</f>
-        <v>180</v>
-      </c>
-      <c r="H62" s="88">
-        <f>F62*0.25</f>
-        <v>45</v>
-      </c>
-      <c r="I62" s="103">
-        <f>IF((F62-G62)&gt;0,(F62+H62),(F62-H62))</f>
-        <v>135</v>
-      </c>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-    </row>
-    <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="110" t="s">
-        <v>19</v>
       </c>
       <c r="B63" s="88">
         <v>125</v>
       </c>
-      <c r="C63" s="88">
+      <c r="C63" s="149">
+        <v>1</v>
+      </c>
+      <c r="D63" s="88">
         <v>40</v>
       </c>
-      <c r="D63" s="28">
+      <c r="E63" s="28">
         <v>5</v>
-      </c>
-      <c r="E63" s="88">
-        <f t="shared" si="0"/>
-        <v>17</v>
       </c>
       <c r="F63" s="88">
         <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G63" s="88">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="G63" s="88">
-        <f>B63-(E63*5)</f>
+      <c r="H63" s="88">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="H63" s="88">
-        <f t="shared" ref="H63:H90" si="2">F63*0.25</f>
+      <c r="I63" s="88">
+        <f t="shared" ref="I63:I90" si="4">G63*0.25</f>
         <v>10</v>
       </c>
-      <c r="I63" s="103">
-        <f t="shared" ref="I63:I90" si="3">IF((F63-G63)&gt;0,(F63+H63),(F63-H63))</f>
+      <c r="J63" s="248">
+        <f t="shared" ref="J63:J90" si="5">IF((G63-H63)&gt;0,(G63+I63),(G63-I63))</f>
         <v>30</v>
       </c>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K63" s="88">
+        <f t="shared" ref="K63:K90" si="6">F63*C63</f>
+        <v>17</v>
+      </c>
+      <c r="L63" s="88">
+        <f t="shared" ref="L63:L90" si="7">F63*C63</f>
+        <v>17</v>
+      </c>
+      <c r="M63" s="103">
+        <f t="shared" ref="M63:M90" si="8">J63*C63</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="88">
         <v>66</v>
       </c>
-      <c r="C64" s="88">
+      <c r="C64" s="149">
+        <v>1</v>
+      </c>
+      <c r="D64" s="88">
         <v>15</v>
       </c>
-      <c r="D64" s="28">
+      <c r="E64" s="28">
         <v>5</v>
-      </c>
-      <c r="E64" s="88">
-        <f t="shared" si="0"/>
-        <v>10.199999999999999</v>
       </c>
       <c r="F64" s="88">
         <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G64" s="88">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G64" s="88">
-        <f t="shared" ref="G64:G83" si="4">B64-(E64*5)</f>
+      <c r="H64" s="88">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H64" s="88">
-        <f t="shared" si="2"/>
+      <c r="I64" s="88">
+        <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
-      <c r="I64" s="103">
-        <f t="shared" si="3"/>
+      <c r="J64" s="248">
+        <f t="shared" si="5"/>
         <v>11.25</v>
       </c>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K64" s="88">
+        <f t="shared" si="6"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L64" s="88">
+        <f t="shared" si="7"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M64" s="103">
+        <f t="shared" si="8"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="88">
         <v>279</v>
       </c>
-      <c r="C65" s="88">
+      <c r="C65" s="150">
+        <v>1</v>
+      </c>
+      <c r="D65" s="88">
         <v>110</v>
       </c>
-      <c r="D65" s="28">
+      <c r="E65" s="28">
         <v>5</v>
-      </c>
-      <c r="E65" s="88">
-        <f t="shared" si="0"/>
-        <v>33.799999999999997</v>
       </c>
       <c r="F65" s="88">
         <f t="shared" si="1"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G65" s="88">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="G65" s="88">
+      <c r="H65" s="88">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="I65" s="88">
         <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="H65" s="88">
-        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
-      <c r="I65" s="103">
-        <f t="shared" si="3"/>
+      <c r="J65" s="248">
+        <f t="shared" si="5"/>
         <v>82.5</v>
       </c>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-    </row>
-    <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K65" s="88">
+        <f t="shared" si="6"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="L65" s="88">
+        <f t="shared" si="7"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="M65" s="103">
+        <f t="shared" si="8"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" s="88">
         <v>179</v>
       </c>
-      <c r="C66" s="88">
+      <c r="C66" s="150">
+        <v>1</v>
+      </c>
+      <c r="D66" s="88">
         <v>15</v>
       </c>
-      <c r="D66" s="28">
+      <c r="E66" s="28">
         <v>5</v>
-      </c>
-      <c r="E66" s="88">
-        <f t="shared" si="0"/>
-        <v>32.799999999999997</v>
       </c>
       <c r="F66" s="88">
         <f t="shared" si="1"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G66" s="88">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G66" s="88">
+      <c r="H66" s="88">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I66" s="88">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="H66" s="88">
-        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
-      <c r="I66" s="103">
-        <f t="shared" si="3"/>
+      <c r="J66" s="248">
+        <f t="shared" si="5"/>
         <v>11.25</v>
       </c>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-    </row>
-    <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K66" s="88">
+        <f t="shared" si="6"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L66" s="88">
+        <f t="shared" si="7"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="M66" s="103">
+        <f t="shared" si="8"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="110" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="B67" s="88">
         <v>258</v>
       </c>
-      <c r="C67" s="88">
+      <c r="C67" s="149">
+        <v>1</v>
+      </c>
+      <c r="D67" s="88">
         <v>52</v>
       </c>
-      <c r="D67" s="28">
+      <c r="E67" s="28">
         <v>5</v>
-      </c>
-      <c r="E67" s="88">
-        <f t="shared" si="0"/>
-        <v>41.2</v>
       </c>
       <c r="F67" s="88">
         <f t="shared" si="1"/>
+        <v>41.2</v>
+      </c>
+      <c r="G67" s="88">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="G67" s="88">
+      <c r="H67" s="88">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="I67" s="88">
         <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="H67" s="88">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I67" s="103">
-        <f t="shared" si="3"/>
+      <c r="J67" s="248">
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K67" s="88">
+        <f t="shared" si="6"/>
+        <v>41.2</v>
+      </c>
+      <c r="L67" s="88">
+        <f t="shared" si="7"/>
+        <v>41.2</v>
+      </c>
+      <c r="M67" s="103">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68" s="88">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C68" s="88">
+      <c r="C68" s="150">
+        <v>1</v>
+      </c>
+      <c r="D68" s="88">
         <v>0.02</v>
       </c>
-      <c r="D68" s="28">
+      <c r="E68" s="28">
         <v>5</v>
-      </c>
-      <c r="E68" s="88">
-        <f t="shared" si="0"/>
-        <v>5.2000000000000005E-2</v>
       </c>
       <c r="F68" s="88">
         <f t="shared" si="1"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="G68" s="88">
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="G68" s="88">
+      <c r="H68" s="88">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="I68" s="88">
         <f t="shared" si="4"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="H68" s="88">
-        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I68" s="103">
-        <f t="shared" si="3"/>
+      <c r="J68" s="248">
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-    </row>
-    <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K68" s="88">
+        <f t="shared" si="6"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L68" s="88">
+        <f t="shared" si="7"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="M68" s="103">
+        <f t="shared" si="8"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="110" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69" s="88">
         <v>135</v>
       </c>
-      <c r="C69" s="88">
+      <c r="C69" s="149">
+        <v>1</v>
+      </c>
+      <c r="D69" s="88">
         <v>53</v>
       </c>
-      <c r="D69" s="28">
+      <c r="E69" s="28">
         <v>5</v>
-      </c>
-      <c r="E69" s="88">
-        <f t="shared" si="0"/>
-        <v>16.399999999999999</v>
       </c>
       <c r="F69" s="88">
         <f t="shared" si="1"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G69" s="88">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="G69" s="88">
-        <f>B69-(E69*5)</f>
+      <c r="H69" s="88">
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="H69" s="88">
-        <f t="shared" si="2"/>
+      <c r="I69" s="88">
+        <f t="shared" si="4"/>
         <v>13.25</v>
       </c>
-      <c r="I69" s="103">
-        <f t="shared" si="3"/>
+      <c r="J69" s="248">
+        <f t="shared" si="5"/>
         <v>39.75</v>
       </c>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-    </row>
-    <row r="70" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K69" s="88">
+        <f t="shared" si="6"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L69" s="88">
+        <f t="shared" si="7"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M69" s="103">
+        <f t="shared" si="8"/>
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="110" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B70" s="88">
         <v>6100</v>
       </c>
-      <c r="C70" s="88">
+      <c r="C70" s="149">
+        <v>1</v>
+      </c>
+      <c r="D70" s="88">
         <v>1200</v>
       </c>
-      <c r="D70" s="28">
+      <c r="E70" s="28">
         <v>5</v>
-      </c>
-      <c r="E70" s="88">
-        <f t="shared" si="0"/>
-        <v>980</v>
       </c>
       <c r="F70" s="88">
         <f t="shared" si="1"/>
+        <v>980</v>
+      </c>
+      <c r="G70" s="88">
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="G70" s="88">
-        <f>B70-(E70*5)</f>
+      <c r="H70" s="88">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="H70" s="88">
-        <f t="shared" si="2"/>
+      <c r="I70" s="88">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="I70" s="103">
-        <f t="shared" si="3"/>
+      <c r="J70" s="248">
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-    </row>
-    <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K70" s="88">
+        <f t="shared" si="6"/>
+        <v>980</v>
+      </c>
+      <c r="L70" s="88">
+        <f t="shared" si="7"/>
+        <v>980</v>
+      </c>
+      <c r="M70" s="103">
+        <f t="shared" si="8"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="88">
         <v>290</v>
       </c>
-      <c r="C71" s="88">
+      <c r="C71" s="149">
+        <v>2</v>
+      </c>
+      <c r="D71" s="88">
         <v>96</v>
       </c>
-      <c r="D71" s="28">
+      <c r="E71" s="28">
         <v>5</v>
-      </c>
-      <c r="E71" s="88">
-        <f t="shared" si="0"/>
-        <v>38.799999999999997</v>
       </c>
       <c r="F71" s="88">
         <f t="shared" si="1"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="G71" s="88">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="G71" s="88">
+      <c r="H71" s="88">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="I71" s="88">
         <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="H71" s="88">
+        <v>24</v>
+      </c>
+      <c r="J71" s="248">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="K71" s="88">
+        <f t="shared" si="6"/>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="L71" s="88">
+        <f t="shared" si="7"/>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="M71" s="103">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="88">
+        <v>99</v>
+      </c>
+      <c r="C72" s="150">
+        <v>7</v>
+      </c>
+      <c r="D72" s="88">
+        <v>24</v>
+      </c>
+      <c r="E72" s="28">
+        <v>5</v>
+      </c>
+      <c r="F72" s="88">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G72" s="88">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I71" s="103">
+      <c r="H72" s="88">
         <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="88">
-        <v>99</v>
-      </c>
-      <c r="C72" s="88">
         <v>24</v>
       </c>
-      <c r="D72" s="28">
-        <v>5</v>
-      </c>
-      <c r="E72" s="88">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F72" s="88">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="G72" s="88">
+      <c r="I72" s="88">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="H72" s="88">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I72" s="103">
-        <f t="shared" si="3"/>
+      <c r="J72" s="248">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K72" s="88">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="L72" s="88">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="M72" s="103">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="110" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" s="88">
         <v>125</v>
       </c>
-      <c r="C73" s="88">
+      <c r="C73" s="149">
+        <v>1</v>
+      </c>
+      <c r="D73" s="88">
         <v>30</v>
       </c>
-      <c r="D73" s="28">
+      <c r="E73" s="28">
         <v>5</v>
-      </c>
-      <c r="E73" s="88">
-        <f t="shared" si="0"/>
-        <v>19</v>
       </c>
       <c r="F73" s="88">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G73" s="88">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="G73" s="88">
+      <c r="H73" s="88">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I73" s="88">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="H73" s="88">
-        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="I73" s="103">
-        <f t="shared" si="3"/>
+      <c r="J73" s="248">
+        <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K73" s="88">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="L73" s="88">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="M73" s="103">
+        <f t="shared" si="8"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="135" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B74" s="88">
         <v>95</v>
       </c>
-      <c r="C74" s="88">
+      <c r="C74" s="150">
+        <v>6</v>
+      </c>
+      <c r="D74" s="88">
         <v>30</v>
       </c>
-      <c r="D74" s="28">
+      <c r="E74" s="28">
         <v>5</v>
-      </c>
-      <c r="E74" s="88">
-        <f t="shared" si="0"/>
-        <v>13</v>
       </c>
       <c r="F74" s="88">
         <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G74" s="88">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="G74" s="88">
+      <c r="H74" s="88">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I74" s="88">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="H74" s="88">
-        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="I74" s="103">
-        <f t="shared" si="3"/>
+      <c r="J74" s="248">
+        <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K74" s="88">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="L74" s="88">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="M74" s="103">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" s="88">
         <v>27</v>
       </c>
-      <c r="C75" s="88">
+      <c r="C75" s="150">
+        <v>6</v>
+      </c>
+      <c r="D75" s="88">
         <v>5</v>
       </c>
-      <c r="D75" s="28">
+      <c r="E75" s="28">
         <v>5</v>
-      </c>
-      <c r="E75" s="88">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
       </c>
       <c r="F75" s="88">
         <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G75" s="88">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G75" s="88">
+      <c r="H75" s="88">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I75" s="88">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="J75" s="248">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+      <c r="K75" s="88">
+        <f t="shared" si="6"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="L75" s="88">
+        <f t="shared" si="7"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="M75" s="103">
+        <f t="shared" si="8"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="88">
+        <v>148</v>
+      </c>
+      <c r="C76" s="149">
+        <v>1</v>
+      </c>
+      <c r="D76" s="88">
+        <v>58</v>
+      </c>
+      <c r="E76" s="28">
+        <v>5</v>
+      </c>
+      <c r="F76" s="88">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G76" s="88">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="H76" s="88">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="I76" s="88">
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="J76" s="248">
+        <f t="shared" si="5"/>
+        <v>43.5</v>
+      </c>
+      <c r="K76" s="88">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="L76" s="88">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="M76" s="103">
+        <f t="shared" si="8"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="88">
+        <v>36</v>
+      </c>
+      <c r="C77" s="150">
+        <v>6</v>
+      </c>
+      <c r="D77" s="88">
+        <v>12</v>
+      </c>
+      <c r="E77" s="28">
+        <v>5</v>
+      </c>
+      <c r="F77" s="88">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="G77" s="88">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H77" s="88">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I77" s="88">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J77" s="248">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="K77" s="88">
+        <f t="shared" si="6"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="L77" s="88">
+        <f t="shared" si="7"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="M77" s="103">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="88">
+        <v>79</v>
+      </c>
+      <c r="C78" s="150">
+        <v>1</v>
+      </c>
+      <c r="D78" s="88">
+        <v>20</v>
+      </c>
+      <c r="E78" s="28">
+        <v>5</v>
+      </c>
+      <c r="F78" s="88">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+      <c r="G78" s="88">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H78" s="88">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I78" s="88">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="H75" s="88">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="I75" s="103">
-        <f t="shared" si="3"/>
-        <v>3.75</v>
-      </c>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-    </row>
-    <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="88">
-        <v>148</v>
-      </c>
-      <c r="C76" s="88">
-        <v>58</v>
-      </c>
-      <c r="D76" s="28">
-        <v>5</v>
-      </c>
-      <c r="E76" s="88">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F76" s="88">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="G76" s="88">
-        <f t="shared" si="4"/>
-        <v>58</v>
-      </c>
-      <c r="H76" s="88">
-        <f t="shared" si="2"/>
-        <v>14.5</v>
-      </c>
-      <c r="I76" s="103">
-        <f t="shared" si="3"/>
-        <v>43.5</v>
-      </c>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-    </row>
-    <row r="77" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="110" t="s">
+      <c r="J78" s="248">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="K78" s="88">
+        <f t="shared" si="6"/>
+        <v>11.8</v>
+      </c>
+      <c r="L78" s="88">
+        <f t="shared" si="7"/>
+        <v>11.8</v>
+      </c>
+      <c r="M78" s="103">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="110" t="s">
         <v>143</v>
-      </c>
-      <c r="B77" s="88">
-        <v>36</v>
-      </c>
-      <c r="C77" s="88">
-        <v>12</v>
-      </c>
-      <c r="D77" s="28">
-        <v>5</v>
-      </c>
-      <c r="E77" s="88">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="F77" s="88">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G77" s="88">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="H77" s="88">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I77" s="103">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-    </row>
-    <row r="78" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="110" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" s="88">
-        <v>79</v>
-      </c>
-      <c r="C78" s="88">
-        <v>20</v>
-      </c>
-      <c r="D78" s="28">
-        <v>5</v>
-      </c>
-      <c r="E78" s="88">
-        <f t="shared" si="0"/>
-        <v>11.8</v>
-      </c>
-      <c r="F78" s="88">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G78" s="88">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H78" s="88">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I78" s="103">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-    </row>
-    <row r="79" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="110" t="s">
-        <v>145</v>
       </c>
       <c r="B79" s="88">
         <v>99</v>
       </c>
-      <c r="C79" s="88">
+      <c r="C79" s="150">
+        <v>5</v>
+      </c>
+      <c r="D79" s="88">
         <v>34</v>
       </c>
-      <c r="D79" s="28">
+      <c r="E79" s="28">
         <v>5</v>
-      </c>
-      <c r="E79" s="88">
-        <f t="shared" si="0"/>
-        <v>13</v>
       </c>
       <c r="F79" s="88">
         <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G79" s="88">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="G79" s="88">
+      <c r="H79" s="88">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="I79" s="88">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="H79" s="88">
-        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="I79" s="103">
-        <f t="shared" si="3"/>
+      <c r="J79" s="248">
+        <f t="shared" si="5"/>
         <v>25.5</v>
       </c>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-    </row>
-    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K79" s="88">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="L79" s="88">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="M79" s="103">
+        <f t="shared" si="8"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="110" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B80" s="88">
         <v>100</v>
       </c>
-      <c r="C80" s="88">
+      <c r="C80" s="150">
+        <v>6</v>
+      </c>
+      <c r="D80" s="88">
         <v>32</v>
       </c>
-      <c r="D80" s="28">
+      <c r="E80" s="28">
         <v>5</v>
-      </c>
-      <c r="E80" s="88">
-        <f t="shared" si="0"/>
-        <v>13.6</v>
       </c>
       <c r="F80" s="88">
         <f t="shared" si="1"/>
+        <v>13.6</v>
+      </c>
+      <c r="G80" s="88">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="G80" s="88">
+      <c r="H80" s="88">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="I80" s="88">
         <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="H80" s="88">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I80" s="103">
-        <f t="shared" si="3"/>
+      <c r="J80" s="248">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K80" s="88">
+        <f t="shared" si="6"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="L80" s="88">
+        <f t="shared" si="7"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="M80" s="103">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="110" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B81" s="88">
         <v>15</v>
       </c>
-      <c r="C81" s="88">
+      <c r="C81" s="150">
+        <v>5</v>
+      </c>
+      <c r="D81" s="88">
         <v>2</v>
       </c>
-      <c r="D81" s="28">
+      <c r="E81" s="28">
         <v>5</v>
-      </c>
-      <c r="E81" s="88">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
       </c>
       <c r="F81" s="88">
         <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="G81" s="88">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G81" s="88">
+      <c r="H81" s="88">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I81" s="88">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H81" s="88">
-        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I81" s="103">
-        <f t="shared" si="3"/>
+      <c r="J81" s="248">
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K81" s="88">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="L81" s="88">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="M81" s="103">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="110" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B82" s="88">
         <v>50</v>
       </c>
-      <c r="C82" s="88">
+      <c r="C82" s="150">
+        <v>6</v>
+      </c>
+      <c r="D82" s="88">
         <v>10</v>
       </c>
-      <c r="D82" s="28">
+      <c r="E82" s="28">
         <v>5</v>
-      </c>
-      <c r="E82" s="88">
-        <f t="shared" si="0"/>
-        <v>8</v>
       </c>
       <c r="F82" s="88">
         <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G82" s="88">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G82" s="88">
+      <c r="H82" s="88">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I82" s="88">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="H82" s="88">
-        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="I82" s="103">
-        <f t="shared" si="3"/>
+      <c r="J82" s="248">
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-    </row>
-    <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K82" s="88">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="L82" s="88">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="M82" s="103">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="110" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B83" s="88">
         <v>235</v>
       </c>
-      <c r="C83" s="88">
+      <c r="C83" s="150">
+        <v>5</v>
+      </c>
+      <c r="D83" s="88">
         <v>0</v>
       </c>
-      <c r="D83" s="28">
+      <c r="E83" s="28">
         <v>5</v>
-      </c>
-      <c r="E83" s="88">
-        <f t="shared" si="0"/>
-        <v>47</v>
       </c>
       <c r="F83" s="88">
         <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="G83" s="88">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83" s="88">
+      <c r="H83" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="88">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H83" s="88">
+      <c r="J83" s="248">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="88">
+        <f t="shared" si="6"/>
+        <v>235</v>
+      </c>
+      <c r="L83" s="88">
+        <f t="shared" si="7"/>
+        <v>235</v>
+      </c>
+      <c r="M83" s="103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="88">
+        <v>349</v>
+      </c>
+      <c r="C84" s="149">
+        <v>1</v>
+      </c>
+      <c r="D84" s="88">
+        <v>0</v>
+      </c>
+      <c r="E84" s="28">
+        <v>5</v>
+      </c>
+      <c r="F84" s="88">
+        <f t="shared" si="1"/>
+        <v>69.8</v>
+      </c>
+      <c r="G84" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I83" s="103">
+      <c r="H84" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-    </row>
-    <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="B84" s="88">
-        <v>349</v>
-      </c>
-      <c r="C84" s="88">
+      <c r="I84" s="88">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D84" s="28">
-        <v>5</v>
-      </c>
-      <c r="E84" s="88">
-        <f t="shared" si="0"/>
+      <c r="J84" s="248">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="88">
+        <f t="shared" si="6"/>
         <v>69.8</v>
       </c>
-      <c r="F84" s="88">
-        <f t="shared" si="1"/>
+      <c r="L84" s="88">
+        <f t="shared" si="7"/>
+        <v>69.8</v>
+      </c>
+      <c r="M84" s="103">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G84" s="88">
-        <f>B84-(E84*5)</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="88">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-    </row>
-    <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="110"/>
       <c r="B85" s="88"/>
       <c r="C85" s="88"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="88">
-        <f t="shared" si="0"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="88">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F85" s="88"/>
       <c r="G85" s="88"/>
-      <c r="H85" s="88">
-        <f t="shared" si="2"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I85" s="103">
-        <f t="shared" si="3"/>
+      <c r="J85" s="248">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K85" s="88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="110"/>
       <c r="B86" s="88"/>
       <c r="C86" s="88"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="88">
-        <f t="shared" si="0"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="88">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F86" s="88"/>
       <c r="G86" s="88"/>
-      <c r="H86" s="88">
-        <f t="shared" si="2"/>
+      <c r="H86" s="88"/>
+      <c r="I86" s="88">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I86" s="103">
-        <f t="shared" si="3"/>
+      <c r="J86" s="248">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K86" s="88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="110"/>
       <c r="B87" s="88"/>
       <c r="C87" s="88"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="88">
-        <f t="shared" si="0"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="88">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F87" s="88"/>
       <c r="G87" s="88"/>
-      <c r="H87" s="88">
-        <f t="shared" si="2"/>
+      <c r="H87" s="88"/>
+      <c r="I87" s="88">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I87" s="103">
-        <f t="shared" si="3"/>
+      <c r="J87" s="248">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K87" s="88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="110"/>
       <c r="B88" s="88"/>
       <c r="C88" s="88"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="88">
-        <f t="shared" si="0"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="88">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F88" s="88"/>
       <c r="G88" s="88"/>
-      <c r="H88" s="88">
-        <f t="shared" si="2"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I88" s="103">
-        <f t="shared" si="3"/>
+      <c r="J88" s="248">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-    </row>
-    <row r="89" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K88" s="88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="110"/>
       <c r="B89" s="88"/>
       <c r="C89" s="88"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="88">
-        <f t="shared" si="0"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="88">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F89" s="88"/>
       <c r="G89" s="88"/>
-      <c r="H89" s="88">
-        <f t="shared" si="2"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="88">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I89" s="103">
-        <f t="shared" si="3"/>
+      <c r="J89" s="248">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K89" s="88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="37"/>
       <c r="B90" s="111"/>
       <c r="C90" s="111"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="111">
-        <f t="shared" si="0"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="111">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F90" s="111"/>
       <c r="G90" s="111"/>
-      <c r="H90" s="111">
-        <f t="shared" si="2"/>
+      <c r="H90" s="111"/>
+      <c r="I90" s="111">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I90" s="131">
-        <f t="shared" si="3"/>
+      <c r="J90" s="249">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="131">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7892,19 +8378,19 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="C60:I60"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C29:C34"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="A59:B60"/>
-    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="F59:M59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7932,17 +8418,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="228" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="230"/>
+      <c r="A1" s="233" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="235"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
@@ -7962,15 +8448,15 @@
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="206"/>
+      <c r="A3" s="214" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="215"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -7979,16 +8465,16 @@
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="234" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="236"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="242"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -7997,16 +8483,16 @@
     </row>
     <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="243" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="237" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="238"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="244"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -8015,16 +8501,16 @@
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="112" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="237" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="238"/>
+        <v>94</v>
+      </c>
+      <c r="B6" s="243" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="244"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -8033,16 +8519,16 @@
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="237" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="238"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="244"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -8051,16 +8537,16 @@
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="237" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="238"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="244"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -8069,16 +8555,16 @@
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="237" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="237"/>
-      <c r="F9" s="237"/>
-      <c r="G9" s="238"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="244"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -8087,16 +8573,16 @@
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="241" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="237"/>
-      <c r="D10" s="237"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="238"/>
+        <v>117</v>
+      </c>
+      <c r="B10" s="247" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="244"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -8105,16 +8591,16 @@
     </row>
     <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="237" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="238"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="244"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -8123,16 +8609,16 @@
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="237" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="237"/>
-      <c r="D12" s="237"/>
-      <c r="E12" s="237"/>
-      <c r="F12" s="237"/>
-      <c r="G12" s="238"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="243"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="244"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -8141,16 +8627,16 @@
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="247" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="241" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="238"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="244"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -8159,16 +8645,16 @@
     </row>
     <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="247" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="241" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="238"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="244"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -8177,16 +8663,16 @@
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="239" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="240"/>
+        <v>128</v>
+      </c>
+      <c r="B15" s="245" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="245"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="246"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>

--- a/Actividades/Femp03011/Flujo_de_fondos.xlsx
+++ b/Actividades/Femp03011/Flujo_de_fondos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\ProyectoFinal2019-\Actividades\Femp03011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4101FE20-93C0-4E23-BFB7-08DEDB0EBBE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A3DE71-36B4-4FFC-B4EE-98B7E1A77332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="1" r:id="rId1"/>
@@ -846,7 +846,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$UYU]_-;\-* #,##0.00\ [$UYU]_-;_-* &quot;-&quot;??\ [$UYU]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-340A]\ * #,##0.00_-;\-[$$-340A]\ * #,##0.00_-;_-[$$-340A]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -856,7 +856,6 @@
     <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;US$&quot;"/>
     <numFmt numFmtId="171" formatCode="_-[$$-1004]* #,##0.00_-;\-[$$-1004]* #,##0.00_-;_-[$$-1004]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_-[$$-45C]* #,##0.00_-;\-[$$-45C]* #,##0.00_-;_-[$$-45C]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-[$$-2C0A]\ * #,##0_-;\-[$$-2C0A]\ * #,##0_-;_-[$$-2C0A]\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2556,7 +2555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
@@ -2568,13 +2567,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2722,12 +2717,6 @@
     <xf numFmtId="171" fontId="7" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2764,303 +2753,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="170" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3080,6 +2772,311 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="170" fontId="14" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3634,8 +3631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3653,50 +3650,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="156" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="185"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="119"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="164" t="s">
+      <c r="B3" s="187"/>
+      <c r="C3" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="119"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="115"/>
     </row>
     <row r="4" spans="1:10" ht="47.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="160"/>
-      <c r="B4" s="161"/>
+      <c r="A4" s="188"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="7"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
@@ -3706,71 +3703,71 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="162"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="168" t="s">
+      <c r="A5" s="190"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="169"/>
-      <c r="E5" s="118" t="s">
+      <c r="D5" s="197"/>
+      <c r="E5" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="118" t="s">
+      <c r="G5" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="116" t="s">
         <v>153</v>
       </c>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="170" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="197"/>
-      <c r="C6" s="170" t="s">
+      <c r="B6" s="171"/>
+      <c r="C6" s="198" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="171"/>
-      <c r="E6" s="117">
+      <c r="D6" s="199"/>
+      <c r="E6" s="113">
         <f>'Tablas Calculadas '!I8 *0.8</f>
         <v>10698041.867946668</v>
       </c>
-      <c r="F6" s="117">
+      <c r="F6" s="113">
         <f>'Tablas Calculadas '!I9 *0.8</f>
         <v>2446370.6023466666</v>
       </c>
-      <c r="G6" s="117">
+      <c r="G6" s="113">
         <f>'Tablas Calculadas '!I10 *0.8</f>
         <v>3625624.3131733332</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="113">
         <f>'Tablas Calculadas '!I11 *0.8</f>
         <v>4421353.4856533334</v>
       </c>
-      <c r="I6" s="121">
+      <c r="I6" s="117">
         <f>'Tablas Calculadas '!I12 * 0.8</f>
         <v>3341452.4313600003</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="172" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="172" t="s">
+      <c r="B7" s="173"/>
+      <c r="C7" s="200" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="173"/>
+      <c r="D7" s="201"/>
       <c r="E7" s="9">
         <f>'Tablas Calculadas '!C61*-1</f>
         <v>-11809488</v>
@@ -3787,20 +3784,20 @@
         <f>'Tablas Calculadas '!C64*-1</f>
         <v>-9186240</v>
       </c>
-      <c r="I7" s="122">
+      <c r="I7" s="118">
         <f>'Tablas Calculadas '!C65*-1</f>
         <v>-8968224</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="199"/>
-      <c r="C8" s="172" t="s">
+      <c r="B8" s="173"/>
+      <c r="C8" s="200" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="173"/>
+      <c r="D8" s="201"/>
       <c r="E8" s="9">
         <f>'Tablas Calculadas '!B61*-1</f>
         <v>-584877.11999999988</v>
@@ -3817,292 +3814,292 @@
         <f>'Tablas Calculadas '!B64*-1</f>
         <v>-813742.07999999996</v>
       </c>
-      <c r="I8" s="123">
+      <c r="I8" s="119">
         <f>'Tablas Calculadas '!B65*-1</f>
         <v>-966318.72</v>
       </c>
-      <c r="J8" s="119"/>
+      <c r="J8" s="115"/>
     </row>
     <row r="9" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="202" t="s">
+      <c r="A9" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="203"/>
-      <c r="C9" s="174" t="s">
+      <c r="B9" s="177"/>
+      <c r="C9" s="202" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="175"/>
+      <c r="D9" s="203"/>
       <c r="E9" s="10">
-        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29</f>
-        <v>82498.079999999987</v>
+        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29 *-1</f>
+        <v>-82498.079999999987</v>
       </c>
       <c r="F9" s="10">
-        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29</f>
-        <v>82498.079999999987</v>
+        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29 *-1</f>
+        <v>-82498.079999999987</v>
       </c>
       <c r="G9" s="10">
-        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29</f>
-        <v>82498.079999999987</v>
+        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29 *-1</f>
+        <v>-82498.079999999987</v>
       </c>
       <c r="H9" s="10">
-        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29</f>
-        <v>82498.079999999987</v>
-      </c>
-      <c r="I9" s="124">
-        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29</f>
-        <v>82498.079999999987</v>
-      </c>
-      <c r="J9" s="119"/>
+        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29 *-1</f>
+        <v>-82498.079999999987</v>
+      </c>
+      <c r="I9" s="120">
+        <f>SUM(Constantes!L62:'Constantes'!L90)*Constantes!B29 *-1</f>
+        <v>-82498.079999999987</v>
+      </c>
+      <c r="J9" s="115"/>
     </row>
     <row r="10" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="176" t="s">
+      <c r="B10" s="175"/>
+      <c r="C10" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="14">
+      <c r="D10" s="205"/>
+      <c r="E10" s="113">
         <f>SUM(E6:E9)</f>
-        <v>-1613825.1720533322</v>
-      </c>
-      <c r="F10" s="14">
+        <v>-1778821.3320533324</v>
+      </c>
+      <c r="F10" s="113">
         <f t="shared" ref="F10:I10" si="0">SUM(F6:F9)</f>
-        <v>-4474483.477653333</v>
-      </c>
-      <c r="G10" s="14">
+        <v>-4639479.6376533331</v>
+      </c>
+      <c r="G10" s="113">
         <f t="shared" si="0"/>
-        <v>-3781693.926826667</v>
-      </c>
-      <c r="H10" s="14">
+        <v>-3946690.0868266672</v>
+      </c>
+      <c r="H10" s="113">
         <f t="shared" si="0"/>
-        <v>-5496130.5143466666</v>
-      </c>
-      <c r="I10" s="125">
-        <f t="shared" si="0"/>
-        <v>-6510592.2086399989</v>
+        <v>-5661126.6743466668</v>
+      </c>
+      <c r="I10" s="253">
+        <f>SUM(I6:I9)</f>
+        <v>-6675588.3686399991</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="203"/>
-      <c r="C11" s="178" t="s">
+      <c r="B11" s="177"/>
+      <c r="C11" s="206" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="179"/>
-      <c r="E11" s="15">
+      <c r="D11" s="207"/>
+      <c r="E11" s="254">
         <f>IF(E10&gt;0,E10/4,0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="254">
         <f t="shared" ref="F11:I11" si="1">IF(F10&gt;0,F10/4,0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="254">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="254">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="126">
+      <c r="I11" s="255">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="119"/>
+      <c r="J11" s="115"/>
     </row>
     <row r="12" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A12" s="200" t="s">
+      <c r="A12" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="201"/>
-      <c r="C12" s="188" t="s">
+      <c r="B12" s="175"/>
+      <c r="C12" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="189"/>
-      <c r="E12" s="11">
+      <c r="D12" s="163"/>
+      <c r="E12" s="113">
         <f>E10-E11</f>
-        <v>-1613825.1720533322</v>
-      </c>
-      <c r="F12" s="11">
+        <v>-1778821.3320533324</v>
+      </c>
+      <c r="F12" s="113">
         <f t="shared" ref="F12:H12" si="2">F10-F11</f>
-        <v>-4474483.477653333</v>
-      </c>
-      <c r="G12" s="11">
+        <v>-4639479.6376533331</v>
+      </c>
+      <c r="G12" s="113">
         <f t="shared" si="2"/>
-        <v>-3781693.926826667</v>
-      </c>
-      <c r="H12" s="11">
+        <v>-3946690.0868266672</v>
+      </c>
+      <c r="H12" s="113">
         <f t="shared" si="2"/>
-        <v>-5496130.5143466666</v>
-      </c>
-      <c r="I12" s="127">
+        <v>-5661126.6743466668</v>
+      </c>
+      <c r="I12" s="256">
         <f>I10-I11</f>
-        <v>-6510592.2086399989</v>
-      </c>
-      <c r="J12" s="119"/>
+        <v>-6675588.3686399991</v>
+      </c>
+      <c r="J12" s="115"/>
     </row>
     <row r="13" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="172" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="199"/>
-      <c r="C13" s="190" t="s">
+      <c r="B13" s="173"/>
+      <c r="C13" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="191"/>
-      <c r="E13" s="12">
+      <c r="D13" s="165"/>
+      <c r="E13" s="257">
         <f>SUM(Constantes!F62:F90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="257">
         <f>SUM(Constantes!F62:F90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="257">
         <f>SUM(Constantes!F62:F90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="257">
         <f>SUM(Constantes!F62:F90)*Constantes!B30</f>
         <v>67355.59199999999</v>
       </c>
-      <c r="I13" s="128">
+      <c r="I13" s="258">
         <f t="shared" ref="I13" si="3">I9*-1</f>
-        <v>-82498.079999999987</v>
-      </c>
-      <c r="J13" s="119"/>
+        <v>82498.079999999987</v>
+      </c>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:10" ht="37.5" x14ac:dyDescent="0.7">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="193" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="13" t="s">
+      <c r="B14" s="194"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="I14" s="129" t="s">
+      <c r="I14" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="J14" s="119"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="177" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="204"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="140">
+      <c r="B15" s="178"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="132">
         <f>SUM(Constantes!M62:M90)*Constantes!B34</f>
         <v>162280.13999999998</v>
       </c>
-      <c r="J15" s="119"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="195" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="194">
+      <c r="B16" s="195"/>
+      <c r="C16" s="168">
         <f>SUM(Constantes!K62:K90)*Constantes!B29</f>
         <v>82498.079999999987</v>
       </c>
-      <c r="D16" s="195"/>
-      <c r="E16" s="136">
+      <c r="D16" s="169"/>
+      <c r="E16" s="128">
         <f>E12+E13</f>
-        <v>-1546469.5800533323</v>
-      </c>
-      <c r="F16" s="136">
+        <v>-1711465.7400533324</v>
+      </c>
+      <c r="F16" s="128">
         <f>F12+F13</f>
-        <v>-4407127.8856533328</v>
-      </c>
-      <c r="G16" s="138">
+        <v>-4572124.045653333</v>
+      </c>
+      <c r="G16" s="130">
         <f>G12+G13</f>
-        <v>-3714338.3348266669</v>
-      </c>
-      <c r="H16" s="138">
+        <v>-3879334.494826667</v>
+      </c>
+      <c r="H16" s="130">
         <f>H12+H13</f>
-        <v>-5428774.9223466665</v>
-      </c>
-      <c r="I16" s="139">
+        <v>-5593771.0823466666</v>
+      </c>
+      <c r="I16" s="131">
         <f>I12+I13+I15</f>
         <v>-6430810.1486399993</v>
       </c>
-      <c r="J16" s="119"/>
+      <c r="J16" s="115"/>
     </row>
     <row r="17" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="179" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="152"/>
-      <c r="C17" s="155">
+      <c r="B17" s="180"/>
+      <c r="C17" s="183">
         <v>1</v>
       </c>
-      <c r="D17" s="156"/>
-      <c r="E17" s="114">
+      <c r="D17" s="184"/>
+      <c r="E17" s="110">
         <v>1.08</v>
       </c>
-      <c r="F17" s="114">
+      <c r="F17" s="110">
         <v>1.1664000000000001</v>
       </c>
-      <c r="G17" s="114">
+      <c r="G17" s="110">
         <v>1.2597</v>
       </c>
-      <c r="H17" s="114">
+      <c r="H17" s="110">
         <v>1.3605</v>
       </c>
-      <c r="I17" s="130">
+      <c r="I17" s="122">
         <v>1.4693000000000001</v>
       </c>
-      <c r="J17" s="119"/>
+      <c r="J17" s="115"/>
     </row>
     <row r="18" spans="1:10" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="181" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="157">
+      <c r="B18" s="182"/>
+      <c r="C18" s="185">
         <f>C16/C17</f>
         <v>82498.079999999987</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="116">
+      <c r="D18" s="182"/>
+      <c r="E18" s="112">
         <f>E16/E17</f>
-        <v>-1431916.2778271595</v>
-      </c>
-      <c r="F18" s="116">
+        <v>-1584690.5000493817</v>
+      </c>
+      <c r="F18" s="112">
         <f t="shared" ref="F18:I18" si="4">F16/F17</f>
-        <v>-3778401.8224051204</v>
-      </c>
-      <c r="G18" s="116">
+        <v>-3919859.4355738447</v>
+      </c>
+      <c r="G18" s="112">
         <f t="shared" si="4"/>
-        <v>-2948589.6124685775</v>
-      </c>
-      <c r="H18" s="115">
+        <v>-3079570.1316398084</v>
+      </c>
+      <c r="H18" s="111">
         <f t="shared" si="4"/>
-        <v>-3990279.2520004897</v>
-      </c>
-      <c r="I18" s="113">
+        <v>-4111555.3710743599</v>
+      </c>
+      <c r="I18" s="109">
         <f t="shared" si="4"/>
         <v>-4376784.9647042807</v>
       </c>
@@ -4158,20 +4155,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C17:D17"/>
@@ -4188,6 +4171,20 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C14:I14 C16:I18 C15 E6:I15">
@@ -4228,1928 +4225,1928 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="210" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="212" t="s">
+      <c r="J6" s="217" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21">
         <f>B7*'Tablas Calculadas '!E20+C7*'Tablas Calculadas '!E21+F7*'Tablas Calculadas '!E39+G7*'Tablas Calculadas '!E40+'Tablas Calculadas '!E41*H7+D7*'Tablas Calculadas '!E27+E7*'Tablas Calculadas '!E33</f>
         <v>0</v>
       </c>
-      <c r="J7" s="213"/>
+      <c r="J7" s="218"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="23">
         <v>1</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <v>4</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="24">
         <v>2</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24">
         <v>1</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30">
+      <c r="H8" s="25"/>
+      <c r="I8" s="26">
         <f>B8*'Tablas Calculadas '!E20+C8*'Tablas Calculadas '!E22+F8*'Tablas Calculadas '!E42+G8*'Tablas Calculadas '!E43+'Tablas Calculadas '!E44*H8+D8*'Tablas Calculadas '!E28+E8*'Tablas Calculadas '!E34</f>
         <v>13372552.334933333</v>
       </c>
-      <c r="J8" s="213"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24">
         <v>5</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="24">
         <v>2</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="24">
         <v>1</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30">
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26">
         <f>B9*'Tablas Calculadas '!E20+C9*'Tablas Calculadas '!E23+F9*'Tablas Calculadas '!E45+G9*'Tablas Calculadas '!E46+H9*'Tablas Calculadas '!E47+D9*'Tablas Calculadas '!E29+E9*'Tablas Calculadas '!E35</f>
         <v>3057963.2529333332</v>
       </c>
-      <c r="J9" s="213"/>
+      <c r="J9" s="218"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24">
         <v>4</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="24">
         <v>2</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="24">
         <v>2</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="25">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="21">
         <f>B10*'Tablas Calculadas '!E20+C10*'Tablas Calculadas '!E24+F10*'Tablas Calculadas '!E48+'Tablas Calculadas '!E49*G10+H10*'Tablas Calculadas '!E50+D10*'Tablas Calculadas '!E30+E10*'Tablas Calculadas '!E36</f>
         <v>4532030.391466666</v>
       </c>
-      <c r="J10" s="213"/>
+      <c r="J10" s="218"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29">
         <v>2</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="29">
         <v>3</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="29">
         <v>2</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31">
         <f>B11*'Tablas Calculadas '!E20+C11*'Tablas Calculadas '!E25+F11*'Tablas Calculadas '!E51+'Tablas Calculadas '!E52*G11+H11*'Tablas Calculadas '!E53+D11*'Tablas Calculadas '!E31+E11*'Tablas Calculadas '!E37</f>
         <v>5526691.8570666667</v>
       </c>
-      <c r="J11" s="213"/>
+      <c r="J11" s="218"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34">
         <v>4</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="34">
         <v>2</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="34">
         <v>1</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="148">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="140">
         <f>B12*'Tablas Calculadas '!E20+C12*'Tablas Calculadas '!E26+F12*'Tablas Calculadas '!E54+'Tablas Calculadas '!E55*G12+H12*'Tablas Calculadas '!E56+D12*'Tablas Calculadas '!E32+E12*'Tablas Calculadas '!E38</f>
         <v>4176815.5392</v>
       </c>
-      <c r="J12" s="213"/>
+      <c r="J12" s="218"/>
     </row>
     <row r="13" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="37">
         <f>SUM(B7:B11)*'Tablas Calculadas '!E20</f>
         <v>4435410</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="37">
         <f>C7*'Tablas Calculadas '!E21+C8*'Tablas Calculadas '!E22+C9*'Tablas Calculadas '!E23+C10*'Tablas Calculadas '!E24+C11*'Tablas Calculadas '!E25</f>
         <v>1891548.15</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="37">
         <f>D7*'Tablas Calculadas '!E27+D8*'Tablas Calculadas '!E28+D9*'Tablas Calculadas '!E29+D10*'Tablas Calculadas '!E30+D11*'Tablas Calculadas '!E31</f>
         <v>5094503.2256000005</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="38">
         <f>E7*'Tablas Calculadas '!E33+E8*'Tablas Calculadas '!E34+E9*'Tablas Calculadas '!E35+E10*'Tablas Calculadas '!E36+E11*'Tablas Calculadas '!E37</f>
         <v>7498801.036799999</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="38">
         <f>F7*'Tablas Calculadas '!E39+F8*'Tablas Calculadas '!E42+F9*'Tablas Calculadas '!E45+F10*'Tablas Calculadas '!E48+F11*'Tablas Calculadas '!E51</f>
         <v>0</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="38">
         <f>G7*'Tablas Calculadas '!E40+G8*'Tablas Calculadas '!E43+G9*'Tablas Calculadas '!E46+G10*'Tablas Calculadas '!E49+G11*'Tablas Calculadas '!E52</f>
         <v>7568975.4239999987</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="38">
         <f>H7*'Tablas Calculadas '!E41+H8*'Tablas Calculadas '!E44+H9*'Tablas Calculadas '!E47+H10*'Tablas Calculadas '!E50+H11*'Tablas Calculadas '!E53</f>
         <v>0</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="39">
         <f>SUM(I7:I12)</f>
         <v>30666053.375600003</v>
       </c>
-      <c r="J13" s="213"/>
+      <c r="J13" s="218"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="207" t="s">
+      <c r="A18" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="208"/>
-      <c r="C18" s="209" t="s">
+      <c r="B18" s="213"/>
+      <c r="C18" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="210"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="43">
         <f>(Constantes!C22*(1+((Constantes!D22/100)*0))+ Constantes!C23*(1+((Constantes!D23/100)*0)) + Constantes!C24*(1+((Constantes!D24/100)*0)))*Constantes!B29*7</f>
         <v>281960</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="43">
         <f>(('Tablas Calculadas '!C61-C43)/12)*7</f>
         <v>3266368</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="44">
         <v>25</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="45">
         <f t="shared" ref="E20:E56" si="0">SUM(B20:C20)*(1+(D20/100))</f>
         <v>4435410</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="47">
         <f>('Tablas Calculadas '!B60/(12*30))*(Constantes!$C$13+2)</f>
         <v>13426.666666666668</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="48">
         <f>(Constantes!$B$13*Constantes!$B$39*Constantes!B29*Constantes!$C$13)+(Constantes!$B$13*(Constantes!$B$38*(1+Constantes!$E$6))*Constantes!B29*Constantes!$D$13)</f>
         <v>61440</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="20">
         <v>25</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="49">
         <f t="shared" si="0"/>
         <v>93583.333333333343</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="47">
         <f>('Tablas Calculadas '!B61/(12*30))*(Constantes!$C$13+2)</f>
         <v>16246.586666666662</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="48">
         <f>(Constantes!$B$13*Constantes!$B$39*Constantes!B30*Constantes!$C$13)+(Constantes!$B$13*(Constantes!$B$38*(1+Constantes!$E$6))*Constantes!B30*Constantes!$D$13)</f>
         <v>70656</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="20">
         <v>25</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="51">
         <f t="shared" si="0"/>
         <v>108628.23333333334</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="47">
         <f>('Tablas Calculadas '!B62/(12*30))*(Constantes!$C$13+2)</f>
         <v>18718.893333333333</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="48">
         <f>(Constantes!$B$13*Constantes!$B$39*Constantes!B31*Constantes!$C$13)+(Constantes!$B$13*(Constantes!$B$38*(1+Constantes!$E$6))*Constantes!B31*Constantes!$D$13)</f>
         <v>81408</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="20">
         <v>25</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="51">
         <f t="shared" si="0"/>
         <v>125158.61666666667</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="47">
         <f>('Tablas Calculadas '!B63/(12*30))*(Constantes!$C$13+2)</f>
         <v>19778.453333333335</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="48">
         <f>(Constantes!$B$13*Constantes!$B$39*Constantes!B32*Constantes!$C$13)+(Constantes!$B$13*(Constantes!$B$38*(1+Constantes!$E$6))*Constantes!B32*Constantes!$D$13)</f>
         <v>86016</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="20">
         <v>25</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="51">
         <f t="shared" si="0"/>
         <v>132243.06666666668</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="145">
+      <c r="B25" s="137">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$13+2)</f>
         <v>22603.946666666667</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="58">
         <f>(Constantes!$B$13*Constantes!$B$39*Constantes!B33*Constantes!$C$13)+(Constantes!$B$13*(Constantes!$B$38*(1+Constantes!$E$6))*Constantes!B33*Constantes!$D$13)</f>
         <v>98304</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="25">
         <v>25</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="51">
         <f t="shared" si="0"/>
         <v>151134.93333333335</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="141">
+      <c r="B26" s="133">
         <f>('Tablas Calculadas '!B65/(12*30))*(Constantes!$C$13+2)</f>
         <v>26842.186666666668</v>
       </c>
-      <c r="C26" s="142">
+      <c r="C26" s="134">
         <f>(Constantes!$B$13*Constantes!$B$39*Constantes!B34*Constantes!$C$13)+(Constantes!$B$13*(Constantes!$B$38*(1+Constantes!$E$6))*Constantes!B34*Constantes!$D$13)</f>
         <v>116736</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="35">
         <v>20</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="54">
         <f t="shared" si="0"/>
         <v>172293.82399999999</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="47">
         <f>('Tablas Calculadas '!B60/(12*30))*(Constantes!$C$14+2)</f>
         <v>29538.666666666668</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="48">
         <f>(Constantes!$B$14*Constantes!$B$39*Constantes!B29*Constantes!$C$14)+(Constantes!$B$14*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B29*Constantes!$D$14)</f>
         <v>307200</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="20">
         <v>20</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="49">
         <f t="shared" si="0"/>
         <v>404086.4</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="47">
         <f>('Tablas Calculadas '!B61/(12*30))*(Constantes!$C$14+2)</f>
         <v>35742.490666666657</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="48">
         <f>(Constantes!$B$14*Constantes!$B$39*Constantes!B30*Constantes!$C$14)+(Constantes!$B$14*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B30*Constantes!$D$14)</f>
         <v>353280</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="20">
         <v>20</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="51">
         <f t="shared" si="0"/>
         <v>466826.98879999999</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="47">
         <f>('Tablas Calculadas '!B62/(12*30))*(Constantes!$C$14+2)</f>
         <v>41181.565333333339</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="48">
         <f>(Constantes!$B$14*Constantes!$B$39*Constantes!B31*Constantes!$C$14)+(Constantes!$B$14*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B31*Constantes!$D$14)</f>
         <v>407040</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="20">
         <v>20</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="51">
         <f t="shared" si="0"/>
         <v>537865.87839999993</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="47">
         <f>('Tablas Calculadas '!B63/(12*30))*(Constantes!$C$14+2)</f>
         <v>43512.597333333339</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="48">
         <f>(Constantes!$B$14*Constantes!$B$39*Constantes!B32*Constantes!$C$14)+(Constantes!$B$14*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B32*Constantes!$D$14)</f>
         <v>430080</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="20">
         <v>20</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="51">
         <f t="shared" si="0"/>
         <v>568311.11679999996</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="145">
+      <c r="B31" s="137">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$14+2)</f>
         <v>49728.682666666668</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="58">
         <f>(Constantes!$B$14*Constantes!$B$39*Constantes!B33*Constantes!$C$14)+(Constantes!$B$14*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B33*Constantes!$D$14)</f>
         <v>491520</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="25">
         <v>20</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="51">
         <f t="shared" si="0"/>
         <v>649498.4192</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="141">
+      <c r="B32" s="133">
         <f>('Tablas Calculadas '!B65/(12*30))*(Constantes!$C$14+2)</f>
         <v>59052.810666666664</v>
       </c>
-      <c r="C32" s="142">
+      <c r="C32" s="134">
         <f>(Constantes!$B$14*Constantes!$B$39*Constantes!B34*Constantes!$C$14)+(Constantes!$B$14*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B34*Constantes!$D$14)</f>
         <v>583680</v>
       </c>
-      <c r="D32" s="143">
+      <c r="D32" s="135">
         <v>20</v>
       </c>
-      <c r="E32" s="144">
+      <c r="E32" s="136">
         <f t="shared" si="0"/>
         <v>771279.37280000001</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="47">
         <f>('Tablas Calculadas '!B60/(12*30))*(Constantes!$C$15+2)</f>
         <v>32224</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="48">
         <f>(Constantes!$B$15*Constantes!$B$39*Constantes!B29*Constantes!$C$15)+(Constantes!$B$15*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B29*Constantes!$D$15)</f>
         <v>819200</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="20">
         <v>20</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="49">
         <f t="shared" si="0"/>
         <v>1021708.7999999999</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="47">
         <f>('Tablas Calculadas '!B61/(12*30))*(Constantes!$C$15+2)</f>
         <v>38991.80799999999</v>
       </c>
-      <c r="C34" s="62">
+      <c r="C34" s="58">
         <f>(Constantes!$B$15*Constantes!$B$39*Constantes!B30*Constantes!$C$15)+(Constantes!$B$15*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B30*Constantes!$D$15)</f>
         <v>942080</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="25">
         <v>20</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="51">
         <f t="shared" si="0"/>
         <v>1177286.1695999999</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="47">
         <f>('Tablas Calculadas '!B62/(12*30))*(Constantes!$C$15+2)</f>
         <v>44925.344000000005</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="58">
         <f>(Constantes!$B$15*Constantes!$B$39*Constantes!B31*Constantes!$C$15)+(Constantes!$B$15*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B31*Constantes!$D$15)</f>
         <v>1085440</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="25">
         <v>20</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="51">
         <f t="shared" si="0"/>
         <v>1356438.4128</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="47">
         <f>('Tablas Calculadas '!B63/(12*30))*(Constantes!$C$15+2)</f>
         <v>47468.288</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="58">
         <f>(Constantes!$B$15*Constantes!$B$39*Constantes!B32*Constantes!$C$15)+(Constantes!$B$15*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B32*Constantes!$D$15)</f>
         <v>1146880</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="25">
         <v>20</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="51">
         <f t="shared" si="0"/>
         <v>1433217.9456</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="59">
         <f>('Tablas Calculadas '!B64/(12*30))*(Constantes!$C$15+2)</f>
         <v>54249.471999999994</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="60">
         <f>(Constantes!$B$15*Constantes!$B$39*Constantes!B33*Constantes!$C$15)+(Constantes!$B$15*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B33*Constantes!$D$15)</f>
         <v>1310720</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="61">
         <v>20</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="62">
         <f t="shared" si="0"/>
         <v>1637963.3663999999</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="59">
         <f>('Tablas Calculadas '!B65/(12*30))*(Constantes!$C$15+2)</f>
         <v>64421.248</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="60">
         <f>(Constantes!$B$15*Constantes!$B$39*Constantes!B34*Constantes!$C$15)+(Constantes!$B$15*(Constantes!$B$39*(1+Constantes!$E$6))*Constantes!B34*Constantes!$D$15)</f>
         <v>1556480</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="55">
         <v>20</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E38" s="56">
         <f t="shared" si="0"/>
         <v>1945081.4975999999</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="51">
+      <c r="B39" s="47">
         <f>'Tablas Calculadas '!B60/12*2</f>
         <v>80560</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="48">
         <f>Constantes!B8*Constantes!B29</f>
         <v>3240000</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="55">
         <v>20</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="56">
         <f t="shared" si="0"/>
         <v>3984672</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="69">
+      <c r="B40" s="65">
         <f>'Tablas Calculadas '!B60/12*2</f>
         <v>80560</v>
       </c>
-      <c r="C40" s="62">
+      <c r="C40" s="58">
         <f>Constantes!B9*Constantes!B29</f>
         <v>5400000</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="30">
         <v>20</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="66">
         <f t="shared" si="0"/>
         <v>6576672</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="52">
         <f>'Tablas Calculadas '!B60/12*2</f>
         <v>80560</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="53">
         <f>Constantes!B10*Constantes!B29</f>
         <v>7760000</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="35">
         <v>20</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="54">
         <f t="shared" si="0"/>
         <v>9408672</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="47">
         <f>'Tablas Calculadas '!B61/12*2</f>
         <v>97479.519999999975</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="48">
         <f>Constantes!B8*Constantes!$B$30</f>
         <v>3726000</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="30">
         <v>20</v>
       </c>
-      <c r="E42" s="70">
+      <c r="E42" s="66">
         <f t="shared" si="0"/>
         <v>4588175.4239999996</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="69">
+      <c r="B43" s="65">
         <f>'Tablas Calculadas '!B61/12*2</f>
         <v>97479.519999999975</v>
       </c>
-      <c r="C43" s="62">
+      <c r="C43" s="58">
         <f>Constantes!B9*Constantes!$B$30</f>
         <v>6210000</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="30">
         <v>20</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="66">
         <f t="shared" si="0"/>
         <v>7568975.4239999987</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="52">
         <f>'Tablas Calculadas '!B61/12*2</f>
         <v>97479.519999999975</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="53">
         <f>Constantes!B10*Constantes!$B$30</f>
         <v>8924000</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="35">
         <v>20</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="54">
         <f t="shared" si="0"/>
         <v>10825775.423999999</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="51">
+      <c r="B45" s="47">
         <f>'Tablas Calculadas '!$B$62/12*2</f>
         <v>112313.36</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="48">
         <f>Constantes!B8*Constantes!$B$31</f>
         <v>4293000</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="30">
         <v>20</v>
       </c>
-      <c r="E45" s="70">
+      <c r="E45" s="66">
         <f t="shared" si="0"/>
         <v>5286376.0320000006</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="69">
+      <c r="B46" s="65">
         <f>'Tablas Calculadas '!$B$62/12*2</f>
         <v>112313.36</v>
       </c>
-      <c r="C46" s="62">
+      <c r="C46" s="58">
         <f>Constantes!B9*Constantes!$B$31</f>
         <v>7155000</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="30">
         <v>20</v>
       </c>
-      <c r="E46" s="70">
+      <c r="E46" s="66">
         <f t="shared" si="0"/>
         <v>8720776.0319999997</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="56">
+      <c r="B47" s="52">
         <f>'Tablas Calculadas '!$B$62/12*2</f>
         <v>112313.36</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="53">
         <f>Constantes!B10*Constantes!$B$31</f>
         <v>10282000</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="35">
         <v>20</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="54">
         <f t="shared" si="0"/>
         <v>12473176.032</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="47">
         <f>'Tablas Calculadas '!$B$63/12*2</f>
         <v>118670.72000000002</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="48">
         <f>Constantes!B8*Constantes!$B$32</f>
         <v>4536000</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="30">
         <v>20</v>
       </c>
-      <c r="E48" s="70">
+      <c r="E48" s="66">
         <f t="shared" si="0"/>
         <v>5585604.8639999991</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="69">
+      <c r="B49" s="65">
         <f>'Tablas Calculadas '!$B$63/12*2</f>
         <v>118670.72000000002</v>
       </c>
-      <c r="C49" s="62">
+      <c r="C49" s="58">
         <f>Constantes!B9*Constantes!$B$32</f>
         <v>7560000</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="30">
         <v>20</v>
       </c>
-      <c r="E49" s="70">
+      <c r="E49" s="66">
         <f t="shared" si="0"/>
         <v>9214404.8640000001</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="56">
+      <c r="B50" s="52">
         <f>'Tablas Calculadas '!$B$63/12*2</f>
         <v>118670.72000000002</v>
       </c>
-      <c r="C50" s="57">
+      <c r="C50" s="53">
         <f>Constantes!B10*Constantes!$B$32</f>
         <v>10864000</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="35">
         <v>20</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="54">
         <f t="shared" si="0"/>
         <v>13179204.864</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="51">
+      <c r="B51" s="47">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C51" s="48">
         <f>Constantes!B8*Constantes!$B$33</f>
         <v>5184000</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D51" s="30">
         <v>20</v>
       </c>
-      <c r="E51" s="70">
+      <c r="E51" s="66">
         <f t="shared" si="0"/>
         <v>6383548.4159999993</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="69">
+      <c r="B52" s="65">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C52" s="62">
+      <c r="C52" s="58">
         <f>Constantes!B9*Constantes!$B$33</f>
         <v>8640000</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="30">
         <v>20</v>
       </c>
-      <c r="E52" s="70">
+      <c r="E52" s="66">
         <f t="shared" si="0"/>
         <v>10530748.415999999</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B53" s="52">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C53" s="57">
+      <c r="C53" s="53">
         <f>Constantes!B10*Constantes!$B$33</f>
         <v>12416000</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="35">
         <v>20</v>
       </c>
-      <c r="E53" s="58">
+      <c r="E53" s="54">
         <f t="shared" si="0"/>
         <v>15061948.415999999</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="51">
+      <c r="B54" s="47">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C54" s="52">
+      <c r="C54" s="48">
         <f>Constantes!B8*Constantes!$B$33</f>
         <v>5184000</v>
       </c>
-      <c r="D54" s="34">
+      <c r="D54" s="30">
         <v>20</v>
       </c>
-      <c r="E54" s="70">
+      <c r="E54" s="66">
         <f t="shared" si="0"/>
         <v>6383548.4159999993</v>
       </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="69">
+      <c r="B55" s="65">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C55" s="62">
+      <c r="C55" s="58">
         <f>Constantes!B9*Constantes!$B$33</f>
         <v>8640000</v>
       </c>
-      <c r="D55" s="34">
+      <c r="D55" s="30">
         <v>20</v>
       </c>
-      <c r="E55" s="70">
+      <c r="E55" s="66">
         <f t="shared" si="0"/>
         <v>10530748.415999999</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="56">
+      <c r="B56" s="52">
         <f>'Tablas Calculadas '!$B$64/12*2</f>
         <v>135623.67999999999</v>
       </c>
-      <c r="C56" s="57">
+      <c r="C56" s="53">
         <f>Constantes!B10*Constantes!$B$33</f>
         <v>12416000</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="35">
         <v>20</v>
       </c>
-      <c r="E56" s="58">
+      <c r="E56" s="54">
         <f t="shared" si="0"/>
         <v>15061948.415999999</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="69">
+      <c r="B60" s="65">
         <f>(Constantes!C22*(1+((Constantes!D22/100)*0))+ Constantes!C23*(1+((Constantes!D23/100)*0)) + Constantes!C24*(1+((Constantes!D24/100)*0)))*Constantes!B29*12</f>
         <v>483360</v>
       </c>
-      <c r="C60" s="62">
+      <c r="C60" s="58">
         <f>Constantes!B43*12+(Constantes!B49*Constantes!B29+Constantes!B50*Constantes!B29+Constantes!B51*Constantes!B29)*12 +'Tablas Calculadas '!F7*'Tablas Calculadas '!C39+'Tablas Calculadas '!G7*'Tablas Calculadas '!C40+'Tablas Calculadas '!H7*'Tablas Calculadas '!C41 + 'Tablas Calculadas '!B72</f>
         <v>4592640</v>
       </c>
-      <c r="D60" s="72">
+      <c r="D60" s="68">
         <f t="shared" ref="D60:D66" si="1">SUM(B60:C60)</f>
         <v>5076000</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="69">
+      <c r="B61" s="65">
         <f>(((Constantes!$C$22*(1+((Constantes!$D$22/100)*1)))+ (Constantes!$C$23*(1+((Constantes!$D$23/100)*1))) + (Constantes!$C$24*(1+((Constantes!$D$24/100)*1))))*Constantes!B30*12)*((1+Constantes!$C$17)^1)</f>
         <v>584877.11999999988</v>
       </c>
-      <c r="C61" s="62">
+      <c r="C61" s="58">
         <f>(Constantes!B44*12+(Constantes!$B$49*Constantes!B30+Constantes!$B$50*Constantes!B30+Constantes!B51*Constantes!B30)*12) +'Tablas Calculadas '!F8*'Tablas Calculadas '!C42+'Tablas Calculadas '!G8*'Tablas Calculadas '!C43+'Tablas Calculadas '!H8*'Tablas Calculadas '!C44 +'Tablas Calculadas '!B73</f>
         <v>11809488</v>
       </c>
-      <c r="D61" s="72">
+      <c r="D61" s="68">
         <f t="shared" si="1"/>
         <v>12394365.119999999</v>
       </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="69">
+      <c r="B62" s="65">
         <f>(((Constantes!$C$22*(1+((Constantes!$D$22/100)*1)))+ (Constantes!$C$23*(1+((Constantes!$D$23/100)*1))) + (Constantes!$C$24*(1+((Constantes!$D$24/100)*1))))*Constantes!B31*12)*((1+Constantes!$C$17)^2)</f>
         <v>673880.16</v>
       </c>
-      <c r="C62" s="62">
+      <c r="C62" s="58">
         <f>(Constantes!B45*12+(Constantes!$B$49*Constantes!B31+Constantes!$B$50*Constantes!B31+Constantes!B51*Constantes!B31)*12) +('Tablas Calculadas '!F9*'Tablas Calculadas '!C45+'Tablas Calculadas '!G9*'Tablas Calculadas '!C46+'Tablas Calculadas '!H9*'Tablas Calculadas '!C47) +'Tablas Calculadas '!B74</f>
         <v>6329472</v>
       </c>
-      <c r="D62" s="72">
+      <c r="D62" s="68">
         <f t="shared" si="1"/>
         <v>7003352.1600000001</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
     </row>
     <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="69">
+      <c r="B63" s="65">
         <f>(((Constantes!$C$22*(1+((Constantes!$D$22/100)*1)))+ (Constantes!$C$23*(1+((Constantes!$D$23/100)*1))) + (Constantes!$C$24*(1+((Constantes!$D$24/100)*1))))*Constantes!B32*12)*((1+Constantes!$C$17)^3)</f>
         <v>712024.32000000007</v>
       </c>
-      <c r="C63" s="62">
+      <c r="C63" s="58">
         <f>(Constantes!B46*12+(Constantes!$B$49*Constantes!B32+Constantes!$B$50*Constantes!B32)*12)+('Tablas Calculadas '!F10*'Tablas Calculadas '!C48+'Tablas Calculadas '!G10*'Tablas Calculadas '!C49+'Tablas Calculadas '!H10*'Tablas Calculadas '!C50) +'Tablas Calculadas '!B75</f>
         <v>6777792</v>
       </c>
-      <c r="D63" s="72">
+      <c r="D63" s="68">
         <f t="shared" si="1"/>
         <v>7489816.3200000003</v>
       </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="69">
+      <c r="B64" s="65">
         <f>(((Constantes!$C$22*(1+((Constantes!$D$22/100)*1)))+ (Constantes!$C$23*(1+((Constantes!$D$23/100)*1))) + (Constantes!$C$24*(1+((Constantes!$D$24/100)*1))))*Constantes!B33*12)*((1+Constantes!$C$17)^4)</f>
         <v>813742.07999999996</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C64" s="58">
         <f>(Constantes!B48*12+(Constantes!$B$49*Constantes!B33+Constantes!$B$50*Constantes!B33+Constantes!B51*Constantes!B33)*12)+('Tablas Calculadas '!F11*'Tablas Calculadas '!C51+'Tablas Calculadas '!G11*'Tablas Calculadas '!C52+'Tablas Calculadas '!H11*'Tablas Calculadas '!C53) +'Tablas Calculadas '!B76</f>
         <v>9186240</v>
       </c>
-      <c r="D64" s="72">
+      <c r="D64" s="68">
         <f t="shared" si="1"/>
         <v>9999982.0800000001</v>
       </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="69">
+      <c r="B65" s="65">
         <f>(((Constantes!$C$22*(1+((Constantes!$D$22/100)*1)))+ (Constantes!$C$23*(1+((Constantes!$D$23/100)*1))) + (Constantes!$C$24*(1+((Constantes!$D$24/100)*1))))*Constantes!B34*12)*((1+Constantes!$C$17)^4)</f>
         <v>966318.72</v>
       </c>
-      <c r="C65" s="62">
+      <c r="C65" s="58">
         <f>(Constantes!B48*12+(Constantes!$B$49*Constantes!B34+Constantes!$B$50*Constantes!B33+Constantes!B51*Constantes!B33)*12)+('Tablas Calculadas '!F12*'Tablas Calculadas '!C54+'Tablas Calculadas '!G12*'Tablas Calculadas '!C55+'Tablas Calculadas '!H12*'Tablas Calculadas '!C56) +'Tablas Calculadas '!B77</f>
         <v>8968224</v>
       </c>
-      <c r="D65" s="72">
+      <c r="D65" s="68">
         <f t="shared" si="1"/>
         <v>9934542.7200000007</v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
     </row>
     <row r="66" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="74" t="s">
+      <c r="A66" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="75">
+      <c r="B66" s="71">
         <f>SUM(B60:B64)</f>
         <v>3267883.6799999997</v>
       </c>
-      <c r="C66" s="76">
+      <c r="C66" s="72">
         <f>SUM(C60:C64)</f>
         <v>38695632</v>
       </c>
-      <c r="D66" s="77">
+      <c r="D66" s="73">
         <f t="shared" si="1"/>
         <v>41963515.68</v>
       </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
     </row>
     <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
     </row>
     <row r="70" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="214" t="s">
+      <c r="A71" s="219" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="215"/>
-      <c r="C71" s="78" t="s">
+      <c r="B71" s="220"/>
+      <c r="C71" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="80">
+      <c r="B72" s="76">
         <f>('Tablas Calculadas '!C7*Constantes!$D$13*Constantes!$B$13+'Tablas Calculadas '!$D$7*Constantes!D14*Constantes!$B$14+'Tablas Calculadas '!E7*Constantes!$D$15*Constantes!$B$15)*(Constantes!$B$38*(1+Constantes!$E$6)*Constantes!B29)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="81"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="82">
+      <c r="B73" s="78">
         <f>('Tablas Calculadas '!C8*Constantes!$D$13*Constantes!$B$13+'Tablas Calculadas '!$D$8*Constantes!D15*Constantes!$B$14+'Tablas Calculadas '!E8*Constantes!$D$15*Constantes!$B$15)*(Constantes!$B$38*(1+Constantes!$E$6)*Constantes!B30)</f>
         <v>317952</v>
       </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="82">
+      <c r="B74" s="78">
         <f>('Tablas Calculadas '!C9*Constantes!$D$13*Constantes!$B$13+'Tablas Calculadas '!$D$7*Constantes!D16*Constantes!$B$14+'Tablas Calculadas '!E9*Constantes!$D$15*Constantes!$B$15)*(Constantes!$B$38*(1+Constantes!$E$6)*Constantes!B31)</f>
         <v>244224</v>
       </c>
-      <c r="C74" s="81"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="82">
+      <c r="B75" s="78">
         <f>('Tablas Calculadas '!C10*Constantes!$D$13*Constantes!$B$13+'Tablas Calculadas '!$D$10*Constantes!D14*Constantes!$B$14+'Tablas Calculadas '!E10*Constantes!$D$15*Constantes!$B$15)*(Constantes!$B$38*(1+Constantes!$E$6)*Constantes!B32)</f>
         <v>516096</v>
       </c>
-      <c r="C75" s="81"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
     </row>
     <row r="76" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="83">
+      <c r="B76" s="79">
         <f>('Tablas Calculadas '!C11*Constantes!$D$13*Constantes!$B$13+'Tablas Calculadas '!$D$11*Constantes!D14*Constantes!$B$14+'Tablas Calculadas '!E11*Constantes!$D$15*Constantes!$B$15)*(Constantes!$B$38*(1+Constantes!$E$6)*Constantes!B33)</f>
         <v>589824</v>
       </c>
-      <c r="C76" s="81"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
     </row>
     <row r="77" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="83">
+      <c r="B77" s="79">
         <f>('Tablas Calculadas '!C12*Constantes!$D$13*Constantes!$B$13+'Tablas Calculadas '!$D$12*Constantes!D19*Constantes!$B$14+'Tablas Calculadas '!E12*Constantes!$D$15*Constantes!$B$15)*(Constantes!$B$38*(1+Constantes!$E$6)*Constantes!B34)</f>
         <v>350208</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="82" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H82" s="17"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H83" s="17"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H84" s="17"/>
+      <c r="H84" s="13"/>
     </row>
     <row r="85" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H85" s="17"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H86" s="17"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H87" s="17"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H88" s="17"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H89" s="17"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H90" s="17"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H91" s="17"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H92" s="17"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H93" s="17"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H94" s="17"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H95" s="17"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H96" s="17"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H97" s="17"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H98" s="17"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H99" s="17"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H100" s="17"/>
+      <c r="H100" s="13"/>
     </row>
     <row r="101" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H101" s="17"/>
+      <c r="H101" s="13"/>
     </row>
     <row r="102" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H102" s="17"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H103" s="17"/>
+      <c r="H103" s="13"/>
     </row>
     <row r="104" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H104" s="17"/>
+      <c r="H104" s="13"/>
     </row>
     <row r="105" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H105" s="17"/>
+      <c r="H105" s="13"/>
     </row>
     <row r="106" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H106" s="17"/>
+      <c r="H106" s="13"/>
     </row>
     <row r="107" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H107" s="17"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H108" s="17"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H109" s="17"/>
+      <c r="H109" s="13"/>
     </row>
     <row r="110" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H110" s="17"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H111" s="17"/>
+      <c r="H111" s="13"/>
     </row>
     <row r="112" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H112" s="17"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H113" s="17"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H114" s="17"/>
+      <c r="H114" s="13"/>
     </row>
     <row r="115" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H115" s="17"/>
+      <c r="H115" s="13"/>
     </row>
     <row r="116" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H116" s="17"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H117" s="17"/>
+      <c r="H117" s="13"/>
     </row>
     <row r="118" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H118" s="17"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H119" s="17"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H120" s="17"/>
+      <c r="H120" s="13"/>
     </row>
     <row r="121" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H121" s="17"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H122" s="17"/>
+      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H123" s="17"/>
+      <c r="H123" s="13"/>
     </row>
     <row r="124" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H124" s="17"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H125" s="17"/>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H126" s="17"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H127" s="17"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H128" s="17"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H129" s="17"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H130" s="17"/>
+      <c r="H130" s="13"/>
     </row>
     <row r="131" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H131" s="17"/>
+      <c r="H131" s="13"/>
     </row>
     <row r="132" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H132" s="17"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H133" s="17"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H134" s="17"/>
+      <c r="H134" s="13"/>
     </row>
     <row r="135" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H135" s="17"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H136" s="17"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H137" s="17"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H138" s="17"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H139" s="17"/>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H140" s="17"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H141" s="17"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H142" s="17"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H143" s="17"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H144" s="17"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H145" s="17"/>
+      <c r="H145" s="13"/>
     </row>
     <row r="146" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H146" s="17"/>
+      <c r="H146" s="13"/>
     </row>
     <row r="147" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H147" s="17"/>
+      <c r="H147" s="13"/>
     </row>
     <row r="148" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H148" s="17"/>
+      <c r="H148" s="13"/>
     </row>
     <row r="149" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H149" s="17"/>
+      <c r="H149" s="13"/>
     </row>
     <row r="150" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H150" s="17"/>
+      <c r="H150" s="13"/>
     </row>
     <row r="151" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H151" s="17"/>
+      <c r="H151" s="13"/>
     </row>
     <row r="152" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H152" s="17"/>
+      <c r="H152" s="13"/>
     </row>
     <row r="153" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H153" s="17"/>
+      <c r="H153" s="13"/>
     </row>
     <row r="154" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H154" s="17"/>
+      <c r="H154" s="13"/>
     </row>
     <row r="155" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H155" s="17"/>
+      <c r="H155" s="13"/>
     </row>
     <row r="156" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H156" s="17"/>
+      <c r="H156" s="13"/>
     </row>
     <row r="157" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H157" s="17"/>
+      <c r="H157" s="13"/>
     </row>
     <row r="158" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H158" s="17"/>
+      <c r="H158" s="13"/>
     </row>
     <row r="159" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H159" s="17"/>
+      <c r="H159" s="13"/>
     </row>
     <row r="160" spans="8:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H160" s="17"/>
+      <c r="H160" s="13"/>
     </row>
     <row r="161" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H161" s="17"/>
+      <c r="H161" s="13"/>
     </row>
     <row r="162" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H162" s="17"/>
+      <c r="H162" s="13"/>
     </row>
     <row r="163" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H163" s="17"/>
+      <c r="H163" s="13"/>
     </row>
     <row r="164" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H164" s="17"/>
+      <c r="H164" s="13"/>
     </row>
     <row r="165" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H165" s="17"/>
+      <c r="H165" s="13"/>
     </row>
     <row r="166" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H166" s="17"/>
+      <c r="H166" s="13"/>
     </row>
     <row r="167" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6192,2187 +6189,2197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="235"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="223"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="214" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="219" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="84">
+      <c r="D6" s="220"/>
+      <c r="E6" s="80">
         <v>1</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="214" t="s">
+      <c r="A7" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="215"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="82">
         <v>81000</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="84">
         <v>135000</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="84">
         <v>194000</v>
       </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="18">
         <v>12</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="24">
         <v>8</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="88">
         <v>0</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="23">
         <v>24</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <v>20</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="64">
         <v>0</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="33">
         <v>32</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="34">
         <v>22</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="67">
         <v>9</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="81"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="232"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="B20" s="229"/>
+      <c r="C20" s="229"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="236" t="s">
+      <c r="A21" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="236"/>
-      <c r="C21" s="90" t="s">
+      <c r="B21" s="226"/>
+      <c r="C21" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="237" t="s">
+      <c r="A22" s="227" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="238"/>
-      <c r="C22" s="97">
+      <c r="B22" s="228"/>
+      <c r="C22" s="93">
         <v>657</v>
       </c>
-      <c r="D22" s="92">
+      <c r="D22" s="88">
         <v>8</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="221" t="s">
+      <c r="A23" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="222"/>
-      <c r="C23" s="98">
+      <c r="B23" s="225"/>
+      <c r="C23" s="94">
         <v>200</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="64">
         <v>0</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="221" t="s">
+      <c r="A24" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="222"/>
-      <c r="C24" s="98">
+      <c r="B24" s="225"/>
+      <c r="C24" s="94">
         <v>150</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="64">
         <v>0</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="223" t="s">
+      <c r="A25" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="224"/>
-      <c r="C25" s="99">
+      <c r="B25" s="234"/>
+      <c r="C25" s="95">
         <f>SUM(C22:C24)</f>
         <v>1007</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="214" t="s">
+      <c r="A27" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="215"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="132">
+      <c r="A29" s="124">
         <v>0</v>
       </c>
-      <c r="B29" s="100">
+      <c r="B29" s="96">
         <v>40</v>
       </c>
-      <c r="C29" s="225" t="s">
+      <c r="C29" s="235" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="110">
+      <c r="A30" s="106">
         <v>1</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="68">
         <v>46</v>
       </c>
-      <c r="C30" s="226"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="110">
+      <c r="A31" s="106">
         <v>2</v>
       </c>
-      <c r="B31" s="72">
+      <c r="B31" s="68">
         <v>53</v>
       </c>
-      <c r="C31" s="226"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="C31" s="236"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="110">
+      <c r="A32" s="106">
         <v>3</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="68">
         <v>56</v>
       </c>
-      <c r="C32" s="226"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="C32" s="236"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="110">
+      <c r="A33" s="106">
         <v>4</v>
       </c>
-      <c r="B33" s="72">
+      <c r="B33" s="68">
         <v>64</v>
       </c>
-      <c r="C33" s="226"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="C33" s="236"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37">
+      <c r="A34" s="33">
         <v>5</v>
       </c>
-      <c r="B34" s="133">
+      <c r="B34" s="125">
         <v>76</v>
       </c>
-      <c r="C34" s="227"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="C34" s="237"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="214" t="s">
+      <c r="A37" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="215"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="146">
+      <c r="B38" s="138">
         <v>8</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="147">
+      <c r="B39" s="139">
         <v>16</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="104">
+      <c r="B40" s="100">
         <v>8</v>
       </c>
-      <c r="C40" s="219" t="s">
+      <c r="C40" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="104">
+      <c r="B41" s="100">
         <v>22</v>
       </c>
-      <c r="C41" s="220"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="C41" s="232"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="104">
+      <c r="B42" s="100">
         <v>5</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="72">
+      <c r="B43" s="68">
         <f t="shared" ref="B43:B48" si="0">($B$38*B29*$B$40*$B$41*$B$42)*(1+(SUM($B$52:$B$57)))</f>
         <v>346720</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="72">
+      <c r="B44" s="68">
         <f t="shared" si="0"/>
         <v>398728</v>
       </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="72">
+      <c r="B45" s="68">
         <f t="shared" si="0"/>
         <v>459404</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="72">
+      <c r="B46" s="68">
         <f t="shared" si="0"/>
         <v>485408</v>
       </c>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="72">
+      <c r="B47" s="68">
         <f t="shared" si="0"/>
         <v>554752</v>
       </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="72">
+      <c r="B48" s="68">
         <f t="shared" si="0"/>
         <v>658768</v>
       </c>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="103">
+      <c r="B49" s="99">
         <v>150</v>
       </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="103">
+      <c r="B50" s="99">
         <v>500</v>
       </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="103">
+      <c r="B51" s="99">
         <v>250</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="105">
+      <c r="B52" s="101">
         <v>0.03</v>
       </c>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="105">
+      <c r="B53" s="101">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="106">
+      <c r="B54" s="102">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="107">
+      <c r="B55" s="103">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="107">
+      <c r="B56" s="103">
         <v>1E-3</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="108" t="s">
+      <c r="A57" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="109">
+      <c r="B57" s="105">
         <v>0.05</v>
       </c>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="81"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="228" t="s">
+      <c r="A59" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="229"/>
-      <c r="C59" s="214" t="s">
+      <c r="B59" s="239"/>
+      <c r="C59" s="219" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="232"/>
-      <c r="E59" s="215"/>
-      <c r="F59" s="216" t="s">
+      <c r="D59" s="229"/>
+      <c r="E59" s="220"/>
+      <c r="F59" s="242" t="s">
         <v>181</v>
       </c>
-      <c r="G59" s="217"/>
-      <c r="H59" s="217"/>
-      <c r="I59" s="217"/>
-      <c r="J59" s="217"/>
-      <c r="K59" s="217"/>
-      <c r="L59" s="217"/>
-      <c r="M59" s="218"/>
+      <c r="G59" s="243"/>
+      <c r="H59" s="243"/>
+      <c r="I59" s="243"/>
+      <c r="J59" s="243"/>
+      <c r="K59" s="243"/>
+      <c r="L59" s="243"/>
+      <c r="M59" s="244"/>
     </row>
     <row r="60" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="230"/>
-      <c r="B60" s="231"/>
-      <c r="C60" s="214" t="s">
+      <c r="A60" s="240"/>
+      <c r="B60" s="241"/>
+      <c r="C60" s="219" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="232"/>
-      <c r="E60" s="232"/>
-      <c r="F60" s="232"/>
-      <c r="G60" s="232"/>
-      <c r="H60" s="232"/>
-      <c r="I60" s="232"/>
-      <c r="J60" s="232"/>
-      <c r="K60" s="232"/>
-      <c r="L60" s="232"/>
-      <c r="M60" s="215"/>
+      <c r="D60" s="229"/>
+      <c r="E60" s="229"/>
+      <c r="F60" s="229"/>
+      <c r="G60" s="229"/>
+      <c r="H60" s="229"/>
+      <c r="I60" s="229"/>
+      <c r="J60" s="229"/>
+      <c r="K60" s="229"/>
+      <c r="L60" s="229"/>
+      <c r="M60" s="220"/>
     </row>
     <row r="61" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="255" t="s">
+      <c r="A61" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="256" t="s">
+      <c r="B61" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="C61" s="257" t="s">
+      <c r="C61" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="258" t="s">
+      <c r="D61" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="E61" s="257" t="s">
+      <c r="E61" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="257" t="s">
+      <c r="F61" s="152" t="s">
         <v>190</v>
       </c>
-      <c r="G61" s="257" t="s">
+      <c r="G61" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="H61" s="258" t="s">
+      <c r="H61" s="153" t="s">
         <v>177</v>
       </c>
-      <c r="I61" s="257" t="s">
+      <c r="I61" s="152" t="s">
         <v>180</v>
       </c>
-      <c r="J61" s="252" t="s">
+      <c r="J61" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="K61" s="250" t="s">
+      <c r="K61" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="L61" s="251" t="s">
+      <c r="L61" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M61" s="252" t="s">
+      <c r="M61" s="147" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="132" t="s">
+      <c r="A62" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="253">
+      <c r="B62" s="148">
         <v>450</v>
       </c>
-      <c r="C62" s="259">
+      <c r="C62" s="154">
         <v>1</v>
       </c>
-      <c r="D62" s="253">
+      <c r="D62" s="148">
         <v>180</v>
       </c>
-      <c r="E62" s="79">
+      <c r="E62" s="75">
         <v>5</v>
       </c>
-      <c r="F62" s="253">
+      <c r="F62" s="148">
         <f t="shared" ref="F62:F90" si="1">IF(ISERROR((B62-D62)/E62),0,(B62-D62)/E62)</f>
         <v>54</v>
       </c>
-      <c r="G62" s="253">
+      <c r="G62" s="148">
         <f t="shared" ref="G62:G84" si="2">D62</f>
         <v>180</v>
       </c>
-      <c r="H62" s="253">
+      <c r="H62" s="148">
         <f t="shared" ref="H62:H84" si="3">B62-(F62*5)</f>
         <v>180</v>
       </c>
-      <c r="I62" s="253">
+      <c r="I62" s="148">
         <f>G62*0.25</f>
         <v>45</v>
       </c>
-      <c r="J62" s="260">
+      <c r="J62" s="155">
         <f>IF((G62-H62)&gt;0,(G62+I62),(G62-I62))</f>
         <v>135</v>
       </c>
-      <c r="K62" s="253">
+      <c r="K62" s="148">
         <f>F62*C62</f>
         <v>54</v>
       </c>
-      <c r="L62" s="253">
+      <c r="L62" s="148">
         <f>F62*C62</f>
         <v>54</v>
       </c>
-      <c r="M62" s="254">
+      <c r="M62" s="149">
         <f>J62*C62</f>
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="110" t="s">
+      <c r="A63" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="88">
+      <c r="B63" s="84">
         <v>125</v>
       </c>
-      <c r="C63" s="149">
+      <c r="C63" s="141">
         <v>1</v>
       </c>
-      <c r="D63" s="88">
+      <c r="D63" s="84">
         <v>40</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="24">
         <v>5</v>
       </c>
-      <c r="F63" s="88">
+      <c r="F63" s="84">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G63" s="88">
+      <c r="G63" s="84">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H63" s="88">
+      <c r="H63" s="84">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I63" s="88">
+      <c r="I63" s="84">
         <f t="shared" ref="I63:I90" si="4">G63*0.25</f>
         <v>10</v>
       </c>
-      <c r="J63" s="248">
+      <c r="J63" s="143">
         <f t="shared" ref="J63:J90" si="5">IF((G63-H63)&gt;0,(G63+I63),(G63-I63))</f>
         <v>30</v>
       </c>
-      <c r="K63" s="88">
+      <c r="K63" s="84">
         <f t="shared" ref="K63:K90" si="6">F63*C63</f>
         <v>17</v>
       </c>
-      <c r="L63" s="88">
+      <c r="L63" s="84">
         <f t="shared" ref="L63:L90" si="7">F63*C63</f>
         <v>17</v>
       </c>
-      <c r="M63" s="103">
+      <c r="M63" s="99">
         <f t="shared" ref="M63:M90" si="8">J63*C63</f>
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="110" t="s">
+      <c r="A64" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="88">
+      <c r="B64" s="84">
         <v>66</v>
       </c>
-      <c r="C64" s="149">
+      <c r="C64" s="141">
         <v>1</v>
       </c>
-      <c r="D64" s="88">
+      <c r="D64" s="84">
         <v>15</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="24">
         <v>5</v>
       </c>
-      <c r="F64" s="88">
+      <c r="F64" s="84">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="G64" s="88">
+      <c r="G64" s="84">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H64" s="88">
+      <c r="H64" s="84">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I64" s="88">
+      <c r="I64" s="84">
         <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
-      <c r="J64" s="248">
+      <c r="J64" s="143">
         <f t="shared" si="5"/>
         <v>11.25</v>
       </c>
-      <c r="K64" s="88">
+      <c r="K64" s="84">
         <f t="shared" si="6"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="L64" s="88">
+      <c r="L64" s="84">
         <f t="shared" si="7"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="M64" s="103">
+      <c r="M64" s="99">
         <f t="shared" si="8"/>
         <v>11.25</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="88">
+      <c r="B65" s="84">
         <v>279</v>
       </c>
-      <c r="C65" s="150">
+      <c r="C65" s="142">
         <v>1</v>
       </c>
-      <c r="D65" s="88">
+      <c r="D65" s="84">
         <v>110</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="24">
         <v>5</v>
       </c>
-      <c r="F65" s="88">
+      <c r="F65" s="84">
         <f t="shared" si="1"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="G65" s="88">
+      <c r="G65" s="84">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="H65" s="88">
+      <c r="H65" s="84">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="I65" s="88">
+      <c r="I65" s="84">
         <f t="shared" si="4"/>
         <v>27.5</v>
       </c>
-      <c r="J65" s="248">
+      <c r="J65" s="143">
         <f t="shared" si="5"/>
         <v>82.5</v>
       </c>
-      <c r="K65" s="88">
+      <c r="K65" s="84">
         <f t="shared" si="6"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="L65" s="88">
+      <c r="L65" s="84">
         <f t="shared" si="7"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="M65" s="103">
+      <c r="M65" s="99">
         <f t="shared" si="8"/>
         <v>82.5</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="110" t="s">
+      <c r="A66" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="88">
+      <c r="B66" s="84">
         <v>179</v>
       </c>
-      <c r="C66" s="150">
+      <c r="C66" s="142">
         <v>1</v>
       </c>
-      <c r="D66" s="88">
+      <c r="D66" s="84">
         <v>15</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="24">
         <v>5</v>
       </c>
-      <c r="F66" s="88">
+      <c r="F66" s="84">
         <f t="shared" si="1"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="G66" s="88">
+      <c r="G66" s="84">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H66" s="88">
+      <c r="H66" s="84">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I66" s="88">
+      <c r="I66" s="84">
         <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
-      <c r="J66" s="248">
+      <c r="J66" s="143">
         <f t="shared" si="5"/>
         <v>11.25</v>
       </c>
-      <c r="K66" s="88">
+      <c r="K66" s="84">
         <f t="shared" si="6"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="L66" s="88">
+      <c r="L66" s="84">
         <f t="shared" si="7"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="M66" s="103">
+      <c r="M66" s="99">
         <f t="shared" si="8"/>
         <v>11.25</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="110" t="s">
+      <c r="A67" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="88">
+      <c r="B67" s="84">
         <v>258</v>
       </c>
-      <c r="C67" s="149">
+      <c r="C67" s="141">
         <v>1</v>
       </c>
-      <c r="D67" s="88">
+      <c r="D67" s="84">
         <v>52</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="24">
         <v>5</v>
       </c>
-      <c r="F67" s="88">
+      <c r="F67" s="84">
         <f t="shared" si="1"/>
         <v>41.2</v>
       </c>
-      <c r="G67" s="88">
+      <c r="G67" s="84">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="H67" s="88">
+      <c r="H67" s="84">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="I67" s="88">
+      <c r="I67" s="84">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="J67" s="248">
+      <c r="J67" s="143">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="K67" s="88">
+      <c r="K67" s="84">
         <f t="shared" si="6"/>
         <v>41.2</v>
       </c>
-      <c r="L67" s="88">
+      <c r="L67" s="84">
         <f t="shared" si="7"/>
         <v>41.2</v>
       </c>
-      <c r="M67" s="103">
+      <c r="M67" s="99">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="88">
+      <c r="B68" s="84">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C68" s="150">
+      <c r="C68" s="142">
         <v>1</v>
       </c>
-      <c r="D68" s="88">
+      <c r="D68" s="84">
         <v>0.02</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68" s="24">
         <v>5</v>
       </c>
-      <c r="F68" s="88">
+      <c r="F68" s="84">
         <f t="shared" si="1"/>
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="G68" s="88">
+      <c r="G68" s="84">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="H68" s="88">
+      <c r="H68" s="84">
         <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="I68" s="88">
+      <c r="I68" s="84">
         <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J68" s="248">
+      <c r="J68" s="143">
         <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K68" s="88">
+      <c r="K68" s="84">
         <f t="shared" si="6"/>
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="L68" s="88">
+      <c r="L68" s="84">
         <f t="shared" si="7"/>
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="M68" s="103">
+      <c r="M68" s="99">
         <f t="shared" si="8"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="88">
+      <c r="B69" s="84">
         <v>135</v>
       </c>
-      <c r="C69" s="149">
+      <c r="C69" s="141">
         <v>1</v>
       </c>
-      <c r="D69" s="88">
+      <c r="D69" s="84">
         <v>53</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E69" s="24">
         <v>5</v>
       </c>
-      <c r="F69" s="88">
+      <c r="F69" s="84">
         <f t="shared" si="1"/>
         <v>16.399999999999999</v>
       </c>
-      <c r="G69" s="88">
+      <c r="G69" s="84">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="H69" s="88">
+      <c r="H69" s="84">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="I69" s="88">
+      <c r="I69" s="84">
         <f t="shared" si="4"/>
         <v>13.25</v>
       </c>
-      <c r="J69" s="248">
+      <c r="J69" s="143">
         <f t="shared" si="5"/>
         <v>39.75</v>
       </c>
-      <c r="K69" s="88">
+      <c r="K69" s="84">
         <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
-      <c r="L69" s="88">
+      <c r="L69" s="84">
         <f t="shared" si="7"/>
         <v>16.399999999999999</v>
       </c>
-      <c r="M69" s="103">
+      <c r="M69" s="99">
         <f t="shared" si="8"/>
         <v>39.75</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="110" t="s">
+      <c r="A70" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="88">
+      <c r="B70" s="84">
         <v>6100</v>
       </c>
-      <c r="C70" s="149">
+      <c r="C70" s="141">
         <v>1</v>
       </c>
-      <c r="D70" s="88">
+      <c r="D70" s="84">
         <v>1200</v>
       </c>
-      <c r="E70" s="28">
+      <c r="E70" s="24">
         <v>5</v>
       </c>
-      <c r="F70" s="88">
+      <c r="F70" s="84">
         <f t="shared" si="1"/>
         <v>980</v>
       </c>
-      <c r="G70" s="88">
+      <c r="G70" s="84">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="H70" s="88">
+      <c r="H70" s="84">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="I70" s="88">
+      <c r="I70" s="84">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J70" s="248">
+      <c r="J70" s="143">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="K70" s="88">
+      <c r="K70" s="84">
         <f t="shared" si="6"/>
         <v>980</v>
       </c>
-      <c r="L70" s="88">
+      <c r="L70" s="84">
         <f t="shared" si="7"/>
         <v>980</v>
       </c>
-      <c r="M70" s="103">
+      <c r="M70" s="99">
         <f t="shared" si="8"/>
         <v>900</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="88">
+      <c r="B71" s="84">
         <v>290</v>
       </c>
-      <c r="C71" s="149">
+      <c r="C71" s="141">
         <v>2</v>
       </c>
-      <c r="D71" s="88">
+      <c r="D71" s="84">
         <v>96</v>
       </c>
-      <c r="E71" s="28">
+      <c r="E71" s="24">
         <v>5</v>
       </c>
-      <c r="F71" s="88">
+      <c r="F71" s="84">
         <f t="shared" si="1"/>
         <v>38.799999999999997</v>
       </c>
-      <c r="G71" s="88">
+      <c r="G71" s="84">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="H71" s="88">
+      <c r="H71" s="84">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="I71" s="88">
+      <c r="I71" s="84">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="J71" s="248">
+      <c r="J71" s="143">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="K71" s="88">
+      <c r="K71" s="84">
         <f t="shared" si="6"/>
         <v>77.599999999999994</v>
       </c>
-      <c r="L71" s="88">
+      <c r="L71" s="84">
         <f t="shared" si="7"/>
         <v>77.599999999999994</v>
       </c>
-      <c r="M71" s="103">
+      <c r="M71" s="99">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="110" t="s">
+      <c r="A72" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="88">
+      <c r="B72" s="84">
         <v>99</v>
       </c>
-      <c r="C72" s="150">
+      <c r="C72" s="142">
         <v>7</v>
       </c>
-      <c r="D72" s="88">
+      <c r="D72" s="84">
         <v>24</v>
       </c>
-      <c r="E72" s="28">
+      <c r="E72" s="24">
         <v>5</v>
       </c>
-      <c r="F72" s="88">
+      <c r="F72" s="84">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G72" s="88">
+      <c r="G72" s="84">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H72" s="88">
+      <c r="H72" s="84">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="I72" s="88">
+      <c r="I72" s="84">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J72" s="248">
+      <c r="J72" s="143">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="K72" s="88">
+      <c r="K72" s="84">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="L72" s="88">
+      <c r="L72" s="84">
         <f t="shared" si="7"/>
         <v>105</v>
       </c>
-      <c r="M72" s="103">
+      <c r="M72" s="99">
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="110" t="s">
+      <c r="A73" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="88">
+      <c r="B73" s="84">
         <v>125</v>
       </c>
-      <c r="C73" s="149">
+      <c r="C73" s="141">
         <v>1</v>
       </c>
-      <c r="D73" s="88">
+      <c r="D73" s="84">
         <v>30</v>
       </c>
-      <c r="E73" s="28">
+      <c r="E73" s="24">
         <v>5</v>
       </c>
-      <c r="F73" s="88">
+      <c r="F73" s="84">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G73" s="88">
+      <c r="G73" s="84">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H73" s="88">
+      <c r="H73" s="84">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I73" s="88">
+      <c r="I73" s="84">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="J73" s="248">
+      <c r="J73" s="143">
         <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
-      <c r="K73" s="88">
+      <c r="K73" s="84">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="L73" s="88">
+      <c r="L73" s="84">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="M73" s="103">
+      <c r="M73" s="99">
         <f t="shared" si="8"/>
         <v>22.5</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="135" t="s">
+      <c r="A74" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="88">
+      <c r="B74" s="84">
         <v>95</v>
       </c>
-      <c r="C74" s="150">
+      <c r="C74" s="142">
         <v>6</v>
       </c>
-      <c r="D74" s="88">
+      <c r="D74" s="84">
         <v>30</v>
       </c>
-      <c r="E74" s="28">
+      <c r="E74" s="24">
         <v>5</v>
       </c>
-      <c r="F74" s="88">
+      <c r="F74" s="84">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G74" s="88">
+      <c r="G74" s="84">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H74" s="88">
+      <c r="H74" s="84">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I74" s="88">
+      <c r="I74" s="84">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="J74" s="248">
+      <c r="J74" s="143">
         <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
-      <c r="K74" s="88">
+      <c r="K74" s="84">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="L74" s="88">
+      <c r="L74" s="84">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="M74" s="103">
+      <c r="M74" s="99">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="135" t="s">
+      <c r="A75" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="88">
+      <c r="B75" s="84">
         <v>27</v>
       </c>
-      <c r="C75" s="150">
+      <c r="C75" s="142">
         <v>6</v>
       </c>
-      <c r="D75" s="88">
+      <c r="D75" s="84">
         <v>5</v>
       </c>
-      <c r="E75" s="28">
+      <c r="E75" s="24">
         <v>5</v>
       </c>
-      <c r="F75" s="88">
+      <c r="F75" s="84">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="G75" s="88">
+      <c r="G75" s="84">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H75" s="88">
+      <c r="H75" s="84">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I75" s="88">
+      <c r="I75" s="84">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="J75" s="248">
+      <c r="J75" s="143">
         <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
-      <c r="K75" s="88">
+      <c r="K75" s="84">
         <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
-      <c r="L75" s="88">
+      <c r="L75" s="84">
         <f t="shared" si="7"/>
         <v>26.400000000000002</v>
       </c>
-      <c r="M75" s="103">
+      <c r="M75" s="99">
         <f t="shared" si="8"/>
         <v>22.5</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="110" t="s">
+      <c r="A76" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="B76" s="88">
+      <c r="B76" s="84">
         <v>148</v>
       </c>
-      <c r="C76" s="149">
+      <c r="C76" s="141">
         <v>1</v>
       </c>
-      <c r="D76" s="88">
+      <c r="D76" s="84">
         <v>58</v>
       </c>
-      <c r="E76" s="28">
+      <c r="E76" s="24">
         <v>5</v>
       </c>
-      <c r="F76" s="88">
+      <c r="F76" s="84">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G76" s="88">
+      <c r="G76" s="84">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="H76" s="88">
+      <c r="H76" s="84">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="I76" s="88">
+      <c r="I76" s="84">
         <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
-      <c r="J76" s="248">
+      <c r="J76" s="143">
         <f t="shared" si="5"/>
         <v>43.5</v>
       </c>
-      <c r="K76" s="88">
+      <c r="K76" s="84">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="L76" s="88">
+      <c r="L76" s="84">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="M76" s="103">
+      <c r="M76" s="99">
         <f t="shared" si="8"/>
         <v>43.5</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="110" t="s">
+      <c r="A77" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="B77" s="88">
+      <c r="B77" s="84">
         <v>36</v>
       </c>
-      <c r="C77" s="150">
+      <c r="C77" s="142">
         <v>6</v>
       </c>
-      <c r="D77" s="88">
+      <c r="D77" s="84">
         <v>12</v>
       </c>
-      <c r="E77" s="28">
+      <c r="E77" s="24">
         <v>5</v>
       </c>
-      <c r="F77" s="88">
+      <c r="F77" s="84">
         <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
-      <c r="G77" s="88">
+      <c r="G77" s="84">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H77" s="88">
+      <c r="H77" s="84">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I77" s="88">
+      <c r="I77" s="84">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J77" s="248">
+      <c r="J77" s="143">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="K77" s="88">
+      <c r="K77" s="84">
         <f t="shared" si="6"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="L77" s="88">
+      <c r="L77" s="84">
         <f t="shared" si="7"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="M77" s="103">
+      <c r="M77" s="99">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="110" t="s">
+      <c r="A78" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="B78" s="88">
+      <c r="B78" s="84">
         <v>79</v>
       </c>
-      <c r="C78" s="150">
+      <c r="C78" s="142">
         <v>1</v>
       </c>
-      <c r="D78" s="88">
+      <c r="D78" s="84">
         <v>20</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="24">
         <v>5</v>
       </c>
-      <c r="F78" s="88">
+      <c r="F78" s="84">
         <f t="shared" si="1"/>
         <v>11.8</v>
       </c>
-      <c r="G78" s="88">
+      <c r="G78" s="84">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H78" s="88">
+      <c r="H78" s="84">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I78" s="88">
+      <c r="I78" s="84">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J78" s="248">
+      <c r="J78" s="143">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="K78" s="88">
+      <c r="K78" s="84">
         <f t="shared" si="6"/>
         <v>11.8</v>
       </c>
-      <c r="L78" s="88">
+      <c r="L78" s="84">
         <f t="shared" si="7"/>
         <v>11.8</v>
       </c>
-      <c r="M78" s="103">
+      <c r="M78" s="99">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="110" t="s">
+      <c r="A79" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="88">
+      <c r="B79" s="84">
         <v>99</v>
       </c>
-      <c r="C79" s="150">
+      <c r="C79" s="142">
         <v>5</v>
       </c>
-      <c r="D79" s="88">
+      <c r="D79" s="84">
         <v>34</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79" s="24">
         <v>5</v>
       </c>
-      <c r="F79" s="88">
+      <c r="F79" s="84">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G79" s="88">
+      <c r="G79" s="84">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H79" s="88">
+      <c r="H79" s="84">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="I79" s="88">
+      <c r="I79" s="84">
         <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
-      <c r="J79" s="248">
+      <c r="J79" s="143">
         <f t="shared" si="5"/>
         <v>25.5</v>
       </c>
-      <c r="K79" s="88">
+      <c r="K79" s="84">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="L79" s="88">
+      <c r="L79" s="84">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="M79" s="103">
+      <c r="M79" s="99">
         <f t="shared" si="8"/>
         <v>127.5</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="110" t="s">
+      <c r="A80" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="B80" s="88">
+      <c r="B80" s="84">
         <v>100</v>
       </c>
-      <c r="C80" s="150">
+      <c r="C80" s="142">
         <v>6</v>
       </c>
-      <c r="D80" s="88">
+      <c r="D80" s="84">
         <v>32</v>
       </c>
-      <c r="E80" s="28">
+      <c r="E80" s="24">
         <v>5</v>
       </c>
-      <c r="F80" s="88">
+      <c r="F80" s="84">
         <f t="shared" si="1"/>
         <v>13.6</v>
       </c>
-      <c r="G80" s="88">
+      <c r="G80" s="84">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H80" s="88">
+      <c r="H80" s="84">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="I80" s="88">
+      <c r="I80" s="84">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J80" s="248">
+      <c r="J80" s="143">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="K80" s="88">
+      <c r="K80" s="84">
         <f t="shared" si="6"/>
         <v>81.599999999999994</v>
       </c>
-      <c r="L80" s="88">
+      <c r="L80" s="84">
         <f t="shared" si="7"/>
         <v>81.599999999999994</v>
       </c>
-      <c r="M80" s="103">
+      <c r="M80" s="99">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="110" t="s">
+      <c r="A81" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="B81" s="88">
+      <c r="B81" s="84">
         <v>15</v>
       </c>
-      <c r="C81" s="150">
+      <c r="C81" s="142">
         <v>5</v>
       </c>
-      <c r="D81" s="88">
+      <c r="D81" s="84">
         <v>2</v>
       </c>
-      <c r="E81" s="28">
+      <c r="E81" s="24">
         <v>5</v>
       </c>
-      <c r="F81" s="88">
+      <c r="F81" s="84">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="G81" s="88">
+      <c r="G81" s="84">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H81" s="88">
+      <c r="H81" s="84">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I81" s="88">
+      <c r="I81" s="84">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="J81" s="248">
+      <c r="J81" s="143">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="K81" s="88">
+      <c r="K81" s="84">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="L81" s="88">
+      <c r="L81" s="84">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="M81" s="103">
+      <c r="M81" s="99">
         <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="110" t="s">
+      <c r="A82" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="88">
+      <c r="B82" s="84">
         <v>50</v>
       </c>
-      <c r="C82" s="150">
+      <c r="C82" s="142">
         <v>6</v>
       </c>
-      <c r="D82" s="88">
+      <c r="D82" s="84">
         <v>10</v>
       </c>
-      <c r="E82" s="28">
+      <c r="E82" s="24">
         <v>5</v>
       </c>
-      <c r="F82" s="88">
+      <c r="F82" s="84">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G82" s="88">
+      <c r="G82" s="84">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H82" s="88">
+      <c r="H82" s="84">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I82" s="88">
+      <c r="I82" s="84">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="J82" s="248">
+      <c r="J82" s="143">
         <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
-      <c r="K82" s="88">
+      <c r="K82" s="84">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="L82" s="88">
+      <c r="L82" s="84">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="M82" s="103">
+      <c r="M82" s="99">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="110" t="s">
+      <c r="A83" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="88">
+      <c r="B83" s="84">
         <v>235</v>
       </c>
-      <c r="C83" s="150">
+      <c r="C83" s="142">
         <v>5</v>
       </c>
-      <c r="D83" s="88">
+      <c r="D83" s="84">
         <v>0</v>
       </c>
-      <c r="E83" s="28">
+      <c r="E83" s="24">
         <v>5</v>
       </c>
-      <c r="F83" s="88">
+      <c r="F83" s="84">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="G83" s="88">
+      <c r="G83" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H83" s="88">
+      <c r="H83" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I83" s="88">
+      <c r="I83" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J83" s="248">
+      <c r="J83" s="143">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K83" s="88">
+      <c r="K83" s="84">
         <f t="shared" si="6"/>
         <v>235</v>
       </c>
-      <c r="L83" s="88">
+      <c r="L83" s="84">
         <f t="shared" si="7"/>
         <v>235</v>
       </c>
-      <c r="M83" s="103">
+      <c r="M83" s="99">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="110" t="s">
+      <c r="A84" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="88">
+      <c r="B84" s="84">
         <v>349</v>
       </c>
-      <c r="C84" s="149">
+      <c r="C84" s="141">
         <v>1</v>
       </c>
-      <c r="D84" s="88">
+      <c r="D84" s="84">
         <v>0</v>
       </c>
-      <c r="E84" s="28">
+      <c r="E84" s="24">
         <v>5</v>
       </c>
-      <c r="F84" s="88">
+      <c r="F84" s="84">
         <f t="shared" si="1"/>
         <v>69.8</v>
       </c>
-      <c r="G84" s="88">
+      <c r="G84" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H84" s="88">
+      <c r="H84" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="88">
+      <c r="I84" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J84" s="248">
+      <c r="J84" s="143">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K84" s="88">
+      <c r="K84" s="84">
         <f t="shared" si="6"/>
         <v>69.8</v>
       </c>
-      <c r="L84" s="88">
+      <c r="L84" s="84">
         <f t="shared" si="7"/>
         <v>69.8</v>
       </c>
-      <c r="M84" s="103">
+      <c r="M84" s="99">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="110"/>
-      <c r="B85" s="88"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="88">
+      <c r="A85" s="106"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G85" s="88"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="88">
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J85" s="248">
+      <c r="J85" s="143">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K85" s="88">
+      <c r="K85" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L85" s="88">
+      <c r="L85" s="84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M85" s="103">
+      <c r="M85" s="99">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="110"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="88">
+      <c r="A86" s="106"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G86" s="88"/>
-      <c r="H86" s="88"/>
-      <c r="I86" s="88">
+      <c r="G86" s="84"/>
+      <c r="H86" s="84"/>
+      <c r="I86" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J86" s="248">
+      <c r="J86" s="143">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K86" s="88">
+      <c r="K86" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L86" s="88">
+      <c r="L86" s="84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M86" s="103">
+      <c r="M86" s="99">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="110"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="88">
+      <c r="A87" s="106"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G87" s="88"/>
-      <c r="H87" s="88"/>
-      <c r="I87" s="88">
+      <c r="G87" s="84"/>
+      <c r="H87" s="84"/>
+      <c r="I87" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J87" s="248">
+      <c r="J87" s="143">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K87" s="88">
+      <c r="K87" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L87" s="88">
+      <c r="L87" s="84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M87" s="103">
+      <c r="M87" s="99">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="110"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="88">
+      <c r="A88" s="106"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G88" s="88"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="88">
+      <c r="G88" s="84"/>
+      <c r="H88" s="84"/>
+      <c r="I88" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J88" s="248">
+      <c r="J88" s="143">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K88" s="88">
+      <c r="K88" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L88" s="88">
+      <c r="L88" s="84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M88" s="103">
+      <c r="M88" s="99">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="110"/>
-      <c r="B89" s="88"/>
-      <c r="C89" s="88"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="88">
+      <c r="A89" s="106"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G89" s="88"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="88">
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J89" s="248">
+      <c r="J89" s="143">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K89" s="88">
+      <c r="K89" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L89" s="88">
+      <c r="L89" s="84">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M89" s="103">
+      <c r="M89" s="99">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="37"/>
-      <c r="B90" s="111"/>
-      <c r="C90" s="111"/>
-      <c r="D90" s="111"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="111">
+      <c r="A90" s="33"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G90" s="111"/>
-      <c r="H90" s="111"/>
-      <c r="I90" s="111">
+      <c r="G90" s="107"/>
+      <c r="H90" s="107"/>
+      <c r="I90" s="107">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J90" s="249">
+      <c r="J90" s="144">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K90" s="111">
+      <c r="K90" s="107">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L90" s="111">
+      <c r="L90" s="107">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M90" s="131">
+      <c r="M90" s="123">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="F59:M59"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C29:C34"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A21:B21"/>
@@ -8381,16 +8388,6 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:M60"/>
-    <mergeCell ref="F59:M59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8418,251 +8415,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="250" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="243" t="s">
+      <c r="B5" s="248" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="243" t="s">
+      <c r="B8" s="248" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="243" t="s">
+      <c r="B9" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248"/>
+      <c r="F9" s="248"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="108" t="s">
         <v>117</v>
       </c>
       <c r="B10" s="247" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="248" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="248"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="243" t="s">
+      <c r="B12" s="248" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="243"/>
-      <c r="D12" s="243"/>
-      <c r="E12" s="243"/>
-      <c r="F12" s="243"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="108" t="s">
         <v>124</v>
       </c>
       <c r="B13" s="247" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="243"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="108" t="s">
         <v>126</v>
       </c>
       <c r="B14" s="247" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="243"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="C14" s="248"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="108" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="245" t="s">
@@ -8673,70 +8670,75 @@
       <c r="E15" s="245"/>
       <c r="F15" s="245"/>
       <c r="G15" s="246"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B12:G12"/>
@@ -8746,11 +8748,6 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
